--- a/Reports/SKI_BTCV.xlsx
+++ b/Reports/SKI_BTCV.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\library\git_hub\MpiSki\Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5E046F1-0FBC-456C-83D4-CAD8A5779D01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84C3BE2A-64F9-460D-9482-595BD684779B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5355" yWindow="2550" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Отчет ЦТ" sheetId="14" r:id="rId1"/>
@@ -575,45 +575,231 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="15" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="15" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="15" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -646,192 +832,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="15" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="15" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="15" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1173,8 +1173,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7477C688-F690-4F53-A182-C41AD585F5D0}">
   <dimension ref="A1:U75"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="D1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1192,111 +1192,111 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B1" s="101" t="s">
+      <c r="B1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="102" t="str">
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="28" t="str">
         <f>IF(M5="","",M5)</f>
         <v/>
       </c>
-      <c r="J1" s="102"/>
-      <c r="K1" s="102"/>
-      <c r="L1" s="103" t="s">
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="103"/>
-      <c r="N1" s="102" t="str">
+      <c r="M1" s="29"/>
+      <c r="N1" s="28" t="str">
         <f>IF(D7="","",D7)</f>
         <v/>
       </c>
-      <c r="O1" s="102"/>
-      <c r="P1" s="102"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B4" s="104" t="s">
+      <c r="B4" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="104"/>
-      <c r="D4" s="104"/>
-      <c r="E4" s="104"/>
-      <c r="F4" s="104"/>
-      <c r="G4" s="104"/>
-      <c r="J4" s="105" t="s">
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="J4" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="K4" s="106"/>
-      <c r="L4" s="106"/>
-      <c r="M4" s="106"/>
-      <c r="N4" s="106"/>
-      <c r="O4" s="106"/>
-      <c r="P4" s="107"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="25"/>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B5" s="98" t="s">
+      <c r="B5" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="99"/>
-      <c r="D5" s="98"/>
-      <c r="E5" s="100"/>
-      <c r="F5" s="100"/>
-      <c r="G5" s="99"/>
-      <c r="J5" s="91" t="s">
+      <c r="C5" s="31"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="31"/>
+      <c r="J5" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="K5" s="91"/>
-      <c r="L5" s="91"/>
-      <c r="M5" s="92"/>
-      <c r="N5" s="93"/>
-      <c r="O5" s="93"/>
-      <c r="P5" s="94"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="35"/>
+      <c r="P5" s="36"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B6" s="98" t="s">
+      <c r="B6" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="99"/>
-      <c r="D6" s="98"/>
-      <c r="E6" s="100"/>
-      <c r="F6" s="100"/>
-      <c r="G6" s="99"/>
-      <c r="J6" s="91" t="s">
+      <c r="C6" s="31"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="31"/>
+      <c r="J6" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="K6" s="91"/>
-      <c r="L6" s="91"/>
-      <c r="M6" s="92" t="s">
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="N6" s="93"/>
-      <c r="O6" s="93"/>
-      <c r="P6" s="94"/>
+      <c r="N6" s="35"/>
+      <c r="O6" s="35"/>
+      <c r="P6" s="36"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B7" s="98" t="s">
+      <c r="B7" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="99"/>
-      <c r="D7" s="98"/>
-      <c r="E7" s="100"/>
-      <c r="F7" s="100"/>
-      <c r="G7" s="99"/>
-      <c r="J7" s="91" t="s">
+      <c r="C7" s="31"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="31"/>
+      <c r="J7" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="K7" s="91"/>
-      <c r="L7" s="91"/>
-      <c r="M7" s="92" t="s">
+      <c r="K7" s="33"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="N7" s="93"/>
-      <c r="O7" s="93"/>
-      <c r="P7" s="94"/>
+      <c r="N7" s="35"/>
+      <c r="O7" s="35"/>
+      <c r="P7" s="36"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B8" s="10"/>
@@ -1305,26 +1305,26 @@
       <c r="E8" s="10"/>
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
-      <c r="J8" s="98" t="s">
+      <c r="J8" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="K8" s="100"/>
-      <c r="L8" s="99"/>
-      <c r="M8" s="92"/>
-      <c r="N8" s="93"/>
-      <c r="O8" s="93"/>
-      <c r="P8" s="94"/>
+      <c r="K8" s="32"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="34"/>
+      <c r="N8" s="35"/>
+      <c r="O8" s="35"/>
+      <c r="P8" s="36"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="J9" s="91" t="s">
+      <c r="J9" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="K9" s="91"/>
-      <c r="L9" s="91"/>
-      <c r="M9" s="92"/>
-      <c r="N9" s="93"/>
-      <c r="O9" s="93"/>
-      <c r="P9" s="94"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="33"/>
+      <c r="M9" s="34"/>
+      <c r="N9" s="35"/>
+      <c r="O9" s="35"/>
+      <c r="P9" s="36"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B10" s="16"/>
@@ -1333,17 +1333,17 @@
       <c r="E10" s="16"/>
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
-      <c r="J10" s="91" t="s">
+      <c r="J10" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="K10" s="91"/>
-      <c r="L10" s="91"/>
-      <c r="M10" s="92" t="s">
+      <c r="K10" s="33"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="N10" s="93"/>
-      <c r="O10" s="93"/>
-      <c r="P10" s="94"/>
+      <c r="N10" s="35"/>
+      <c r="O10" s="35"/>
+      <c r="P10" s="36"/>
     </row>
     <row r="11" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="16"/>
@@ -1352,17 +1352,17 @@
       <c r="E11" s="16"/>
       <c r="F11" s="16"/>
       <c r="G11" s="16"/>
-      <c r="J11" s="87" t="s">
+      <c r="J11" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="K11" s="88"/>
-      <c r="L11" s="89"/>
-      <c r="M11" s="95" t="s">
+      <c r="K11" s="38"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="N11" s="96"/>
-      <c r="O11" s="96"/>
-      <c r="P11" s="97"/>
+      <c r="N11" s="41"/>
+      <c r="O11" s="41"/>
+      <c r="P11" s="42"/>
     </row>
     <row r="12" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="16"/>
@@ -1371,15 +1371,15 @@
       <c r="E12" s="16"/>
       <c r="F12" s="16"/>
       <c r="G12" s="16"/>
-      <c r="J12" s="81" t="s">
+      <c r="J12" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="K12" s="82"/>
-      <c r="L12" s="83"/>
-      <c r="M12" s="84"/>
-      <c r="N12" s="85"/>
-      <c r="O12" s="85"/>
-      <c r="P12" s="86"/>
+      <c r="K12" s="47"/>
+      <c r="L12" s="48"/>
+      <c r="M12" s="49"/>
+      <c r="N12" s="50"/>
+      <c r="O12" s="50"/>
+      <c r="P12" s="51"/>
     </row>
     <row r="13" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="16"/>
@@ -1388,17 +1388,17 @@
       <c r="E13" s="16"/>
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
-      <c r="J13" s="87" t="s">
+      <c r="J13" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="K13" s="88"/>
-      <c r="L13" s="89"/>
-      <c r="M13" s="84" t="s">
+      <c r="K13" s="38"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="N13" s="85"/>
-      <c r="O13" s="85"/>
-      <c r="P13" s="86"/>
+      <c r="N13" s="50"/>
+      <c r="O13" s="50"/>
+      <c r="P13" s="51"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B14" s="16"/>
@@ -1407,15 +1407,15 @@
       <c r="E14" s="16"/>
       <c r="F14" s="16"/>
       <c r="G14" s="16"/>
-      <c r="J14" s="90" t="s">
+      <c r="J14" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="K14" s="90"/>
-      <c r="L14" s="90"/>
-      <c r="M14" s="78"/>
-      <c r="N14" s="78"/>
-      <c r="O14" s="78"/>
-      <c r="P14" s="78"/>
+      <c r="K14" s="52"/>
+      <c r="L14" s="52"/>
+      <c r="M14" s="43"/>
+      <c r="N14" s="43"/>
+      <c r="O14" s="43"/>
+      <c r="P14" s="43"/>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B15" s="16"/>
@@ -1424,15 +1424,15 @@
       <c r="E15" s="16"/>
       <c r="F15" s="16"/>
       <c r="G15" s="16"/>
-      <c r="J15" s="79" t="s">
+      <c r="J15" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="K15" s="79"/>
-      <c r="L15" s="79"/>
-      <c r="M15" s="80"/>
-      <c r="N15" s="80"/>
-      <c r="O15" s="80"/>
-      <c r="P15" s="80"/>
+      <c r="K15" s="44"/>
+      <c r="L15" s="44"/>
+      <c r="M15" s="45"/>
+      <c r="N15" s="45"/>
+      <c r="O15" s="45"/>
+      <c r="P15" s="45"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B16" s="16"/>
@@ -1488,408 +1488,408 @@
       <c r="G19" s="16"/>
     </row>
     <row r="20" spans="1:21" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="70" t="s">
+      <c r="A20" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="70"/>
-      <c r="C20" s="70"/>
-      <c r="D20" s="70"/>
-      <c r="E20" s="70"/>
-      <c r="F20" s="70"/>
-      <c r="G20" s="70"/>
-      <c r="H20" s="70"/>
-      <c r="I20" s="70"/>
-      <c r="J20" s="70"/>
-      <c r="K20" s="70"/>
-      <c r="L20" s="70"/>
-      <c r="M20" s="70"/>
-      <c r="N20" s="70"/>
-      <c r="O20" s="70"/>
-      <c r="P20" s="70"/>
-      <c r="Q20" s="70"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="53"/>
+      <c r="K20" s="53"/>
+      <c r="L20" s="53"/>
+      <c r="M20" s="53"/>
+      <c r="N20" s="53"/>
+      <c r="O20" s="53"/>
+      <c r="P20" s="53"/>
+      <c r="Q20" s="53"/>
     </row>
     <row r="21" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="70"/>
-      <c r="B21" s="70"/>
-      <c r="C21" s="70"/>
-      <c r="D21" s="70"/>
-      <c r="E21" s="70"/>
-      <c r="F21" s="70"/>
-      <c r="G21" s="70"/>
-      <c r="H21" s="70"/>
-      <c r="I21" s="70"/>
-      <c r="J21" s="70"/>
-      <c r="K21" s="70"/>
-      <c r="L21" s="70"/>
-      <c r="M21" s="70"/>
-      <c r="N21" s="70"/>
-      <c r="O21" s="70"/>
-      <c r="P21" s="70"/>
-      <c r="Q21" s="70"/>
+      <c r="A21" s="53"/>
+      <c r="B21" s="53"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="53"/>
+      <c r="I21" s="53"/>
+      <c r="J21" s="53"/>
+      <c r="K21" s="53"/>
+      <c r="L21" s="53"/>
+      <c r="M21" s="53"/>
+      <c r="N21" s="53"/>
+      <c r="O21" s="53"/>
+      <c r="P21" s="53"/>
+      <c r="Q21" s="53"/>
     </row>
     <row r="22" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="70"/>
-      <c r="B22" s="70"/>
-      <c r="C22" s="70"/>
-      <c r="D22" s="70"/>
-      <c r="E22" s="70"/>
-      <c r="F22" s="70"/>
-      <c r="G22" s="70"/>
-      <c r="H22" s="70"/>
-      <c r="I22" s="70"/>
-      <c r="J22" s="70"/>
-      <c r="K22" s="70"/>
-      <c r="L22" s="70"/>
-      <c r="M22" s="70"/>
-      <c r="N22" s="70"/>
-      <c r="O22" s="70"/>
-      <c r="P22" s="70"/>
-      <c r="Q22" s="70"/>
+      <c r="A22" s="53"/>
+      <c r="B22" s="53"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="53"/>
+      <c r="H22" s="53"/>
+      <c r="I22" s="53"/>
+      <c r="J22" s="53"/>
+      <c r="K22" s="53"/>
+      <c r="L22" s="53"/>
+      <c r="M22" s="53"/>
+      <c r="N22" s="53"/>
+      <c r="O22" s="53"/>
+      <c r="P22" s="53"/>
+      <c r="Q22" s="53"/>
     </row>
     <row r="23" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="P23" s="17"/>
     </row>
     <row r="24" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="69"/>
-      <c r="C24" s="69"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="69"/>
-      <c r="G24" s="69"/>
-      <c r="H24" s="69"/>
-      <c r="I24" s="69"/>
-      <c r="J24" s="69"/>
-      <c r="K24" s="69"/>
-      <c r="L24" s="69"/>
-      <c r="M24" s="69"/>
-      <c r="N24" s="69"/>
-      <c r="O24" s="69"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="26"/>
+      <c r="L24" s="26"/>
+      <c r="M24" s="26"/>
+      <c r="N24" s="26"/>
+      <c r="O24" s="26"/>
       <c r="P24" s="17"/>
     </row>
     <row r="25" spans="1:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="77"/>
-      <c r="C25" s="77"/>
-      <c r="D25" s="77"/>
-      <c r="E25" s="77"/>
-      <c r="F25" s="77"/>
-      <c r="G25" s="77"/>
-      <c r="H25" s="77"/>
-      <c r="I25" s="77"/>
-      <c r="J25" s="77"/>
-      <c r="K25" s="77"/>
-      <c r="L25" s="77"/>
-      <c r="M25" s="77"/>
-      <c r="N25" s="77"/>
-      <c r="O25" s="77"/>
+      <c r="B25" s="63"/>
+      <c r="C25" s="63"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="63"/>
+      <c r="F25" s="63"/>
+      <c r="G25" s="63"/>
+      <c r="H25" s="63"/>
+      <c r="I25" s="63"/>
+      <c r="J25" s="63"/>
+      <c r="K25" s="63"/>
+      <c r="L25" s="63"/>
+      <c r="M25" s="63"/>
+      <c r="N25" s="63"/>
+      <c r="O25" s="63"/>
       <c r="P25" s="17"/>
     </row>
     <row r="26" spans="1:21" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="23" t="s">
+      <c r="B26" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="27"/>
-      <c r="J26" s="27"/>
-      <c r="K26" s="27"/>
-      <c r="L26" s="27"/>
-      <c r="M26" s="27"/>
-      <c r="N26" s="27"/>
-      <c r="O26" s="28"/>
+      <c r="C26" s="61"/>
+      <c r="D26" s="61"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="61"/>
+      <c r="G26" s="62"/>
+      <c r="H26" s="57"/>
+      <c r="I26" s="58"/>
+      <c r="J26" s="58"/>
+      <c r="K26" s="58"/>
+      <c r="L26" s="58"/>
+      <c r="M26" s="58"/>
+      <c r="N26" s="58"/>
+      <c r="O26" s="59"/>
       <c r="P26" s="17"/>
-      <c r="Q26" s="71"/>
-      <c r="R26" s="72"/>
-      <c r="S26" s="72"/>
-      <c r="T26" s="72"/>
-      <c r="U26" s="72"/>
+      <c r="Q26" s="64"/>
+      <c r="R26" s="65"/>
+      <c r="S26" s="65"/>
+      <c r="T26" s="65"/>
+      <c r="U26" s="65"/>
     </row>
     <row r="27" spans="1:21" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="23"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="27"/>
-      <c r="J27" s="27"/>
-      <c r="K27" s="27"/>
-      <c r="L27" s="27"/>
-      <c r="M27" s="27"/>
-      <c r="N27" s="27"/>
-      <c r="O27" s="28"/>
+      <c r="B27" s="60"/>
+      <c r="C27" s="61"/>
+      <c r="D27" s="61"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="61"/>
+      <c r="G27" s="62"/>
+      <c r="H27" s="57"/>
+      <c r="I27" s="58"/>
+      <c r="J27" s="58"/>
+      <c r="K27" s="58"/>
+      <c r="L27" s="58"/>
+      <c r="M27" s="58"/>
+      <c r="N27" s="58"/>
+      <c r="O27" s="59"/>
       <c r="P27" s="17"/>
-      <c r="Q27" s="71"/>
-      <c r="R27" s="72"/>
-      <c r="S27" s="72"/>
-      <c r="T27" s="72"/>
-      <c r="U27" s="72"/>
+      <c r="Q27" s="64"/>
+      <c r="R27" s="65"/>
+      <c r="S27" s="65"/>
+      <c r="T27" s="65"/>
+      <c r="U27" s="65"/>
     </row>
     <row r="28" spans="1:21" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="23" t="s">
+      <c r="B28" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="55"/>
-      <c r="I28" s="56"/>
-      <c r="J28" s="56"/>
-      <c r="K28" s="56"/>
-      <c r="L28" s="56"/>
-      <c r="M28" s="56"/>
-      <c r="N28" s="56"/>
-      <c r="O28" s="57"/>
+      <c r="C28" s="61"/>
+      <c r="D28" s="61"/>
+      <c r="E28" s="61"/>
+      <c r="F28" s="61"/>
+      <c r="G28" s="62"/>
+      <c r="H28" s="54"/>
+      <c r="I28" s="55"/>
+      <c r="J28" s="55"/>
+      <c r="K28" s="55"/>
+      <c r="L28" s="55"/>
+      <c r="M28" s="55"/>
+      <c r="N28" s="55"/>
+      <c r="O28" s="56"/>
       <c r="P28" s="13"/>
-      <c r="R28" s="73"/>
-      <c r="S28" s="73"/>
-      <c r="T28" s="73"/>
-      <c r="U28" s="73"/>
+      <c r="R28" s="66"/>
+      <c r="S28" s="66"/>
+      <c r="T28" s="66"/>
+      <c r="U28" s="66"/>
     </row>
     <row r="29" spans="1:21" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="23"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="55"/>
-      <c r="I29" s="56"/>
-      <c r="J29" s="56"/>
-      <c r="K29" s="56"/>
-      <c r="L29" s="56"/>
-      <c r="M29" s="56"/>
-      <c r="N29" s="56"/>
-      <c r="O29" s="57"/>
+      <c r="B29" s="60"/>
+      <c r="C29" s="61"/>
+      <c r="D29" s="61"/>
+      <c r="E29" s="61"/>
+      <c r="F29" s="61"/>
+      <c r="G29" s="62"/>
+      <c r="H29" s="54"/>
+      <c r="I29" s="55"/>
+      <c r="J29" s="55"/>
+      <c r="K29" s="55"/>
+      <c r="L29" s="55"/>
+      <c r="M29" s="55"/>
+      <c r="N29" s="55"/>
+      <c r="O29" s="56"/>
       <c r="P29" s="13"/>
-      <c r="R29" s="73"/>
-      <c r="S29" s="73"/>
-      <c r="T29" s="73"/>
-      <c r="U29" s="73"/>
+      <c r="R29" s="66"/>
+      <c r="S29" s="66"/>
+      <c r="T29" s="66"/>
+      <c r="U29" s="66"/>
     </row>
     <row r="30" spans="1:21" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="23" t="s">
+      <c r="B30" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="55"/>
-      <c r="I30" s="56"/>
-      <c r="J30" s="56"/>
-      <c r="K30" s="56"/>
-      <c r="L30" s="56"/>
-      <c r="M30" s="56"/>
-      <c r="N30" s="56"/>
-      <c r="O30" s="57"/>
+      <c r="C30" s="61"/>
+      <c r="D30" s="61"/>
+      <c r="E30" s="61"/>
+      <c r="F30" s="61"/>
+      <c r="G30" s="62"/>
+      <c r="H30" s="54"/>
+      <c r="I30" s="55"/>
+      <c r="J30" s="55"/>
+      <c r="K30" s="55"/>
+      <c r="L30" s="55"/>
+      <c r="M30" s="55"/>
+      <c r="N30" s="55"/>
+      <c r="O30" s="56"/>
       <c r="P30" s="13"/>
-      <c r="Q30" s="71"/>
-      <c r="R30" s="72"/>
-      <c r="S30" s="72"/>
-      <c r="T30" s="72"/>
-      <c r="U30" s="72"/>
+      <c r="Q30" s="64"/>
+      <c r="R30" s="65"/>
+      <c r="S30" s="65"/>
+      <c r="T30" s="65"/>
+      <c r="U30" s="65"/>
     </row>
     <row r="31" spans="1:21" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="23"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="55"/>
-      <c r="I31" s="56"/>
-      <c r="J31" s="56"/>
-      <c r="K31" s="56"/>
-      <c r="L31" s="56"/>
-      <c r="M31" s="56"/>
-      <c r="N31" s="56"/>
-      <c r="O31" s="57"/>
+      <c r="B31" s="60"/>
+      <c r="C31" s="61"/>
+      <c r="D31" s="61"/>
+      <c r="E31" s="61"/>
+      <c r="F31" s="61"/>
+      <c r="G31" s="62"/>
+      <c r="H31" s="54"/>
+      <c r="I31" s="55"/>
+      <c r="J31" s="55"/>
+      <c r="K31" s="55"/>
+      <c r="L31" s="55"/>
+      <c r="M31" s="55"/>
+      <c r="N31" s="55"/>
+      <c r="O31" s="56"/>
       <c r="P31" s="13"/>
-      <c r="Q31" s="71"/>
-      <c r="R31" s="72"/>
-      <c r="S31" s="72"/>
-      <c r="T31" s="72"/>
-      <c r="U31" s="72"/>
+      <c r="Q31" s="64"/>
+      <c r="R31" s="65"/>
+      <c r="S31" s="65"/>
+      <c r="T31" s="65"/>
+      <c r="U31" s="65"/>
     </row>
     <row r="32" spans="1:21" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="74" t="s">
+      <c r="B32" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="C32" s="75"/>
-      <c r="D32" s="75"/>
-      <c r="E32" s="75"/>
-      <c r="F32" s="75"/>
-      <c r="G32" s="76"/>
-      <c r="H32" s="58"/>
-      <c r="I32" s="59"/>
-      <c r="J32" s="59"/>
-      <c r="K32" s="59"/>
-      <c r="L32" s="59"/>
-      <c r="M32" s="59"/>
-      <c r="N32" s="59"/>
-      <c r="O32" s="60"/>
+      <c r="C32" s="68"/>
+      <c r="D32" s="68"/>
+      <c r="E32" s="68"/>
+      <c r="F32" s="68"/>
+      <c r="G32" s="69"/>
+      <c r="H32" s="79"/>
+      <c r="I32" s="80"/>
+      <c r="J32" s="80"/>
+      <c r="K32" s="80"/>
+      <c r="L32" s="80"/>
+      <c r="M32" s="80"/>
+      <c r="N32" s="80"/>
+      <c r="O32" s="81"/>
       <c r="P32" s="12"/>
-      <c r="Q32" s="71"/>
-      <c r="R32" s="72"/>
-      <c r="S32" s="72"/>
-      <c r="T32" s="72"/>
-      <c r="U32" s="72"/>
+      <c r="Q32" s="64"/>
+      <c r="R32" s="65"/>
+      <c r="S32" s="65"/>
+      <c r="T32" s="65"/>
+      <c r="U32" s="65"/>
     </row>
     <row r="33" spans="1:21" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="74"/>
-      <c r="C33" s="75"/>
-      <c r="D33" s="75"/>
-      <c r="E33" s="75"/>
-      <c r="F33" s="75"/>
-      <c r="G33" s="76"/>
-      <c r="H33" s="58"/>
-      <c r="I33" s="59"/>
-      <c r="J33" s="59"/>
-      <c r="K33" s="59"/>
-      <c r="L33" s="59"/>
-      <c r="M33" s="59"/>
-      <c r="N33" s="59"/>
-      <c r="O33" s="60"/>
+      <c r="B33" s="67"/>
+      <c r="C33" s="68"/>
+      <c r="D33" s="68"/>
+      <c r="E33" s="68"/>
+      <c r="F33" s="68"/>
+      <c r="G33" s="69"/>
+      <c r="H33" s="79"/>
+      <c r="I33" s="80"/>
+      <c r="J33" s="80"/>
+      <c r="K33" s="80"/>
+      <c r="L33" s="80"/>
+      <c r="M33" s="80"/>
+      <c r="N33" s="80"/>
+      <c r="O33" s="81"/>
       <c r="P33" s="12"/>
-      <c r="Q33" s="71"/>
-      <c r="R33" s="72"/>
-      <c r="S33" s="72"/>
-      <c r="T33" s="72"/>
-      <c r="U33" s="72"/>
+      <c r="Q33" s="64"/>
+      <c r="R33" s="65"/>
+      <c r="S33" s="65"/>
+      <c r="T33" s="65"/>
+      <c r="U33" s="65"/>
     </row>
     <row r="34" spans="1:21" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="49" t="s">
+      <c r="B34" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="C34" s="50"/>
-      <c r="D34" s="50"/>
-      <c r="E34" s="50"/>
-      <c r="F34" s="50"/>
-      <c r="G34" s="51"/>
-      <c r="H34" s="55"/>
-      <c r="I34" s="56"/>
-      <c r="J34" s="56"/>
-      <c r="K34" s="56"/>
-      <c r="L34" s="56"/>
-      <c r="M34" s="56"/>
-      <c r="N34" s="56"/>
-      <c r="O34" s="57"/>
+      <c r="C34" s="74"/>
+      <c r="D34" s="74"/>
+      <c r="E34" s="74"/>
+      <c r="F34" s="74"/>
+      <c r="G34" s="75"/>
+      <c r="H34" s="54"/>
+      <c r="I34" s="55"/>
+      <c r="J34" s="55"/>
+      <c r="K34" s="55"/>
+      <c r="L34" s="55"/>
+      <c r="M34" s="55"/>
+      <c r="N34" s="55"/>
+      <c r="O34" s="56"/>
       <c r="P34" s="11"/>
     </row>
     <row r="35" spans="1:21" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="52"/>
-      <c r="C35" s="53"/>
-      <c r="D35" s="53"/>
-      <c r="E35" s="53"/>
-      <c r="F35" s="53"/>
-      <c r="G35" s="54"/>
-      <c r="H35" s="55"/>
-      <c r="I35" s="56"/>
-      <c r="J35" s="56"/>
-      <c r="K35" s="56"/>
-      <c r="L35" s="56"/>
-      <c r="M35" s="56"/>
-      <c r="N35" s="56"/>
-      <c r="O35" s="57"/>
+      <c r="B35" s="76"/>
+      <c r="C35" s="77"/>
+      <c r="D35" s="77"/>
+      <c r="E35" s="77"/>
+      <c r="F35" s="77"/>
+      <c r="G35" s="78"/>
+      <c r="H35" s="54"/>
+      <c r="I35" s="55"/>
+      <c r="J35" s="55"/>
+      <c r="K35" s="55"/>
+      <c r="L35" s="55"/>
+      <c r="M35" s="55"/>
+      <c r="N35" s="55"/>
+      <c r="O35" s="56"/>
       <c r="P35" s="11"/>
     </row>
     <row r="36" spans="1:21" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="61"/>
-      <c r="C36" s="61"/>
-      <c r="D36" s="61"/>
-      <c r="E36" s="61"/>
-      <c r="F36" s="61"/>
-      <c r="G36" s="61"/>
-      <c r="H36" s="63"/>
-      <c r="I36" s="63"/>
-      <c r="J36" s="63"/>
-      <c r="K36" s="63"/>
-      <c r="L36" s="63"/>
-      <c r="M36" s="63"/>
-      <c r="N36" s="63"/>
-      <c r="O36" s="63"/>
+      <c r="B36" s="88"/>
+      <c r="C36" s="88"/>
+      <c r="D36" s="88"/>
+      <c r="E36" s="88"/>
+      <c r="F36" s="88"/>
+      <c r="G36" s="88"/>
+      <c r="H36" s="90"/>
+      <c r="I36" s="90"/>
+      <c r="J36" s="90"/>
+      <c r="K36" s="90"/>
+      <c r="L36" s="90"/>
+      <c r="M36" s="90"/>
+      <c r="N36" s="90"/>
+      <c r="O36" s="90"/>
       <c r="P36" s="11"/>
     </row>
     <row r="37" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="62"/>
-      <c r="C37" s="62"/>
-      <c r="D37" s="62"/>
-      <c r="E37" s="62"/>
-      <c r="F37" s="62"/>
-      <c r="G37" s="62"/>
-      <c r="H37" s="64"/>
-      <c r="I37" s="64"/>
-      <c r="J37" s="64"/>
-      <c r="K37" s="64"/>
-      <c r="L37" s="64"/>
-      <c r="M37" s="64"/>
-      <c r="N37" s="64"/>
-      <c r="O37" s="64"/>
+      <c r="B37" s="89"/>
+      <c r="C37" s="89"/>
+      <c r="D37" s="89"/>
+      <c r="E37" s="89"/>
+      <c r="F37" s="89"/>
+      <c r="G37" s="89"/>
+      <c r="H37" s="91"/>
+      <c r="I37" s="91"/>
+      <c r="J37" s="91"/>
+      <c r="K37" s="91"/>
+      <c r="L37" s="91"/>
+      <c r="M37" s="91"/>
+      <c r="N37" s="91"/>
+      <c r="O37" s="91"/>
       <c r="P37" s="11"/>
     </row>
     <row r="38" spans="1:21" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="70" t="s">
+      <c r="A38" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="B38" s="70"/>
-      <c r="C38" s="70"/>
-      <c r="D38" s="70"/>
-      <c r="E38" s="70"/>
-      <c r="F38" s="70"/>
-      <c r="G38" s="70"/>
-      <c r="H38" s="70"/>
-      <c r="I38" s="70"/>
-      <c r="J38" s="70"/>
-      <c r="K38" s="70"/>
-      <c r="L38" s="70"/>
-      <c r="M38" s="70"/>
-      <c r="N38" s="70"/>
-      <c r="O38" s="70"/>
-      <c r="P38" s="70"/>
+      <c r="B38" s="53"/>
+      <c r="C38" s="53"/>
+      <c r="D38" s="53"/>
+      <c r="E38" s="53"/>
+      <c r="F38" s="53"/>
+      <c r="G38" s="53"/>
+      <c r="H38" s="53"/>
+      <c r="I38" s="53"/>
+      <c r="J38" s="53"/>
+      <c r="K38" s="53"/>
+      <c r="L38" s="53"/>
+      <c r="M38" s="53"/>
+      <c r="N38" s="53"/>
+      <c r="O38" s="53"/>
+      <c r="P38" s="53"/>
     </row>
     <row r="39" spans="1:21" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="70"/>
-      <c r="B39" s="70"/>
-      <c r="C39" s="70"/>
-      <c r="D39" s="70"/>
-      <c r="E39" s="70"/>
-      <c r="F39" s="70"/>
-      <c r="G39" s="70"/>
-      <c r="H39" s="70"/>
-      <c r="I39" s="70"/>
-      <c r="J39" s="70"/>
-      <c r="K39" s="70"/>
-      <c r="L39" s="70"/>
-      <c r="M39" s="70"/>
-      <c r="N39" s="70"/>
-      <c r="O39" s="70"/>
-      <c r="P39" s="70"/>
+      <c r="A39" s="53"/>
+      <c r="B39" s="53"/>
+      <c r="C39" s="53"/>
+      <c r="D39" s="53"/>
+      <c r="E39" s="53"/>
+      <c r="F39" s="53"/>
+      <c r="G39" s="53"/>
+      <c r="H39" s="53"/>
+      <c r="I39" s="53"/>
+      <c r="J39" s="53"/>
+      <c r="K39" s="53"/>
+      <c r="L39" s="53"/>
+      <c r="M39" s="53"/>
+      <c r="N39" s="53"/>
+      <c r="O39" s="53"/>
+      <c r="P39" s="53"/>
     </row>
     <row r="40" spans="1:21" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="70"/>
-      <c r="B40" s="70"/>
-      <c r="C40" s="70"/>
-      <c r="D40" s="70"/>
-      <c r="E40" s="70"/>
-      <c r="F40" s="70"/>
-      <c r="G40" s="70"/>
-      <c r="H40" s="70"/>
-      <c r="I40" s="70"/>
-      <c r="J40" s="70"/>
-      <c r="K40" s="70"/>
-      <c r="L40" s="70"/>
-      <c r="M40" s="70"/>
-      <c r="N40" s="70"/>
-      <c r="O40" s="70"/>
-      <c r="P40" s="70"/>
+      <c r="A40" s="53"/>
+      <c r="B40" s="53"/>
+      <c r="C40" s="53"/>
+      <c r="D40" s="53"/>
+      <c r="E40" s="53"/>
+      <c r="F40" s="53"/>
+      <c r="G40" s="53"/>
+      <c r="H40" s="53"/>
+      <c r="I40" s="53"/>
+      <c r="J40" s="53"/>
+      <c r="K40" s="53"/>
+      <c r="L40" s="53"/>
+      <c r="M40" s="53"/>
+      <c r="N40" s="53"/>
+      <c r="O40" s="53"/>
+      <c r="P40" s="53"/>
     </row>
     <row r="41" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="14"/>
@@ -1943,219 +1943,219 @@
       <c r="P43" s="14"/>
     </row>
     <row r="44" spans="1:21" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="23" t="s">
+      <c r="B44" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="C44" s="24"/>
-      <c r="D44" s="24"/>
-      <c r="E44" s="24"/>
-      <c r="F44" s="24"/>
-      <c r="G44" s="25"/>
-      <c r="H44" s="26"/>
-      <c r="I44" s="27"/>
-      <c r="J44" s="27"/>
-      <c r="K44" s="27"/>
-      <c r="L44" s="27"/>
-      <c r="M44" s="27"/>
-      <c r="N44" s="27"/>
-      <c r="O44" s="28"/>
+      <c r="C44" s="61"/>
+      <c r="D44" s="61"/>
+      <c r="E44" s="61"/>
+      <c r="F44" s="61"/>
+      <c r="G44" s="62"/>
+      <c r="H44" s="57"/>
+      <c r="I44" s="58"/>
+      <c r="J44" s="58"/>
+      <c r="K44" s="58"/>
+      <c r="L44" s="58"/>
+      <c r="M44" s="58"/>
+      <c r="N44" s="58"/>
+      <c r="O44" s="59"/>
       <c r="P44" s="14"/>
     </row>
     <row r="45" spans="1:21" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="23"/>
-      <c r="C45" s="24"/>
-      <c r="D45" s="24"/>
-      <c r="E45" s="24"/>
-      <c r="F45" s="24"/>
-      <c r="G45" s="25"/>
-      <c r="H45" s="26"/>
-      <c r="I45" s="27"/>
-      <c r="J45" s="27"/>
-      <c r="K45" s="27"/>
-      <c r="L45" s="27"/>
-      <c r="M45" s="27"/>
-      <c r="N45" s="27"/>
-      <c r="O45" s="28"/>
+      <c r="B45" s="60"/>
+      <c r="C45" s="61"/>
+      <c r="D45" s="61"/>
+      <c r="E45" s="61"/>
+      <c r="F45" s="61"/>
+      <c r="G45" s="62"/>
+      <c r="H45" s="57"/>
+      <c r="I45" s="58"/>
+      <c r="J45" s="58"/>
+      <c r="K45" s="58"/>
+      <c r="L45" s="58"/>
+      <c r="M45" s="58"/>
+      <c r="N45" s="58"/>
+      <c r="O45" s="59"/>
       <c r="P45" s="14"/>
     </row>
     <row r="46" spans="1:21" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="23" t="s">
+      <c r="B46" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="C46" s="24"/>
-      <c r="D46" s="24"/>
-      <c r="E46" s="24"/>
-      <c r="F46" s="24"/>
-      <c r="G46" s="25"/>
-      <c r="H46" s="26"/>
-      <c r="I46" s="27"/>
-      <c r="J46" s="27"/>
-      <c r="K46" s="27"/>
-      <c r="L46" s="27"/>
-      <c r="M46" s="27"/>
-      <c r="N46" s="27"/>
-      <c r="O46" s="28"/>
+      <c r="C46" s="61"/>
+      <c r="D46" s="61"/>
+      <c r="E46" s="61"/>
+      <c r="F46" s="61"/>
+      <c r="G46" s="62"/>
+      <c r="H46" s="57"/>
+      <c r="I46" s="58"/>
+      <c r="J46" s="58"/>
+      <c r="K46" s="58"/>
+      <c r="L46" s="58"/>
+      <c r="M46" s="58"/>
+      <c r="N46" s="58"/>
+      <c r="O46" s="59"/>
       <c r="P46" s="14"/>
     </row>
     <row r="47" spans="1:21" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="23"/>
-      <c r="C47" s="24"/>
-      <c r="D47" s="24"/>
-      <c r="E47" s="24"/>
-      <c r="F47" s="24"/>
-      <c r="G47" s="25"/>
-      <c r="H47" s="26"/>
-      <c r="I47" s="27"/>
-      <c r="J47" s="27"/>
-      <c r="K47" s="27"/>
-      <c r="L47" s="27"/>
-      <c r="M47" s="27"/>
-      <c r="N47" s="27"/>
-      <c r="O47" s="28"/>
+      <c r="B47" s="60"/>
+      <c r="C47" s="61"/>
+      <c r="D47" s="61"/>
+      <c r="E47" s="61"/>
+      <c r="F47" s="61"/>
+      <c r="G47" s="62"/>
+      <c r="H47" s="57"/>
+      <c r="I47" s="58"/>
+      <c r="J47" s="58"/>
+      <c r="K47" s="58"/>
+      <c r="L47" s="58"/>
+      <c r="M47" s="58"/>
+      <c r="N47" s="58"/>
+      <c r="O47" s="59"/>
       <c r="P47" s="14"/>
     </row>
     <row r="48" spans="1:21" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="23" t="s">
+      <c r="B48" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="C48" s="24"/>
-      <c r="D48" s="24"/>
-      <c r="E48" s="24"/>
-      <c r="F48" s="24"/>
-      <c r="G48" s="25"/>
-      <c r="H48" s="26"/>
-      <c r="I48" s="27"/>
-      <c r="J48" s="27"/>
-      <c r="K48" s="27"/>
-      <c r="L48" s="27"/>
-      <c r="M48" s="27"/>
-      <c r="N48" s="27"/>
-      <c r="O48" s="28"/>
+      <c r="C48" s="61"/>
+      <c r="D48" s="61"/>
+      <c r="E48" s="61"/>
+      <c r="F48" s="61"/>
+      <c r="G48" s="62"/>
+      <c r="H48" s="57"/>
+      <c r="I48" s="58"/>
+      <c r="J48" s="58"/>
+      <c r="K48" s="58"/>
+      <c r="L48" s="58"/>
+      <c r="M48" s="58"/>
+      <c r="N48" s="58"/>
+      <c r="O48" s="59"/>
       <c r="P48" s="14"/>
     </row>
     <row r="49" spans="2:16" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="23"/>
-      <c r="C49" s="24"/>
-      <c r="D49" s="24"/>
-      <c r="E49" s="24"/>
-      <c r="F49" s="24"/>
-      <c r="G49" s="25"/>
-      <c r="H49" s="26"/>
-      <c r="I49" s="27"/>
-      <c r="J49" s="27"/>
-      <c r="K49" s="27"/>
-      <c r="L49" s="27"/>
-      <c r="M49" s="27"/>
-      <c r="N49" s="27"/>
-      <c r="O49" s="28"/>
+      <c r="B49" s="60"/>
+      <c r="C49" s="61"/>
+      <c r="D49" s="61"/>
+      <c r="E49" s="61"/>
+      <c r="F49" s="61"/>
+      <c r="G49" s="62"/>
+      <c r="H49" s="57"/>
+      <c r="I49" s="58"/>
+      <c r="J49" s="58"/>
+      <c r="K49" s="58"/>
+      <c r="L49" s="58"/>
+      <c r="M49" s="58"/>
+      <c r="N49" s="58"/>
+      <c r="O49" s="59"/>
       <c r="P49" s="14"/>
     </row>
     <row r="50" spans="2:16" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="29" t="s">
+      <c r="B50" s="82" t="s">
         <v>30</v>
       </c>
-      <c r="C50" s="30"/>
-      <c r="D50" s="30"/>
-      <c r="E50" s="30"/>
-      <c r="F50" s="30"/>
-      <c r="G50" s="31"/>
-      <c r="H50" s="26"/>
-      <c r="I50" s="27"/>
-      <c r="J50" s="27"/>
-      <c r="K50" s="27"/>
-      <c r="L50" s="27"/>
-      <c r="M50" s="27"/>
-      <c r="N50" s="27"/>
-      <c r="O50" s="28"/>
+      <c r="C50" s="83"/>
+      <c r="D50" s="83"/>
+      <c r="E50" s="83"/>
+      <c r="F50" s="83"/>
+      <c r="G50" s="84"/>
+      <c r="H50" s="57"/>
+      <c r="I50" s="58"/>
+      <c r="J50" s="58"/>
+      <c r="K50" s="58"/>
+      <c r="L50" s="58"/>
+      <c r="M50" s="58"/>
+      <c r="N50" s="58"/>
+      <c r="O50" s="59"/>
       <c r="P50" s="14"/>
     </row>
     <row r="51" spans="2:16" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="32"/>
-      <c r="C51" s="33"/>
-      <c r="D51" s="33"/>
-      <c r="E51" s="33"/>
-      <c r="F51" s="33"/>
-      <c r="G51" s="34"/>
-      <c r="H51" s="26"/>
-      <c r="I51" s="27"/>
-      <c r="J51" s="27"/>
-      <c r="K51" s="27"/>
-      <c r="L51" s="27"/>
-      <c r="M51" s="27"/>
-      <c r="N51" s="27"/>
-      <c r="O51" s="28"/>
+      <c r="B51" s="85"/>
+      <c r="C51" s="86"/>
+      <c r="D51" s="86"/>
+      <c r="E51" s="86"/>
+      <c r="F51" s="86"/>
+      <c r="G51" s="87"/>
+      <c r="H51" s="57"/>
+      <c r="I51" s="58"/>
+      <c r="J51" s="58"/>
+      <c r="K51" s="58"/>
+      <c r="L51" s="58"/>
+      <c r="M51" s="58"/>
+      <c r="N51" s="58"/>
+      <c r="O51" s="59"/>
       <c r="P51" s="14"/>
     </row>
     <row r="52" spans="2:16" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="29" t="s">
+      <c r="B52" s="82" t="s">
         <v>31</v>
       </c>
-      <c r="C52" s="30"/>
-      <c r="D52" s="30"/>
-      <c r="E52" s="30"/>
-      <c r="F52" s="30"/>
-      <c r="G52" s="31"/>
-      <c r="H52" s="26"/>
-      <c r="I52" s="27"/>
-      <c r="J52" s="27"/>
-      <c r="K52" s="27"/>
-      <c r="L52" s="27"/>
-      <c r="M52" s="27"/>
-      <c r="N52" s="27"/>
-      <c r="O52" s="28"/>
+      <c r="C52" s="83"/>
+      <c r="D52" s="83"/>
+      <c r="E52" s="83"/>
+      <c r="F52" s="83"/>
+      <c r="G52" s="84"/>
+      <c r="H52" s="57"/>
+      <c r="I52" s="58"/>
+      <c r="J52" s="58"/>
+      <c r="K52" s="58"/>
+      <c r="L52" s="58"/>
+      <c r="M52" s="58"/>
+      <c r="N52" s="58"/>
+      <c r="O52" s="59"/>
       <c r="P52" s="14"/>
     </row>
     <row r="53" spans="2:16" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="32"/>
-      <c r="C53" s="33"/>
-      <c r="D53" s="33"/>
-      <c r="E53" s="33"/>
-      <c r="F53" s="33"/>
-      <c r="G53" s="34"/>
-      <c r="H53" s="26"/>
-      <c r="I53" s="27"/>
-      <c r="J53" s="27"/>
-      <c r="K53" s="27"/>
-      <c r="L53" s="27"/>
-      <c r="M53" s="27"/>
-      <c r="N53" s="27"/>
-      <c r="O53" s="28"/>
+      <c r="B53" s="85"/>
+      <c r="C53" s="86"/>
+      <c r="D53" s="86"/>
+      <c r="E53" s="86"/>
+      <c r="F53" s="86"/>
+      <c r="G53" s="87"/>
+      <c r="H53" s="57"/>
+      <c r="I53" s="58"/>
+      <c r="J53" s="58"/>
+      <c r="K53" s="58"/>
+      <c r="L53" s="58"/>
+      <c r="M53" s="58"/>
+      <c r="N53" s="58"/>
+      <c r="O53" s="59"/>
       <c r="P53" s="14"/>
     </row>
     <row r="54" spans="2:16" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="29" t="s">
+      <c r="B54" s="82" t="s">
         <v>32</v>
       </c>
-      <c r="C54" s="30"/>
-      <c r="D54" s="30"/>
-      <c r="E54" s="30"/>
-      <c r="F54" s="30"/>
-      <c r="G54" s="31"/>
-      <c r="H54" s="26"/>
-      <c r="I54" s="27"/>
-      <c r="J54" s="27"/>
-      <c r="K54" s="27"/>
-      <c r="L54" s="27"/>
-      <c r="M54" s="27"/>
-      <c r="N54" s="27"/>
-      <c r="O54" s="28"/>
+      <c r="C54" s="83"/>
+      <c r="D54" s="83"/>
+      <c r="E54" s="83"/>
+      <c r="F54" s="83"/>
+      <c r="G54" s="84"/>
+      <c r="H54" s="57"/>
+      <c r="I54" s="58"/>
+      <c r="J54" s="58"/>
+      <c r="K54" s="58"/>
+      <c r="L54" s="58"/>
+      <c r="M54" s="58"/>
+      <c r="N54" s="58"/>
+      <c r="O54" s="59"/>
       <c r="P54" s="14"/>
     </row>
     <row r="55" spans="2:16" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="32"/>
-      <c r="C55" s="33"/>
-      <c r="D55" s="33"/>
-      <c r="E55" s="33"/>
-      <c r="F55" s="33"/>
-      <c r="G55" s="34"/>
-      <c r="H55" s="26"/>
-      <c r="I55" s="27"/>
-      <c r="J55" s="27"/>
-      <c r="K55" s="27"/>
-      <c r="L55" s="27"/>
-      <c r="M55" s="27"/>
-      <c r="N55" s="27"/>
-      <c r="O55" s="28"/>
+      <c r="B55" s="85"/>
+      <c r="C55" s="86"/>
+      <c r="D55" s="86"/>
+      <c r="E55" s="86"/>
+      <c r="F55" s="86"/>
+      <c r="G55" s="87"/>
+      <c r="H55" s="57"/>
+      <c r="I55" s="58"/>
+      <c r="J55" s="58"/>
+      <c r="K55" s="58"/>
+      <c r="L55" s="58"/>
+      <c r="M55" s="58"/>
+      <c r="N55" s="58"/>
+      <c r="O55" s="59"/>
       <c r="P55" s="14"/>
     </row>
     <row r="56" spans="2:16" ht="14.65" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -2272,19 +2272,19 @@
       <c r="K62" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="L62" s="65"/>
-      <c r="M62" s="65"/>
-      <c r="N62" s="65"/>
-      <c r="O62" s="65"/>
+      <c r="L62" s="92"/>
+      <c r="M62" s="92"/>
+      <c r="N62" s="92"/>
+      <c r="O62" s="92"/>
       <c r="P62" s="2"/>
     </row>
     <row r="63" spans="2:16" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="66"/>
-      <c r="C63" s="67"/>
-      <c r="D63" s="68"/>
-      <c r="E63" s="69"/>
-      <c r="F63" s="69"/>
-      <c r="G63" s="69"/>
+      <c r="B63" s="93"/>
+      <c r="C63" s="94"/>
+      <c r="D63" s="95"/>
+      <c r="E63" s="26"/>
+      <c r="F63" s="26"/>
+      <c r="G63" s="26"/>
       <c r="H63" s="16"/>
       <c r="I63" s="16"/>
       <c r="K63" s="6"/>
@@ -2295,12 +2295,12 @@
       <c r="P63" s="2"/>
     </row>
     <row r="64" spans="2:16" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="66"/>
-      <c r="C64" s="67"/>
-      <c r="D64" s="68"/>
-      <c r="E64" s="69"/>
-      <c r="F64" s="69"/>
-      <c r="G64" s="69"/>
+      <c r="B64" s="93"/>
+      <c r="C64" s="94"/>
+      <c r="D64" s="95"/>
+      <c r="E64" s="26"/>
+      <c r="F64" s="26"/>
+      <c r="G64" s="26"/>
       <c r="H64" s="16"/>
       <c r="I64" s="16"/>
       <c r="K64" s="6"/>
@@ -2311,12 +2311,12 @@
       <c r="P64" s="2"/>
     </row>
     <row r="65" spans="1:16" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="46"/>
-      <c r="C65" s="47"/>
-      <c r="D65" s="48"/>
-      <c r="E65" s="69"/>
-      <c r="F65" s="69"/>
-      <c r="G65" s="69"/>
+      <c r="B65" s="70"/>
+      <c r="C65" s="71"/>
+      <c r="D65" s="72"/>
+      <c r="E65" s="26"/>
+      <c r="F65" s="26"/>
+      <c r="G65" s="26"/>
       <c r="H65" s="16"/>
       <c r="I65" s="16"/>
       <c r="K65" s="6"/>
@@ -2328,12 +2328,12 @@
     </row>
     <row r="66" spans="1:16" s="9" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3"/>
-      <c r="B66" s="46"/>
-      <c r="C66" s="47"/>
-      <c r="D66" s="48"/>
-      <c r="E66" s="69"/>
-      <c r="F66" s="69"/>
-      <c r="G66" s="69"/>
+      <c r="B66" s="70"/>
+      <c r="C66" s="71"/>
+      <c r="D66" s="72"/>
+      <c r="E66" s="26"/>
+      <c r="F66" s="26"/>
+      <c r="G66" s="26"/>
       <c r="H66" s="16"/>
       <c r="I66" s="16"/>
       <c r="J66" s="4"/>
@@ -2346,12 +2346,12 @@
     </row>
     <row r="67" spans="1:16" s="9" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3"/>
-      <c r="B67" s="46"/>
-      <c r="C67" s="47"/>
-      <c r="D67" s="48"/>
-      <c r="E67" s="69"/>
-      <c r="F67" s="69"/>
-      <c r="G67" s="69"/>
+      <c r="B67" s="70"/>
+      <c r="C67" s="71"/>
+      <c r="D67" s="72"/>
+      <c r="E67" s="26"/>
+      <c r="F67" s="26"/>
+      <c r="G67" s="26"/>
       <c r="H67" s="16"/>
       <c r="I67" s="16"/>
       <c r="J67" s="4"/>
@@ -2364,12 +2364,12 @@
     </row>
     <row r="68" spans="1:16" s="9" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3"/>
-      <c r="B68" s="46"/>
-      <c r="C68" s="47"/>
-      <c r="D68" s="48"/>
-      <c r="E68" s="69"/>
-      <c r="F68" s="69"/>
-      <c r="G68" s="69"/>
+      <c r="B68" s="70"/>
+      <c r="C68" s="71"/>
+      <c r="D68" s="72"/>
+      <c r="E68" s="26"/>
+      <c r="F68" s="26"/>
+      <c r="G68" s="26"/>
       <c r="H68" s="16"/>
       <c r="I68" s="16"/>
       <c r="J68" s="4"/>
@@ -2400,61 +2400,61 @@
     </row>
     <row r="70" spans="1:16" s="9" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3"/>
-      <c r="B70" s="41" t="s">
+      <c r="B70" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="C70" s="42"/>
-      <c r="D70" s="43"/>
-      <c r="E70" s="43"/>
-      <c r="F70" s="43"/>
-      <c r="G70" s="43"/>
-      <c r="H70" s="43"/>
-      <c r="I70" s="43"/>
-      <c r="J70" s="44"/>
-      <c r="K70" s="40"/>
-      <c r="L70" s="45"/>
-      <c r="M70" s="45"/>
-      <c r="N70" s="45"/>
-      <c r="O70" s="45"/>
-      <c r="P70" s="45"/>
+      <c r="C70" s="104"/>
+      <c r="D70" s="105"/>
+      <c r="E70" s="105"/>
+      <c r="F70" s="105"/>
+      <c r="G70" s="105"/>
+      <c r="H70" s="105"/>
+      <c r="I70" s="105"/>
+      <c r="J70" s="106"/>
+      <c r="K70" s="102"/>
+      <c r="L70" s="107"/>
+      <c r="M70" s="107"/>
+      <c r="N70" s="107"/>
+      <c r="O70" s="107"/>
+      <c r="P70" s="107"/>
     </row>
     <row r="71" spans="1:16" s="9" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
-      <c r="B71" s="41" t="s">
+      <c r="B71" s="103" t="s">
         <v>28</v>
       </c>
-      <c r="C71" s="42"/>
-      <c r="D71" s="43"/>
-      <c r="E71" s="43"/>
-      <c r="F71" s="43"/>
-      <c r="G71" s="43"/>
-      <c r="H71" s="43"/>
-      <c r="I71" s="43"/>
-      <c r="J71" s="44"/>
-      <c r="K71" s="38"/>
-      <c r="L71" s="39"/>
-      <c r="M71" s="39"/>
-      <c r="N71" s="39"/>
-      <c r="O71" s="39"/>
-      <c r="P71" s="40"/>
+      <c r="C71" s="104"/>
+      <c r="D71" s="105"/>
+      <c r="E71" s="105"/>
+      <c r="F71" s="105"/>
+      <c r="G71" s="105"/>
+      <c r="H71" s="105"/>
+      <c r="I71" s="105"/>
+      <c r="J71" s="106"/>
+      <c r="K71" s="100"/>
+      <c r="L71" s="101"/>
+      <c r="M71" s="101"/>
+      <c r="N71" s="101"/>
+      <c r="O71" s="101"/>
+      <c r="P71" s="102"/>
     </row>
     <row r="72" spans="1:16" s="9" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
-      <c r="B72" s="35"/>
-      <c r="C72" s="36"/>
-      <c r="D72" s="36"/>
-      <c r="E72" s="36"/>
-      <c r="F72" s="36"/>
-      <c r="G72" s="36"/>
-      <c r="H72" s="36"/>
-      <c r="I72" s="36"/>
-      <c r="J72" s="37"/>
-      <c r="K72" s="38"/>
-      <c r="L72" s="39"/>
-      <c r="M72" s="39"/>
-      <c r="N72" s="39"/>
-      <c r="O72" s="39"/>
-      <c r="P72" s="40"/>
+      <c r="B72" s="97"/>
+      <c r="C72" s="98"/>
+      <c r="D72" s="98"/>
+      <c r="E72" s="98"/>
+      <c r="F72" s="98"/>
+      <c r="G72" s="98"/>
+      <c r="H72" s="98"/>
+      <c r="I72" s="98"/>
+      <c r="J72" s="99"/>
+      <c r="K72" s="100"/>
+      <c r="L72" s="101"/>
+      <c r="M72" s="101"/>
+      <c r="N72" s="101"/>
+      <c r="O72" s="101"/>
+      <c r="P72" s="102"/>
     </row>
     <row r="73" spans="1:16" s="9" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
@@ -2494,14 +2494,14 @@
     </row>
     <row r="75" spans="1:16" s="9" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3"/>
-      <c r="B75" s="22" t="s">
+      <c r="B75" s="96" t="s">
         <v>27</v>
       </c>
-      <c r="C75" s="22"/>
-      <c r="D75" s="22"/>
-      <c r="E75" s="22"/>
-      <c r="F75" s="22"/>
-      <c r="G75" s="22"/>
+      <c r="C75" s="96"/>
+      <c r="D75" s="96"/>
+      <c r="E75" s="96"/>
+      <c r="F75" s="96"/>
+      <c r="G75" s="96"/>
       <c r="H75" s="4"/>
       <c r="I75" s="4"/>
       <c r="J75" s="4"/>
@@ -2515,6 +2515,79 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="89">
+    <mergeCell ref="B75:G75"/>
+    <mergeCell ref="B46:G47"/>
+    <mergeCell ref="H46:O47"/>
+    <mergeCell ref="B48:G49"/>
+    <mergeCell ref="H48:O49"/>
+    <mergeCell ref="B52:G53"/>
+    <mergeCell ref="H52:O53"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="D72:J72"/>
+    <mergeCell ref="K72:P72"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="D70:J70"/>
+    <mergeCell ref="K70:P70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="D71:J71"/>
+    <mergeCell ref="K71:P71"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B34:G35"/>
+    <mergeCell ref="H34:O35"/>
+    <mergeCell ref="H32:O33"/>
+    <mergeCell ref="B54:G55"/>
+    <mergeCell ref="H54:O55"/>
+    <mergeCell ref="B50:G51"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="B36:G37"/>
+    <mergeCell ref="H36:O37"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="L62:O62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="E63:G63"/>
+    <mergeCell ref="E64:G64"/>
+    <mergeCell ref="E65:G65"/>
+    <mergeCell ref="E66:G66"/>
+    <mergeCell ref="E67:G67"/>
+    <mergeCell ref="H50:O51"/>
+    <mergeCell ref="A38:P40"/>
+    <mergeCell ref="B44:G45"/>
+    <mergeCell ref="H44:O45"/>
+    <mergeCell ref="Q26:U27"/>
+    <mergeCell ref="R28:U29"/>
+    <mergeCell ref="B32:G33"/>
+    <mergeCell ref="Q32:U33"/>
+    <mergeCell ref="A20:Q22"/>
+    <mergeCell ref="H30:O31"/>
+    <mergeCell ref="H28:O29"/>
+    <mergeCell ref="H26:O27"/>
+    <mergeCell ref="B26:G27"/>
+    <mergeCell ref="B28:G29"/>
+    <mergeCell ref="B30:G31"/>
+    <mergeCell ref="H24:O25"/>
+    <mergeCell ref="Q30:U31"/>
+    <mergeCell ref="B24:G25"/>
+    <mergeCell ref="M14:P14"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="M15:P15"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="M12:P12"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="M13:P13"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:P9"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:P10"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:P11"/>
+    <mergeCell ref="M5:P5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="M6:P6"/>
     <mergeCell ref="B4:G4"/>
     <mergeCell ref="J4:P4"/>
     <mergeCell ref="E68:G68"/>
@@ -2531,79 +2604,6 @@
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:G5"/>
     <mergeCell ref="J5:L5"/>
-    <mergeCell ref="M5:P5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="M6:P6"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:P9"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:P10"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:P11"/>
-    <mergeCell ref="M14:P14"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="M15:P15"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="M12:P12"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="M13:P13"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="A20:Q22"/>
-    <mergeCell ref="H30:O31"/>
-    <mergeCell ref="H28:O29"/>
-    <mergeCell ref="H26:O27"/>
-    <mergeCell ref="B26:G27"/>
-    <mergeCell ref="B28:G29"/>
-    <mergeCell ref="B30:G31"/>
-    <mergeCell ref="H24:O25"/>
-    <mergeCell ref="Q30:U31"/>
-    <mergeCell ref="B24:G25"/>
-    <mergeCell ref="A38:P40"/>
-    <mergeCell ref="B44:G45"/>
-    <mergeCell ref="H44:O45"/>
-    <mergeCell ref="Q26:U27"/>
-    <mergeCell ref="R28:U29"/>
-    <mergeCell ref="B32:G33"/>
-    <mergeCell ref="Q32:U33"/>
-    <mergeCell ref="E64:G64"/>
-    <mergeCell ref="E65:G65"/>
-    <mergeCell ref="E66:G66"/>
-    <mergeCell ref="E67:G67"/>
-    <mergeCell ref="H50:O51"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="B34:G35"/>
-    <mergeCell ref="H34:O35"/>
-    <mergeCell ref="H32:O33"/>
-    <mergeCell ref="B54:G55"/>
-    <mergeCell ref="H54:O55"/>
-    <mergeCell ref="B50:G51"/>
-    <mergeCell ref="B66:D66"/>
-    <mergeCell ref="B36:G37"/>
-    <mergeCell ref="H36:O37"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="L62:O62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="E63:G63"/>
-    <mergeCell ref="B75:G75"/>
-    <mergeCell ref="B46:G47"/>
-    <mergeCell ref="H46:O47"/>
-    <mergeCell ref="B48:G49"/>
-    <mergeCell ref="H48:O49"/>
-    <mergeCell ref="B52:G53"/>
-    <mergeCell ref="H52:O53"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="D72:J72"/>
-    <mergeCell ref="K72:P72"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="D70:J70"/>
-    <mergeCell ref="K70:P70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="D71:J71"/>
-    <mergeCell ref="K71:P71"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H44:O55" xr:uid="{F46B5ECD-A53B-4ED8-B0C8-50E3F3F56653}">

--- a/Reports/SKI_BTCV.xlsx
+++ b/Reports/SKI_BTCV.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29017"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29019"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\library\git_hub\MpiSki\Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B53A8A29-3A6D-459F-9F6B-D2A8F8342EE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F927B514-338D-4391-A087-4A77991CE917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -695,7 +695,7 @@
     <t>Перерегулирование</t>
   </si>
   <si>
-    <t>РЕЗУЛЬТАТЫ ТЕСТА ШАГОВОЙ РЕАКЦИИ</t>
+    <t>Результат теста шаговой реакции</t>
   </si>
 </sst>
 </file>
@@ -705,7 +705,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -949,6 +949,13 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -964,7 +971,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="49">
+  <borders count="55">
     <border>
       <left/>
       <right/>
@@ -1546,11 +1553,73 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="241">
+  <cellXfs count="272">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
@@ -1663,6 +1732,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1729,12 +1802,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1743,12 +1810,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="27" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="27" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1762,15 +1823,9 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1786,9 +1841,6 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1873,6 +1925,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2252,10 +2307,117 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="27" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="27" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="27" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="27" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="27" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="27" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2562,8 +2724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{340A0842-352E-428E-A84B-F8BFF2EA5795}">
   <dimension ref="A1:R123"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:Q20"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A17" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2583,116 +2745,116 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:16" ht="23.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="44" t="s">
         <v>121</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43" t="s">
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43" t="str">
+      <c r="M1" s="45"/>
+      <c r="N1" s="45" t="str">
         <f>IF(D6="","",D6)</f>
         <v/>
       </c>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
     </row>
     <row r="2" spans="2:16" ht="23.65" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:16" ht="23.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="54"/>
-      <c r="I3" s="52" t="s">
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="56"/>
+      <c r="I3" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="53"/>
-      <c r="N3" s="53"/>
-      <c r="O3" s="53"/>
-      <c r="P3" s="54"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="55"/>
+      <c r="N3" s="55"/>
+      <c r="O3" s="55"/>
+      <c r="P3" s="56"/>
     </row>
     <row r="4" spans="2:16" ht="23.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="45"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="45"/>
-      <c r="I4" s="47" t="s">
+      <c r="C4" s="47"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="47"/>
+      <c r="I4" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="49" t="str">
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="51" t="str">
         <f>REPT($I$1,1)</f>
         <v/>
       </c>
-      <c r="N4" s="50"/>
-      <c r="O4" s="50"/>
-      <c r="P4" s="51"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
+      <c r="P4" s="53"/>
     </row>
     <row r="5" spans="2:16" ht="23.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="45"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="45"/>
-      <c r="I5" s="47" t="s">
+      <c r="C5" s="47"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="47"/>
+      <c r="I5" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="49" t="s">
+      <c r="J5" s="50"/>
+      <c r="K5" s="50"/>
+      <c r="L5" s="50"/>
+      <c r="M5" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="N5" s="50"/>
-      <c r="O5" s="50"/>
-      <c r="P5" s="51"/>
+      <c r="N5" s="52"/>
+      <c r="O5" s="52"/>
+      <c r="P5" s="53"/>
     </row>
     <row r="6" spans="2:16" ht="23.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="46" t="s">
         <v>123</v>
       </c>
-      <c r="C6" s="45"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="45"/>
-      <c r="I6" s="47" t="s">
+      <c r="C6" s="47"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="47"/>
+      <c r="I6" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="48"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="49" t="s">
+      <c r="J6" s="50"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="50"/>
+      <c r="M6" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="N6" s="50"/>
-      <c r="O6" s="50"/>
-      <c r="P6" s="51"/>
+      <c r="N6" s="52"/>
+      <c r="O6" s="52"/>
+      <c r="P6" s="53"/>
     </row>
     <row r="7" spans="2:16" ht="23.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="8"/>
@@ -2701,130 +2863,130 @@
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
-      <c r="I7" s="47" t="s">
+      <c r="I7" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="J7" s="48"/>
-      <c r="K7" s="48"/>
-      <c r="L7" s="48"/>
-      <c r="M7" s="49"/>
-      <c r="N7" s="50"/>
-      <c r="O7" s="50"/>
-      <c r="P7" s="51"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="50"/>
+      <c r="M7" s="51"/>
+      <c r="N7" s="52"/>
+      <c r="O7" s="52"/>
+      <c r="P7" s="53"/>
     </row>
     <row r="8" spans="2:16" ht="23.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I8" s="47" t="s">
+      <c r="I8" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="J8" s="48"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="48"/>
-      <c r="M8" s="49"/>
-      <c r="N8" s="50"/>
-      <c r="O8" s="50"/>
-      <c r="P8" s="51"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="50"/>
+      <c r="M8" s="51"/>
+      <c r="N8" s="52"/>
+      <c r="O8" s="52"/>
+      <c r="P8" s="53"/>
     </row>
     <row r="9" spans="2:16" ht="23.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I9" s="47" t="s">
+      <c r="I9" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="J9" s="48"/>
-      <c r="K9" s="48"/>
-      <c r="L9" s="48"/>
-      <c r="M9" s="49" t="s">
+      <c r="J9" s="50"/>
+      <c r="K9" s="50"/>
+      <c r="L9" s="50"/>
+      <c r="M9" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="N9" s="50"/>
-      <c r="O9" s="50"/>
-      <c r="P9" s="51"/>
+      <c r="N9" s="52"/>
+      <c r="O9" s="52"/>
+      <c r="P9" s="53"/>
     </row>
     <row r="10" spans="2:16" ht="23.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I10" s="47" t="s">
+      <c r="I10" s="49" t="s">
         <v>124</v>
       </c>
-      <c r="J10" s="48"/>
-      <c r="K10" s="48"/>
-      <c r="L10" s="48"/>
-      <c r="M10" s="49"/>
-      <c r="N10" s="50"/>
-      <c r="O10" s="50"/>
-      <c r="P10" s="51"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="50"/>
+      <c r="L10" s="50"/>
+      <c r="M10" s="51"/>
+      <c r="N10" s="52"/>
+      <c r="O10" s="52"/>
+      <c r="P10" s="53"/>
     </row>
     <row r="11" spans="2:16" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I11" s="47" t="s">
+      <c r="I11" s="49" t="s">
         <v>125</v>
       </c>
-      <c r="J11" s="48"/>
-      <c r="K11" s="48"/>
-      <c r="L11" s="48"/>
-      <c r="M11" s="49"/>
-      <c r="N11" s="50"/>
-      <c r="O11" s="50"/>
-      <c r="P11" s="51"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="50"/>
+      <c r="L11" s="50"/>
+      <c r="M11" s="51"/>
+      <c r="N11" s="52"/>
+      <c r="O11" s="52"/>
+      <c r="P11" s="53"/>
     </row>
     <row r="12" spans="2:16" ht="23.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I12" s="47" t="s">
+      <c r="I12" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="J12" s="48"/>
-      <c r="K12" s="48"/>
-      <c r="L12" s="48"/>
-      <c r="M12" s="49" t="s">
+      <c r="J12" s="50"/>
+      <c r="K12" s="50"/>
+      <c r="L12" s="50"/>
+      <c r="M12" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="N12" s="50"/>
-      <c r="O12" s="50"/>
-      <c r="P12" s="51"/>
+      <c r="N12" s="52"/>
+      <c r="O12" s="52"/>
+      <c r="P12" s="53"/>
     </row>
     <row r="13" spans="2:16" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I13" s="47" t="s">
+      <c r="I13" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="J13" s="48"/>
-      <c r="K13" s="48"/>
-      <c r="L13" s="48"/>
-      <c r="M13" s="49"/>
-      <c r="N13" s="50"/>
-      <c r="O13" s="50"/>
-      <c r="P13" s="51"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="50"/>
+      <c r="L13" s="50"/>
+      <c r="M13" s="51"/>
+      <c r="N13" s="52"/>
+      <c r="O13" s="52"/>
+      <c r="P13" s="53"/>
     </row>
     <row r="14" spans="2:16" ht="23.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I14" s="47" t="s">
+      <c r="I14" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="J14" s="48"/>
-      <c r="K14" s="48"/>
-      <c r="L14" s="48"/>
-      <c r="M14" s="49" t="s">
+      <c r="J14" s="50"/>
+      <c r="K14" s="50"/>
+      <c r="L14" s="50"/>
+      <c r="M14" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="N14" s="50"/>
-      <c r="O14" s="50"/>
-      <c r="P14" s="51"/>
+      <c r="N14" s="52"/>
+      <c r="O14" s="52"/>
+      <c r="P14" s="53"/>
     </row>
     <row r="15" spans="2:16" ht="23.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I15" s="47" t="s">
+      <c r="I15" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="J15" s="48"/>
-      <c r="K15" s="48"/>
-      <c r="L15" s="48"/>
-      <c r="M15" s="49"/>
-      <c r="N15" s="50"/>
-      <c r="O15" s="50"/>
-      <c r="P15" s="51"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="50"/>
+      <c r="L15" s="50"/>
+      <c r="M15" s="51"/>
+      <c r="N15" s="52"/>
+      <c r="O15" s="52"/>
+      <c r="P15" s="53"/>
     </row>
     <row r="16" spans="2:16" ht="23.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I16" s="47" t="s">
+      <c r="I16" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="J16" s="48"/>
-      <c r="K16" s="48"/>
-      <c r="L16" s="48"/>
-      <c r="M16" s="49"/>
-      <c r="N16" s="50"/>
-      <c r="O16" s="50"/>
-      <c r="P16" s="51"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="50"/>
+      <c r="L16" s="50"/>
+      <c r="M16" s="51"/>
+      <c r="N16" s="52"/>
+      <c r="O16" s="52"/>
+      <c r="P16" s="53"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="J17" s="38"/>
@@ -2836,175 +2998,175 @@
       <c r="P17" s="39"/>
     </row>
     <row r="18" spans="1:17" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="55" t="s">
+      <c r="A18" s="57" t="s">
         <v>126</v>
       </c>
-      <c r="B18" s="55"/>
-      <c r="C18" s="55"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="55"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="55"/>
-      <c r="I18" s="55"/>
-      <c r="J18" s="55"/>
-      <c r="K18" s="55"/>
-      <c r="L18" s="55"/>
-      <c r="M18" s="55"/>
-      <c r="N18" s="55"/>
-      <c r="O18" s="55"/>
-      <c r="P18" s="55"/>
-      <c r="Q18" s="55"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="57"/>
+      <c r="K18" s="57"/>
+      <c r="L18" s="57"/>
+      <c r="M18" s="57"/>
+      <c r="N18" s="57"/>
+      <c r="O18" s="57"/>
+      <c r="P18" s="57"/>
+      <c r="Q18" s="57"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="55"/>
-      <c r="B19" s="55"/>
-      <c r="C19" s="55"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="55"/>
-      <c r="I19" s="55"/>
-      <c r="J19" s="55"/>
-      <c r="K19" s="55"/>
-      <c r="L19" s="55"/>
-      <c r="M19" s="55"/>
-      <c r="N19" s="55"/>
-      <c r="O19" s="55"/>
-      <c r="P19" s="55"/>
-      <c r="Q19" s="55"/>
+      <c r="A19" s="57"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="57"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="57"/>
+      <c r="K19" s="57"/>
+      <c r="L19" s="57"/>
+      <c r="M19" s="57"/>
+      <c r="N19" s="57"/>
+      <c r="O19" s="57"/>
+      <c r="P19" s="57"/>
+      <c r="Q19" s="57"/>
     </row>
     <row r="20" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="55"/>
-      <c r="B20" s="55"/>
-      <c r="C20" s="55"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="55"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="55"/>
-      <c r="I20" s="55"/>
-      <c r="J20" s="55"/>
-      <c r="K20" s="55"/>
-      <c r="L20" s="55"/>
-      <c r="M20" s="55"/>
-      <c r="N20" s="55"/>
-      <c r="O20" s="55"/>
-      <c r="P20" s="55"/>
-      <c r="Q20" s="55"/>
-    </row>
-    <row r="21" spans="1:17" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="56" t="s">
+      <c r="A20" s="57"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="57"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="57"/>
+      <c r="J20" s="57"/>
+      <c r="K20" s="57"/>
+      <c r="L20" s="57"/>
+      <c r="M20" s="57"/>
+      <c r="N20" s="57"/>
+      <c r="O20" s="57"/>
+      <c r="P20" s="57"/>
+      <c r="Q20" s="57"/>
+    </row>
+    <row r="21" spans="1:17" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="57"/>
-      <c r="D21" s="57"/>
-      <c r="E21" s="57"/>
-      <c r="F21" s="57"/>
-      <c r="G21" s="58"/>
-      <c r="H21" s="59" t="s">
+      <c r="C21" s="59"/>
+      <c r="D21" s="59"/>
+      <c r="E21" s="59"/>
+      <c r="F21" s="59"/>
+      <c r="G21" s="60"/>
+      <c r="H21" s="61" t="s">
         <v>127</v>
       </c>
-      <c r="I21" s="60"/>
-      <c r="J21" s="60"/>
-      <c r="K21" s="60"/>
-      <c r="L21" s="60"/>
-      <c r="M21" s="60"/>
-      <c r="N21" s="60"/>
-      <c r="O21" s="60"/>
-      <c r="P21" s="60"/>
+      <c r="I21" s="62"/>
+      <c r="J21" s="62"/>
+      <c r="K21" s="62"/>
+      <c r="L21" s="62"/>
+      <c r="M21" s="62"/>
+      <c r="N21" s="62"/>
+      <c r="O21" s="62"/>
+      <c r="P21" s="62"/>
     </row>
     <row r="22" spans="1:17" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="56"/>
-      <c r="C22" s="57"/>
-      <c r="D22" s="57"/>
-      <c r="E22" s="57"/>
-      <c r="F22" s="57"/>
-      <c r="G22" s="58"/>
-      <c r="H22" s="59"/>
-      <c r="I22" s="60"/>
-      <c r="J22" s="60"/>
-      <c r="K22" s="60"/>
-      <c r="L22" s="60"/>
-      <c r="M22" s="60"/>
-      <c r="N22" s="60"/>
-      <c r="O22" s="60"/>
-      <c r="P22" s="60"/>
+      <c r="B22" s="58"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="59"/>
+      <c r="E22" s="59"/>
+      <c r="F22" s="59"/>
+      <c r="G22" s="60"/>
+      <c r="H22" s="61"/>
+      <c r="I22" s="62"/>
+      <c r="J22" s="62"/>
+      <c r="K22" s="62"/>
+      <c r="L22" s="62"/>
+      <c r="M22" s="62"/>
+      <c r="N22" s="62"/>
+      <c r="O22" s="62"/>
+      <c r="P22" s="62"/>
     </row>
     <row r="23" spans="1:17" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="56" t="s">
+      <c r="B23" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="57"/>
-      <c r="D23" s="57"/>
-      <c r="E23" s="57"/>
-      <c r="F23" s="57"/>
-      <c r="G23" s="58"/>
-      <c r="H23" s="59" t="s">
+      <c r="C23" s="59"/>
+      <c r="D23" s="59"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="59"/>
+      <c r="G23" s="60"/>
+      <c r="H23" s="250" t="s">
         <v>127</v>
       </c>
-      <c r="I23" s="60"/>
-      <c r="J23" s="60"/>
-      <c r="K23" s="60"/>
-      <c r="L23" s="60"/>
-      <c r="M23" s="60"/>
-      <c r="N23" s="60"/>
-      <c r="O23" s="60"/>
-      <c r="P23" s="60"/>
+      <c r="I23" s="251"/>
+      <c r="J23" s="251"/>
+      <c r="K23" s="251"/>
+      <c r="L23" s="251"/>
+      <c r="M23" s="251"/>
+      <c r="N23" s="251"/>
+      <c r="O23" s="251"/>
+      <c r="P23" s="252"/>
     </row>
     <row r="24" spans="1:17" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="56"/>
-      <c r="C24" s="57"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="57"/>
-      <c r="F24" s="57"/>
-      <c r="G24" s="58"/>
-      <c r="H24" s="59"/>
-      <c r="I24" s="60"/>
-      <c r="J24" s="60"/>
-      <c r="K24" s="60"/>
-      <c r="L24" s="60"/>
-      <c r="M24" s="60"/>
-      <c r="N24" s="60"/>
-      <c r="O24" s="60"/>
-      <c r="P24" s="60"/>
+      <c r="B24" s="58"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="59"/>
+      <c r="E24" s="59"/>
+      <c r="F24" s="59"/>
+      <c r="G24" s="60"/>
+      <c r="H24" s="253"/>
+      <c r="I24" s="254"/>
+      <c r="J24" s="254"/>
+      <c r="K24" s="254"/>
+      <c r="L24" s="254"/>
+      <c r="M24" s="254"/>
+      <c r="N24" s="254"/>
+      <c r="O24" s="254"/>
+      <c r="P24" s="255"/>
     </row>
     <row r="25" spans="1:17" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="56" t="s">
+      <c r="B25" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="57"/>
-      <c r="D25" s="57"/>
-      <c r="E25" s="57"/>
-      <c r="F25" s="57"/>
-      <c r="G25" s="58"/>
-      <c r="H25" s="64"/>
-      <c r="I25" s="65"/>
-      <c r="J25" s="65"/>
-      <c r="K25" s="65"/>
-      <c r="L25" s="65"/>
-      <c r="M25" s="65"/>
-      <c r="N25" s="65"/>
-      <c r="O25" s="65"/>
-      <c r="P25" s="65"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="59"/>
+      <c r="E25" s="59"/>
+      <c r="F25" s="59"/>
+      <c r="G25" s="60"/>
+      <c r="H25" s="238"/>
+      <c r="I25" s="239"/>
+      <c r="J25" s="239"/>
+      <c r="K25" s="239"/>
+      <c r="L25" s="239"/>
+      <c r="M25" s="239"/>
+      <c r="N25" s="239"/>
+      <c r="O25" s="239"/>
+      <c r="P25" s="240"/>
     </row>
     <row r="26" spans="1:17" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="56"/>
-      <c r="C26" s="57"/>
-      <c r="D26" s="57"/>
-      <c r="E26" s="57"/>
-      <c r="F26" s="57"/>
-      <c r="G26" s="58"/>
-      <c r="H26" s="64"/>
-      <c r="I26" s="65"/>
-      <c r="J26" s="65"/>
-      <c r="K26" s="65"/>
-      <c r="L26" s="65"/>
-      <c r="M26" s="65"/>
-      <c r="N26" s="65"/>
-      <c r="O26" s="65"/>
-      <c r="P26" s="65"/>
+      <c r="B26" s="58"/>
+      <c r="C26" s="59"/>
+      <c r="D26" s="59"/>
+      <c r="E26" s="59"/>
+      <c r="F26" s="59"/>
+      <c r="G26" s="60"/>
+      <c r="H26" s="241"/>
+      <c r="I26" s="242"/>
+      <c r="J26" s="242"/>
+      <c r="K26" s="242"/>
+      <c r="L26" s="242"/>
+      <c r="M26" s="242"/>
+      <c r="N26" s="242"/>
+      <c r="O26" s="242"/>
+      <c r="P26" s="243"/>
     </row>
     <row r="27" spans="1:17" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="66" t="s">
@@ -3015,17 +3177,17 @@
       <c r="E27" s="67"/>
       <c r="F27" s="67"/>
       <c r="G27" s="68"/>
-      <c r="H27" s="69" t="s">
+      <c r="H27" s="244" t="s">
         <v>128</v>
       </c>
-      <c r="I27" s="70"/>
-      <c r="J27" s="70"/>
-      <c r="K27" s="70"/>
-      <c r="L27" s="70"/>
-      <c r="M27" s="70"/>
-      <c r="N27" s="70"/>
-      <c r="O27" s="70"/>
-      <c r="P27" s="70"/>
+      <c r="I27" s="245"/>
+      <c r="J27" s="245"/>
+      <c r="K27" s="245"/>
+      <c r="L27" s="245"/>
+      <c r="M27" s="245"/>
+      <c r="N27" s="245"/>
+      <c r="O27" s="245"/>
+      <c r="P27" s="246"/>
     </row>
     <row r="28" spans="1:17" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="66"/>
@@ -3034,15 +3196,15 @@
       <c r="E28" s="67"/>
       <c r="F28" s="67"/>
       <c r="G28" s="68"/>
-      <c r="H28" s="69"/>
-      <c r="I28" s="70"/>
-      <c r="J28" s="70"/>
-      <c r="K28" s="70"/>
-      <c r="L28" s="70"/>
-      <c r="M28" s="70"/>
-      <c r="N28" s="70"/>
-      <c r="O28" s="70"/>
-      <c r="P28" s="70"/>
+      <c r="H28" s="247"/>
+      <c r="I28" s="248"/>
+      <c r="J28" s="248"/>
+      <c r="K28" s="248"/>
+      <c r="L28" s="248"/>
+      <c r="M28" s="248"/>
+      <c r="N28" s="248"/>
+      <c r="O28" s="248"/>
+      <c r="P28" s="249"/>
     </row>
     <row r="29" spans="1:17" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="66" t="s">
@@ -3053,15 +3215,15 @@
       <c r="E29" s="67"/>
       <c r="F29" s="67"/>
       <c r="G29" s="68"/>
-      <c r="H29" s="64"/>
-      <c r="I29" s="65"/>
-      <c r="J29" s="65"/>
-      <c r="K29" s="65"/>
-      <c r="L29" s="65"/>
-      <c r="M29" s="65"/>
-      <c r="N29" s="65"/>
-      <c r="O29" s="65"/>
-      <c r="P29" s="65"/>
+      <c r="H29" s="238"/>
+      <c r="I29" s="239"/>
+      <c r="J29" s="239"/>
+      <c r="K29" s="239"/>
+      <c r="L29" s="239"/>
+      <c r="M29" s="239"/>
+      <c r="N29" s="239"/>
+      <c r="O29" s="239"/>
+      <c r="P29" s="240"/>
     </row>
     <row r="30" spans="1:17" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="66"/>
@@ -3070,15 +3232,15 @@
       <c r="E30" s="67"/>
       <c r="F30" s="67"/>
       <c r="G30" s="68"/>
-      <c r="H30" s="64"/>
-      <c r="I30" s="65"/>
-      <c r="J30" s="65"/>
-      <c r="K30" s="65"/>
-      <c r="L30" s="65"/>
-      <c r="M30" s="65"/>
-      <c r="N30" s="65"/>
-      <c r="O30" s="65"/>
-      <c r="P30" s="65"/>
+      <c r="H30" s="241"/>
+      <c r="I30" s="242"/>
+      <c r="J30" s="242"/>
+      <c r="K30" s="242"/>
+      <c r="L30" s="242"/>
+      <c r="M30" s="242"/>
+      <c r="N30" s="242"/>
+      <c r="O30" s="242"/>
+      <c r="P30" s="243"/>
     </row>
     <row r="31" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="32" spans="1:17" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -3089,434 +3251,434 @@
       <c r="E33" s="24"/>
       <c r="F33" s="24"/>
       <c r="G33" s="24"/>
-      <c r="H33" s="61" t="s">
+      <c r="H33" s="63" t="s">
         <v>130</v>
       </c>
-      <c r="I33" s="61"/>
-      <c r="J33" s="61"/>
-      <c r="K33" s="61"/>
-      <c r="L33" s="61"/>
-      <c r="M33" s="61" t="s">
+      <c r="I33" s="63"/>
+      <c r="J33" s="63"/>
+      <c r="K33" s="63"/>
+      <c r="L33" s="63"/>
+      <c r="M33" s="269" t="s">
         <v>131</v>
       </c>
-      <c r="N33" s="61"/>
-      <c r="O33" s="61"/>
-      <c r="P33" s="61"/>
-      <c r="Q33" s="61"/>
+      <c r="N33" s="270"/>
+      <c r="O33" s="270"/>
+      <c r="P33" s="270"/>
+      <c r="Q33" s="271"/>
     </row>
     <row r="34" spans="1:17" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="25"/>
-      <c r="B34" s="62" t="s">
+      <c r="B34" s="64" t="s">
         <v>132</v>
       </c>
-      <c r="C34" s="62"/>
-      <c r="D34" s="62"/>
-      <c r="E34" s="62"/>
-      <c r="F34" s="62"/>
-      <c r="G34" s="62"/>
-      <c r="H34" s="63" t="s">
+      <c r="C34" s="64"/>
+      <c r="D34" s="64"/>
+      <c r="E34" s="64"/>
+      <c r="F34" s="64"/>
+      <c r="G34" s="64"/>
+      <c r="H34" s="65" t="s">
         <v>133</v>
       </c>
-      <c r="I34" s="63"/>
-      <c r="J34" s="63" t="s">
+      <c r="I34" s="65"/>
+      <c r="J34" s="65" t="s">
         <v>134</v>
       </c>
-      <c r="K34" s="63"/>
+      <c r="K34" s="65"/>
       <c r="L34" s="32" t="s">
         <v>135</v>
       </c>
-      <c r="M34" s="63" t="s">
+      <c r="M34" s="65" t="s">
         <v>133</v>
       </c>
-      <c r="N34" s="63"/>
-      <c r="O34" s="63" t="s">
+      <c r="N34" s="65"/>
+      <c r="O34" s="267" t="s">
         <v>134</v>
       </c>
-      <c r="P34" s="63"/>
+      <c r="P34" s="268"/>
       <c r="Q34" s="32" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="35" spans="1:17" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="31"/>
-      <c r="B35" s="72" t="s">
+      <c r="B35" s="70" t="s">
         <v>136</v>
       </c>
-      <c r="C35" s="72"/>
-      <c r="D35" s="72"/>
-      <c r="E35" s="72"/>
-      <c r="F35" s="72"/>
-      <c r="G35" s="72"/>
-      <c r="H35" s="71"/>
-      <c r="I35" s="71"/>
-      <c r="J35" s="71"/>
-      <c r="K35" s="71"/>
-      <c r="L35" s="71"/>
-      <c r="M35" s="71"/>
-      <c r="N35" s="71"/>
-      <c r="O35" s="71"/>
-      <c r="P35" s="71"/>
-      <c r="Q35" s="71"/>
+      <c r="C35" s="70"/>
+      <c r="D35" s="70"/>
+      <c r="E35" s="70"/>
+      <c r="F35" s="70"/>
+      <c r="G35" s="70"/>
+      <c r="H35" s="69"/>
+      <c r="I35" s="69"/>
+      <c r="J35" s="69"/>
+      <c r="K35" s="69"/>
+      <c r="L35" s="69"/>
+      <c r="M35" s="69"/>
+      <c r="N35" s="69"/>
+      <c r="O35" s="263"/>
+      <c r="P35" s="264"/>
+      <c r="Q35" s="69"/>
     </row>
     <row r="36" spans="1:17" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="72"/>
-      <c r="C36" s="72"/>
-      <c r="D36" s="72"/>
-      <c r="E36" s="72"/>
-      <c r="F36" s="72"/>
-      <c r="G36" s="72"/>
-      <c r="H36" s="71"/>
-      <c r="I36" s="71"/>
-      <c r="J36" s="71"/>
-      <c r="K36" s="71"/>
-      <c r="L36" s="71"/>
-      <c r="M36" s="71"/>
-      <c r="N36" s="71"/>
-      <c r="O36" s="71"/>
-      <c r="P36" s="71"/>
-      <c r="Q36" s="71"/>
+      <c r="B36" s="70"/>
+      <c r="C36" s="70"/>
+      <c r="D36" s="70"/>
+      <c r="E36" s="70"/>
+      <c r="F36" s="70"/>
+      <c r="G36" s="70"/>
+      <c r="H36" s="69"/>
+      <c r="I36" s="69"/>
+      <c r="J36" s="69"/>
+      <c r="K36" s="69"/>
+      <c r="L36" s="69"/>
+      <c r="M36" s="69"/>
+      <c r="N36" s="69"/>
+      <c r="O36" s="265"/>
+      <c r="P36" s="266"/>
+      <c r="Q36" s="69"/>
     </row>
     <row r="37" spans="1:17" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="72" t="s">
+      <c r="B37" s="70" t="s">
         <v>137</v>
       </c>
-      <c r="C37" s="72"/>
-      <c r="D37" s="72"/>
-      <c r="E37" s="72"/>
-      <c r="F37" s="72"/>
-      <c r="G37" s="72"/>
-      <c r="H37" s="71"/>
-      <c r="I37" s="71"/>
-      <c r="J37" s="71"/>
-      <c r="K37" s="71"/>
-      <c r="L37" s="71"/>
-      <c r="M37" s="71"/>
-      <c r="N37" s="71"/>
-      <c r="O37" s="71"/>
-      <c r="P37" s="71"/>
-      <c r="Q37" s="71"/>
+      <c r="C37" s="70"/>
+      <c r="D37" s="70"/>
+      <c r="E37" s="70"/>
+      <c r="F37" s="70"/>
+      <c r="G37" s="70"/>
+      <c r="H37" s="69"/>
+      <c r="I37" s="69"/>
+      <c r="J37" s="69"/>
+      <c r="K37" s="69"/>
+      <c r="L37" s="69"/>
+      <c r="M37" s="69"/>
+      <c r="N37" s="69"/>
+      <c r="O37" s="263"/>
+      <c r="P37" s="264"/>
+      <c r="Q37" s="69"/>
     </row>
     <row r="38" spans="1:17" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="72"/>
-      <c r="C38" s="72"/>
-      <c r="D38" s="72"/>
-      <c r="E38" s="72"/>
-      <c r="F38" s="72"/>
-      <c r="G38" s="72"/>
-      <c r="H38" s="71"/>
-      <c r="I38" s="71"/>
-      <c r="J38" s="71"/>
-      <c r="K38" s="71"/>
-      <c r="L38" s="71"/>
-      <c r="M38" s="71"/>
-      <c r="N38" s="71"/>
-      <c r="O38" s="71"/>
-      <c r="P38" s="71"/>
-      <c r="Q38" s="71"/>
+      <c r="B38" s="70"/>
+      <c r="C38" s="70"/>
+      <c r="D38" s="70"/>
+      <c r="E38" s="70"/>
+      <c r="F38" s="70"/>
+      <c r="G38" s="70"/>
+      <c r="H38" s="69"/>
+      <c r="I38" s="69"/>
+      <c r="J38" s="69"/>
+      <c r="K38" s="69"/>
+      <c r="L38" s="69"/>
+      <c r="M38" s="69"/>
+      <c r="N38" s="69"/>
+      <c r="O38" s="265"/>
+      <c r="P38" s="266"/>
+      <c r="Q38" s="69"/>
     </row>
     <row r="39" spans="1:17" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="72" t="s">
+      <c r="B39" s="70" t="s">
         <v>138</v>
       </c>
-      <c r="C39" s="72"/>
-      <c r="D39" s="72"/>
-      <c r="E39" s="72"/>
-      <c r="F39" s="72"/>
-      <c r="G39" s="72"/>
-      <c r="H39" s="71"/>
-      <c r="I39" s="71"/>
-      <c r="J39" s="71"/>
-      <c r="K39" s="71"/>
-      <c r="L39" s="71"/>
-      <c r="M39" s="71"/>
-      <c r="N39" s="71"/>
-      <c r="O39" s="71"/>
-      <c r="P39" s="71"/>
-      <c r="Q39" s="71"/>
+      <c r="C39" s="70"/>
+      <c r="D39" s="70"/>
+      <c r="E39" s="70"/>
+      <c r="F39" s="70"/>
+      <c r="G39" s="70"/>
+      <c r="H39" s="69"/>
+      <c r="I39" s="69"/>
+      <c r="J39" s="69"/>
+      <c r="K39" s="69"/>
+      <c r="L39" s="69"/>
+      <c r="M39" s="69"/>
+      <c r="N39" s="69"/>
+      <c r="O39" s="263"/>
+      <c r="P39" s="264"/>
+      <c r="Q39" s="69"/>
     </row>
     <row r="40" spans="1:17" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="72"/>
-      <c r="C40" s="72"/>
-      <c r="D40" s="72"/>
-      <c r="E40" s="72"/>
-      <c r="F40" s="72"/>
-      <c r="G40" s="72"/>
-      <c r="H40" s="71"/>
-      <c r="I40" s="71"/>
-      <c r="J40" s="71"/>
-      <c r="K40" s="71"/>
-      <c r="L40" s="71"/>
-      <c r="M40" s="71"/>
-      <c r="N40" s="71"/>
-      <c r="O40" s="71"/>
-      <c r="P40" s="71"/>
-      <c r="Q40" s="71"/>
+      <c r="B40" s="70"/>
+      <c r="C40" s="70"/>
+      <c r="D40" s="70"/>
+      <c r="E40" s="70"/>
+      <c r="F40" s="70"/>
+      <c r="G40" s="70"/>
+      <c r="H40" s="69"/>
+      <c r="I40" s="69"/>
+      <c r="J40" s="69"/>
+      <c r="K40" s="69"/>
+      <c r="L40" s="69"/>
+      <c r="M40" s="69"/>
+      <c r="N40" s="69"/>
+      <c r="O40" s="265"/>
+      <c r="P40" s="266"/>
+      <c r="Q40" s="69"/>
     </row>
     <row r="41" spans="1:17" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="72" t="s">
+      <c r="B41" s="70" t="s">
         <v>139</v>
       </c>
-      <c r="C41" s="72"/>
-      <c r="D41" s="72"/>
-      <c r="E41" s="72"/>
-      <c r="F41" s="72"/>
-      <c r="G41" s="72"/>
-      <c r="H41" s="71"/>
-      <c r="I41" s="71"/>
-      <c r="J41" s="71"/>
-      <c r="K41" s="71"/>
-      <c r="L41" s="71"/>
-      <c r="M41" s="71"/>
-      <c r="N41" s="71"/>
-      <c r="O41" s="71"/>
-      <c r="P41" s="71"/>
-      <c r="Q41" s="71"/>
+      <c r="C41" s="70"/>
+      <c r="D41" s="70"/>
+      <c r="E41" s="70"/>
+      <c r="F41" s="70"/>
+      <c r="G41" s="70"/>
+      <c r="H41" s="69"/>
+      <c r="I41" s="69"/>
+      <c r="J41" s="69"/>
+      <c r="K41" s="69"/>
+      <c r="L41" s="69"/>
+      <c r="M41" s="69"/>
+      <c r="N41" s="69"/>
+      <c r="O41" s="263"/>
+      <c r="P41" s="264"/>
+      <c r="Q41" s="69"/>
     </row>
     <row r="42" spans="1:17" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="72"/>
-      <c r="C42" s="72"/>
-      <c r="D42" s="72"/>
-      <c r="E42" s="72"/>
-      <c r="F42" s="72"/>
-      <c r="G42" s="72"/>
-      <c r="H42" s="71"/>
-      <c r="I42" s="71"/>
-      <c r="J42" s="71"/>
-      <c r="K42" s="71"/>
-      <c r="L42" s="71"/>
-      <c r="M42" s="71"/>
-      <c r="N42" s="71"/>
-      <c r="O42" s="71"/>
-      <c r="P42" s="71"/>
-      <c r="Q42" s="71"/>
+      <c r="B42" s="70"/>
+      <c r="C42" s="70"/>
+      <c r="D42" s="70"/>
+      <c r="E42" s="70"/>
+      <c r="F42" s="70"/>
+      <c r="G42" s="70"/>
+      <c r="H42" s="69"/>
+      <c r="I42" s="69"/>
+      <c r="J42" s="69"/>
+      <c r="K42" s="69"/>
+      <c r="L42" s="69"/>
+      <c r="M42" s="69"/>
+      <c r="N42" s="69"/>
+      <c r="O42" s="265"/>
+      <c r="P42" s="266"/>
+      <c r="Q42" s="69"/>
     </row>
     <row r="43" spans="1:17" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="72" t="s">
+      <c r="B43" s="70" t="s">
         <v>140</v>
       </c>
-      <c r="C43" s="72"/>
-      <c r="D43" s="72"/>
-      <c r="E43" s="72"/>
-      <c r="F43" s="72"/>
-      <c r="G43" s="72"/>
-      <c r="H43" s="71"/>
-      <c r="I43" s="71"/>
-      <c r="J43" s="71"/>
-      <c r="K43" s="71"/>
-      <c r="L43" s="71"/>
-      <c r="M43" s="71"/>
-      <c r="N43" s="71"/>
-      <c r="O43" s="71"/>
-      <c r="P43" s="71"/>
-      <c r="Q43" s="71"/>
+      <c r="C43" s="70"/>
+      <c r="D43" s="70"/>
+      <c r="E43" s="70"/>
+      <c r="F43" s="70"/>
+      <c r="G43" s="70"/>
+      <c r="H43" s="69"/>
+      <c r="I43" s="69"/>
+      <c r="J43" s="69"/>
+      <c r="K43" s="69"/>
+      <c r="L43" s="69"/>
+      <c r="M43" s="69"/>
+      <c r="N43" s="69"/>
+      <c r="O43" s="263"/>
+      <c r="P43" s="264"/>
+      <c r="Q43" s="69"/>
     </row>
     <row r="44" spans="1:17" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="72"/>
-      <c r="C44" s="72"/>
-      <c r="D44" s="72"/>
-      <c r="E44" s="72"/>
-      <c r="F44" s="72"/>
-      <c r="G44" s="72"/>
-      <c r="H44" s="71"/>
-      <c r="I44" s="71"/>
-      <c r="J44" s="71"/>
-      <c r="K44" s="71"/>
-      <c r="L44" s="71"/>
-      <c r="M44" s="71"/>
-      <c r="N44" s="71"/>
-      <c r="O44" s="71"/>
-      <c r="P44" s="71"/>
-      <c r="Q44" s="71"/>
+      <c r="B44" s="70"/>
+      <c r="C44" s="70"/>
+      <c r="D44" s="70"/>
+      <c r="E44" s="70"/>
+      <c r="F44" s="70"/>
+      <c r="G44" s="70"/>
+      <c r="H44" s="69"/>
+      <c r="I44" s="69"/>
+      <c r="J44" s="69"/>
+      <c r="K44" s="69"/>
+      <c r="L44" s="69"/>
+      <c r="M44" s="69"/>
+      <c r="N44" s="69"/>
+      <c r="O44" s="265"/>
+      <c r="P44" s="266"/>
+      <c r="Q44" s="69"/>
     </row>
     <row r="45" spans="1:17" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="72" t="s">
+      <c r="B45" s="70" t="s">
         <v>141</v>
       </c>
-      <c r="C45" s="72"/>
-      <c r="D45" s="72"/>
-      <c r="E45" s="72"/>
-      <c r="F45" s="72"/>
-      <c r="G45" s="72"/>
-      <c r="H45" s="71"/>
-      <c r="I45" s="71"/>
-      <c r="J45" s="71"/>
-      <c r="K45" s="71"/>
-      <c r="L45" s="71"/>
-      <c r="M45" s="71"/>
-      <c r="N45" s="71"/>
-      <c r="O45" s="71"/>
-      <c r="P45" s="71"/>
-      <c r="Q45" s="71"/>
+      <c r="C45" s="70"/>
+      <c r="D45" s="70"/>
+      <c r="E45" s="70"/>
+      <c r="F45" s="70"/>
+      <c r="G45" s="70"/>
+      <c r="H45" s="69"/>
+      <c r="I45" s="69"/>
+      <c r="J45" s="69"/>
+      <c r="K45" s="69"/>
+      <c r="L45" s="69"/>
+      <c r="M45" s="69"/>
+      <c r="N45" s="69"/>
+      <c r="O45" s="263"/>
+      <c r="P45" s="264"/>
+      <c r="Q45" s="69"/>
     </row>
     <row r="46" spans="1:17" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="72"/>
-      <c r="C46" s="72"/>
-      <c r="D46" s="72"/>
-      <c r="E46" s="72"/>
-      <c r="F46" s="72"/>
-      <c r="G46" s="72"/>
-      <c r="H46" s="71"/>
-      <c r="I46" s="71"/>
-      <c r="J46" s="71"/>
-      <c r="K46" s="71"/>
-      <c r="L46" s="71"/>
-      <c r="M46" s="71"/>
-      <c r="N46" s="71"/>
-      <c r="O46" s="71"/>
-      <c r="P46" s="71"/>
-      <c r="Q46" s="71"/>
+      <c r="B46" s="70"/>
+      <c r="C46" s="70"/>
+      <c r="D46" s="70"/>
+      <c r="E46" s="70"/>
+      <c r="F46" s="70"/>
+      <c r="G46" s="70"/>
+      <c r="H46" s="69"/>
+      <c r="I46" s="69"/>
+      <c r="J46" s="69"/>
+      <c r="K46" s="69"/>
+      <c r="L46" s="69"/>
+      <c r="M46" s="69"/>
+      <c r="N46" s="69"/>
+      <c r="O46" s="265"/>
+      <c r="P46" s="266"/>
+      <c r="Q46" s="69"/>
     </row>
     <row r="47" spans="1:17" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="72" t="s">
+      <c r="B47" s="70" t="s">
         <v>142</v>
       </c>
-      <c r="C47" s="72"/>
-      <c r="D47" s="72"/>
-      <c r="E47" s="72"/>
-      <c r="F47" s="72"/>
-      <c r="G47" s="72"/>
-      <c r="H47" s="71"/>
-      <c r="I47" s="71"/>
-      <c r="J47" s="71"/>
-      <c r="K47" s="71"/>
-      <c r="L47" s="71"/>
-      <c r="M47" s="71"/>
-      <c r="N47" s="71"/>
-      <c r="O47" s="71"/>
-      <c r="P47" s="71"/>
-      <c r="Q47" s="71"/>
+      <c r="C47" s="70"/>
+      <c r="D47" s="70"/>
+      <c r="E47" s="70"/>
+      <c r="F47" s="70"/>
+      <c r="G47" s="70"/>
+      <c r="H47" s="69"/>
+      <c r="I47" s="69"/>
+      <c r="J47" s="69"/>
+      <c r="K47" s="69"/>
+      <c r="L47" s="69"/>
+      <c r="M47" s="69"/>
+      <c r="N47" s="69"/>
+      <c r="O47" s="263"/>
+      <c r="P47" s="264"/>
+      <c r="Q47" s="69"/>
     </row>
     <row r="48" spans="1:17" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="72"/>
-      <c r="C48" s="72"/>
-      <c r="D48" s="72"/>
-      <c r="E48" s="72"/>
-      <c r="F48" s="72"/>
-      <c r="G48" s="72"/>
-      <c r="H48" s="71"/>
-      <c r="I48" s="71"/>
-      <c r="J48" s="71"/>
-      <c r="K48" s="71"/>
-      <c r="L48" s="71"/>
-      <c r="M48" s="71"/>
-      <c r="N48" s="71"/>
-      <c r="O48" s="71"/>
-      <c r="P48" s="71"/>
-      <c r="Q48" s="71"/>
+      <c r="B48" s="70"/>
+      <c r="C48" s="70"/>
+      <c r="D48" s="70"/>
+      <c r="E48" s="70"/>
+      <c r="F48" s="70"/>
+      <c r="G48" s="70"/>
+      <c r="H48" s="69"/>
+      <c r="I48" s="69"/>
+      <c r="J48" s="69"/>
+      <c r="K48" s="69"/>
+      <c r="L48" s="69"/>
+      <c r="M48" s="69"/>
+      <c r="N48" s="69"/>
+      <c r="O48" s="265"/>
+      <c r="P48" s="266"/>
+      <c r="Q48" s="69"/>
     </row>
     <row r="49" spans="1:17" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="72" t="s">
+      <c r="B49" s="70" t="s">
         <v>143</v>
       </c>
-      <c r="C49" s="72"/>
-      <c r="D49" s="72"/>
-      <c r="E49" s="72"/>
-      <c r="F49" s="72"/>
-      <c r="G49" s="72"/>
-      <c r="H49" s="71"/>
-      <c r="I49" s="71"/>
-      <c r="J49" s="71"/>
-      <c r="K49" s="71"/>
-      <c r="L49" s="71"/>
-      <c r="M49" s="71"/>
-      <c r="N49" s="71"/>
-      <c r="O49" s="71"/>
-      <c r="P49" s="71"/>
-      <c r="Q49" s="71"/>
+      <c r="C49" s="70"/>
+      <c r="D49" s="70"/>
+      <c r="E49" s="70"/>
+      <c r="F49" s="70"/>
+      <c r="G49" s="70"/>
+      <c r="H49" s="69"/>
+      <c r="I49" s="69"/>
+      <c r="J49" s="69"/>
+      <c r="K49" s="69"/>
+      <c r="L49" s="69"/>
+      <c r="M49" s="69"/>
+      <c r="N49" s="69"/>
+      <c r="O49" s="263"/>
+      <c r="P49" s="264"/>
+      <c r="Q49" s="69"/>
     </row>
     <row r="50" spans="1:17" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="72"/>
-      <c r="C50" s="72"/>
-      <c r="D50" s="72"/>
-      <c r="E50" s="72"/>
-      <c r="F50" s="72"/>
-      <c r="G50" s="72"/>
-      <c r="H50" s="71"/>
-      <c r="I50" s="71"/>
-      <c r="J50" s="71"/>
-      <c r="K50" s="71"/>
-      <c r="L50" s="71"/>
-      <c r="M50" s="71"/>
-      <c r="N50" s="71"/>
-      <c r="O50" s="71"/>
-      <c r="P50" s="71"/>
-      <c r="Q50" s="71"/>
+      <c r="B50" s="70"/>
+      <c r="C50" s="70"/>
+      <c r="D50" s="70"/>
+      <c r="E50" s="70"/>
+      <c r="F50" s="70"/>
+      <c r="G50" s="70"/>
+      <c r="H50" s="69"/>
+      <c r="I50" s="69"/>
+      <c r="J50" s="69"/>
+      <c r="K50" s="69"/>
+      <c r="L50" s="69"/>
+      <c r="M50" s="69"/>
+      <c r="N50" s="69"/>
+      <c r="O50" s="265"/>
+      <c r="P50" s="266"/>
+      <c r="Q50" s="69"/>
     </row>
     <row r="51" spans="1:17" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="72" t="s">
+      <c r="B51" s="70" t="s">
         <v>144</v>
       </c>
-      <c r="C51" s="72"/>
-      <c r="D51" s="72"/>
-      <c r="E51" s="72"/>
-      <c r="F51" s="72"/>
-      <c r="G51" s="72"/>
-      <c r="H51" s="71"/>
-      <c r="I51" s="71"/>
-      <c r="J51" s="71"/>
-      <c r="K51" s="71"/>
-      <c r="L51" s="71"/>
-      <c r="M51" s="71"/>
-      <c r="N51" s="71"/>
-      <c r="O51" s="71"/>
-      <c r="P51" s="71"/>
-      <c r="Q51" s="71"/>
+      <c r="C51" s="70"/>
+      <c r="D51" s="70"/>
+      <c r="E51" s="70"/>
+      <c r="F51" s="70"/>
+      <c r="G51" s="70"/>
+      <c r="H51" s="69"/>
+      <c r="I51" s="69"/>
+      <c r="J51" s="69"/>
+      <c r="K51" s="69"/>
+      <c r="L51" s="69"/>
+      <c r="M51" s="69"/>
+      <c r="N51" s="69"/>
+      <c r="O51" s="263"/>
+      <c r="P51" s="264"/>
+      <c r="Q51" s="69"/>
     </row>
     <row r="52" spans="1:17" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="72"/>
-      <c r="C52" s="72"/>
-      <c r="D52" s="72"/>
-      <c r="E52" s="72"/>
-      <c r="F52" s="72"/>
-      <c r="G52" s="72"/>
-      <c r="H52" s="71"/>
-      <c r="I52" s="71"/>
-      <c r="J52" s="71"/>
-      <c r="K52" s="71"/>
-      <c r="L52" s="71"/>
-      <c r="M52" s="71"/>
-      <c r="N52" s="71"/>
-      <c r="O52" s="71"/>
-      <c r="P52" s="71"/>
-      <c r="Q52" s="71"/>
+      <c r="B52" s="70"/>
+      <c r="C52" s="70"/>
+      <c r="D52" s="70"/>
+      <c r="E52" s="70"/>
+      <c r="F52" s="70"/>
+      <c r="G52" s="70"/>
+      <c r="H52" s="69"/>
+      <c r="I52" s="69"/>
+      <c r="J52" s="69"/>
+      <c r="K52" s="69"/>
+      <c r="L52" s="69"/>
+      <c r="M52" s="69"/>
+      <c r="N52" s="69"/>
+      <c r="O52" s="265"/>
+      <c r="P52" s="266"/>
+      <c r="Q52" s="69"/>
     </row>
     <row r="53" spans="1:17" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="72" t="s">
+      <c r="B53" s="70" t="s">
         <v>145</v>
       </c>
-      <c r="C53" s="72"/>
-      <c r="D53" s="72"/>
-      <c r="E53" s="72"/>
-      <c r="F53" s="72"/>
-      <c r="G53" s="72"/>
-      <c r="H53" s="71"/>
-      <c r="I53" s="71"/>
-      <c r="J53" s="71"/>
-      <c r="K53" s="71"/>
-      <c r="L53" s="71"/>
-      <c r="M53" s="71"/>
-      <c r="N53" s="71"/>
-      <c r="O53" s="71"/>
-      <c r="P53" s="71"/>
-      <c r="Q53" s="71"/>
+      <c r="C53" s="70"/>
+      <c r="D53" s="70"/>
+      <c r="E53" s="70"/>
+      <c r="F53" s="70"/>
+      <c r="G53" s="70"/>
+      <c r="H53" s="69"/>
+      <c r="I53" s="69"/>
+      <c r="J53" s="69"/>
+      <c r="K53" s="69"/>
+      <c r="L53" s="69"/>
+      <c r="M53" s="69"/>
+      <c r="N53" s="69"/>
+      <c r="O53" s="263"/>
+      <c r="P53" s="264"/>
+      <c r="Q53" s="69"/>
     </row>
     <row r="54" spans="1:17" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="72"/>
-      <c r="C54" s="72"/>
-      <c r="D54" s="72"/>
-      <c r="E54" s="72"/>
-      <c r="F54" s="72"/>
-      <c r="G54" s="72"/>
-      <c r="H54" s="71"/>
-      <c r="I54" s="71"/>
-      <c r="J54" s="71"/>
-      <c r="K54" s="71"/>
-      <c r="L54" s="71"/>
-      <c r="M54" s="71"/>
-      <c r="N54" s="71"/>
-      <c r="O54" s="71"/>
-      <c r="P54" s="71"/>
-      <c r="Q54" s="71"/>
+      <c r="B54" s="70"/>
+      <c r="C54" s="70"/>
+      <c r="D54" s="70"/>
+      <c r="E54" s="70"/>
+      <c r="F54" s="70"/>
+      <c r="G54" s="70"/>
+      <c r="H54" s="69"/>
+      <c r="I54" s="69"/>
+      <c r="J54" s="69"/>
+      <c r="K54" s="69"/>
+      <c r="L54" s="69"/>
+      <c r="M54" s="69"/>
+      <c r="N54" s="69"/>
+      <c r="O54" s="265"/>
+      <c r="P54" s="266"/>
+      <c r="Q54" s="69"/>
     </row>
     <row r="55" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="26"/>
@@ -3572,59 +3734,59 @@
     </row>
     <row r="58" spans="1:17" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="7"/>
-      <c r="B58" s="73" t="s">
+      <c r="B58" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="C58" s="73"/>
-      <c r="D58" s="74"/>
-      <c r="E58" s="74"/>
-      <c r="F58" s="74"/>
-      <c r="G58" s="74"/>
-      <c r="H58" s="74"/>
-      <c r="I58" s="74"/>
-      <c r="J58" s="74"/>
-      <c r="K58" s="75"/>
-      <c r="L58" s="75"/>
-      <c r="M58" s="75"/>
-      <c r="N58" s="75"/>
-      <c r="O58" s="75"/>
-      <c r="P58" s="75"/>
+      <c r="C58" s="71"/>
+      <c r="D58" s="72"/>
+      <c r="E58" s="72"/>
+      <c r="F58" s="72"/>
+      <c r="G58" s="72"/>
+      <c r="H58" s="72"/>
+      <c r="I58" s="72"/>
+      <c r="J58" s="72"/>
+      <c r="K58" s="235"/>
+      <c r="L58" s="236"/>
+      <c r="M58" s="236"/>
+      <c r="N58" s="236"/>
+      <c r="O58" s="236"/>
+      <c r="P58" s="237"/>
     </row>
     <row r="59" spans="1:17" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="7"/>
-      <c r="B59" s="73"/>
-      <c r="C59" s="73"/>
-      <c r="D59" s="74"/>
-      <c r="E59" s="74"/>
-      <c r="F59" s="74"/>
-      <c r="G59" s="74"/>
-      <c r="H59" s="74"/>
-      <c r="I59" s="74"/>
-      <c r="J59" s="74"/>
-      <c r="K59" s="75"/>
-      <c r="L59" s="75"/>
-      <c r="M59" s="75"/>
-      <c r="N59" s="75"/>
-      <c r="O59" s="75"/>
-      <c r="P59" s="75"/>
+      <c r="B59" s="71"/>
+      <c r="C59" s="71"/>
+      <c r="D59" s="72"/>
+      <c r="E59" s="72"/>
+      <c r="F59" s="72"/>
+      <c r="G59" s="72"/>
+      <c r="H59" s="72"/>
+      <c r="I59" s="72"/>
+      <c r="J59" s="72"/>
+      <c r="K59" s="235"/>
+      <c r="L59" s="236"/>
+      <c r="M59" s="236"/>
+      <c r="N59" s="236"/>
+      <c r="O59" s="236"/>
+      <c r="P59" s="237"/>
     </row>
     <row r="60" spans="1:17" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="7"/>
-      <c r="B60" s="78"/>
-      <c r="C60" s="78"/>
-      <c r="D60" s="78"/>
-      <c r="E60" s="78"/>
-      <c r="F60" s="78"/>
-      <c r="G60" s="78"/>
-      <c r="H60" s="78"/>
-      <c r="I60" s="78"/>
-      <c r="J60" s="78"/>
-      <c r="K60" s="75"/>
-      <c r="L60" s="75"/>
-      <c r="M60" s="75"/>
-      <c r="N60" s="75"/>
-      <c r="O60" s="75"/>
-      <c r="P60" s="75"/>
+      <c r="B60" s="74"/>
+      <c r="C60" s="74"/>
+      <c r="D60" s="74"/>
+      <c r="E60" s="74"/>
+      <c r="F60" s="74"/>
+      <c r="G60" s="74"/>
+      <c r="H60" s="74"/>
+      <c r="I60" s="74"/>
+      <c r="J60" s="74"/>
+      <c r="K60" s="235"/>
+      <c r="L60" s="236"/>
+      <c r="M60" s="236"/>
+      <c r="N60" s="236"/>
+      <c r="O60" s="236"/>
+      <c r="P60" s="237"/>
     </row>
     <row r="61" spans="1:17" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="7"/>
@@ -3658,22 +3820,22 @@
       <c r="K62" s="30" t="s">
         <v>146</v>
       </c>
-      <c r="L62" s="79"/>
-      <c r="M62" s="79"/>
-      <c r="N62" s="79"/>
+      <c r="L62" s="75"/>
+      <c r="M62" s="75"/>
+      <c r="N62" s="75"/>
       <c r="O62" s="28"/>
       <c r="P62" s="6"/>
     </row>
     <row r="63" spans="1:17" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="7"/>
-      <c r="B63" s="80" t="s">
+      <c r="B63" s="76" t="s">
         <v>44</v>
       </c>
-      <c r="C63" s="80"/>
-      <c r="D63" s="80"/>
-      <c r="E63" s="80"/>
-      <c r="F63" s="80"/>
-      <c r="G63" s="80"/>
+      <c r="C63" s="76"/>
+      <c r="D63" s="76"/>
+      <c r="E63" s="76"/>
+      <c r="F63" s="76"/>
+      <c r="G63" s="76"/>
       <c r="H63" s="23"/>
       <c r="I63" s="23"/>
       <c r="J63" s="23"/>
@@ -3685,116 +3847,116 @@
       <c r="P63" s="6"/>
     </row>
     <row r="65" spans="2:16" ht="23.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="42" t="s">
+      <c r="B65" s="44" t="s">
         <v>121</v>
       </c>
-      <c r="C65" s="42"/>
-      <c r="D65" s="42"/>
-      <c r="E65" s="42"/>
-      <c r="F65" s="42"/>
-      <c r="G65" s="42"/>
-      <c r="H65" s="42"/>
-      <c r="I65" s="43"/>
-      <c r="J65" s="43"/>
-      <c r="K65" s="43"/>
-      <c r="L65" s="43" t="s">
+      <c r="C65" s="44"/>
+      <c r="D65" s="44"/>
+      <c r="E65" s="44"/>
+      <c r="F65" s="44"/>
+      <c r="G65" s="44"/>
+      <c r="H65" s="44"/>
+      <c r="I65" s="45"/>
+      <c r="J65" s="45"/>
+      <c r="K65" s="45"/>
+      <c r="L65" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="M65" s="43"/>
-      <c r="N65" s="43" t="str">
+      <c r="M65" s="45"/>
+      <c r="N65" s="45" t="str">
         <f>IF(D70="","",D70)</f>
         <v/>
       </c>
-      <c r="O65" s="43"/>
-      <c r="P65" s="43"/>
+      <c r="O65" s="45"/>
+      <c r="P65" s="45"/>
     </row>
     <row r="66" spans="2:16" ht="23.65" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="67" spans="2:16" ht="23.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="76" t="s">
+      <c r="B67" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="C67" s="76"/>
-      <c r="D67" s="76"/>
-      <c r="E67" s="76"/>
-      <c r="F67" s="76"/>
-      <c r="G67" s="76"/>
-      <c r="I67" s="76" t="s">
+      <c r="C67" s="73"/>
+      <c r="D67" s="73"/>
+      <c r="E67" s="73"/>
+      <c r="F67" s="73"/>
+      <c r="G67" s="73"/>
+      <c r="I67" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="J67" s="76"/>
-      <c r="K67" s="76"/>
-      <c r="L67" s="76"/>
-      <c r="M67" s="76"/>
-      <c r="N67" s="76"/>
-      <c r="O67" s="76"/>
-      <c r="P67" s="76"/>
+      <c r="J67" s="50"/>
+      <c r="K67" s="50"/>
+      <c r="L67" s="50"/>
+      <c r="M67" s="50"/>
+      <c r="N67" s="50"/>
+      <c r="O67" s="50"/>
+      <c r="P67" s="262"/>
     </row>
     <row r="68" spans="2:16" ht="23.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="76" t="s">
+      <c r="B68" s="73" t="s">
         <v>160</v>
       </c>
-      <c r="C68" s="76"/>
-      <c r="D68" s="76"/>
-      <c r="E68" s="76"/>
-      <c r="F68" s="76"/>
-      <c r="G68" s="76"/>
-      <c r="I68" s="76" t="s">
+      <c r="C68" s="73"/>
+      <c r="D68" s="73"/>
+      <c r="E68" s="73"/>
+      <c r="F68" s="73"/>
+      <c r="G68" s="73"/>
+      <c r="I68" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="J68" s="76"/>
-      <c r="K68" s="76"/>
-      <c r="L68" s="76"/>
-      <c r="M68" s="77" t="str">
+      <c r="J68" s="73"/>
+      <c r="K68" s="73"/>
+      <c r="L68" s="73"/>
+      <c r="M68" s="259" t="str">
         <f>REPT($I$65,1)</f>
         <v/>
       </c>
-      <c r="N68" s="77"/>
-      <c r="O68" s="77"/>
-      <c r="P68" s="77"/>
+      <c r="N68" s="260"/>
+      <c r="O68" s="260"/>
+      <c r="P68" s="261"/>
     </row>
     <row r="69" spans="2:16" ht="23.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="76" t="s">
+      <c r="B69" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="C69" s="76"/>
-      <c r="D69" s="76"/>
-      <c r="E69" s="76"/>
-      <c r="F69" s="76"/>
-      <c r="G69" s="76"/>
-      <c r="I69" s="76" t="s">
+      <c r="C69" s="73"/>
+      <c r="D69" s="73"/>
+      <c r="E69" s="73"/>
+      <c r="F69" s="73"/>
+      <c r="G69" s="73"/>
+      <c r="I69" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="J69" s="76"/>
-      <c r="K69" s="76"/>
-      <c r="L69" s="76"/>
-      <c r="M69" s="77" t="s">
+      <c r="J69" s="73"/>
+      <c r="K69" s="73"/>
+      <c r="L69" s="73"/>
+      <c r="M69" s="259" t="s">
         <v>20</v>
       </c>
-      <c r="N69" s="77"/>
-      <c r="O69" s="77"/>
-      <c r="P69" s="77"/>
+      <c r="N69" s="260"/>
+      <c r="O69" s="260"/>
+      <c r="P69" s="261"/>
     </row>
     <row r="70" spans="2:16" ht="23.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="76" t="s">
+      <c r="B70" s="73" t="s">
         <v>161</v>
       </c>
-      <c r="C70" s="76"/>
-      <c r="D70" s="76"/>
-      <c r="E70" s="76"/>
-      <c r="F70" s="76"/>
-      <c r="G70" s="76"/>
-      <c r="I70" s="76" t="s">
+      <c r="C70" s="73"/>
+      <c r="D70" s="73"/>
+      <c r="E70" s="73"/>
+      <c r="F70" s="73"/>
+      <c r="G70" s="73"/>
+      <c r="I70" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="J70" s="76"/>
-      <c r="K70" s="76"/>
-      <c r="L70" s="76"/>
-      <c r="M70" s="77" t="s">
+      <c r="J70" s="73"/>
+      <c r="K70" s="73"/>
+      <c r="L70" s="73"/>
+      <c r="M70" s="259" t="s">
         <v>20</v>
       </c>
-      <c r="N70" s="77"/>
-      <c r="O70" s="77"/>
-      <c r="P70" s="77"/>
+      <c r="N70" s="260"/>
+      <c r="O70" s="260"/>
+      <c r="P70" s="261"/>
     </row>
     <row r="71" spans="2:16" ht="23.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="8"/>
@@ -3803,28 +3965,28 @@
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
-      <c r="I71" s="76" t="s">
+      <c r="I71" s="73" t="s">
         <v>34</v>
       </c>
-      <c r="J71" s="76"/>
-      <c r="K71" s="76"/>
-      <c r="L71" s="76"/>
-      <c r="M71" s="77"/>
-      <c r="N71" s="77"/>
-      <c r="O71" s="77"/>
-      <c r="P71" s="77"/>
+      <c r="J71" s="73"/>
+      <c r="K71" s="73"/>
+      <c r="L71" s="73"/>
+      <c r="M71" s="259"/>
+      <c r="N71" s="260"/>
+      <c r="O71" s="260"/>
+      <c r="P71" s="261"/>
     </row>
     <row r="72" spans="2:16" ht="23.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I72" s="76" t="s">
+      <c r="I72" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="J72" s="76"/>
-      <c r="K72" s="76"/>
-      <c r="L72" s="76"/>
-      <c r="M72" s="77"/>
-      <c r="N72" s="77"/>
-      <c r="O72" s="77"/>
-      <c r="P72" s="77"/>
+      <c r="J72" s="73"/>
+      <c r="K72" s="73"/>
+      <c r="L72" s="73"/>
+      <c r="M72" s="259"/>
+      <c r="N72" s="260"/>
+      <c r="O72" s="260"/>
+      <c r="P72" s="261"/>
     </row>
     <row r="73" spans="2:16" ht="23.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="29"/>
@@ -3833,18 +3995,18 @@
       <c r="E73" s="29"/>
       <c r="F73" s="29"/>
       <c r="G73" s="29"/>
-      <c r="I73" s="76" t="s">
+      <c r="I73" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="J73" s="76"/>
-      <c r="K73" s="76"/>
-      <c r="L73" s="76"/>
-      <c r="M73" s="77" t="s">
+      <c r="J73" s="73"/>
+      <c r="K73" s="73"/>
+      <c r="L73" s="73"/>
+      <c r="M73" s="259" t="s">
         <v>20</v>
       </c>
-      <c r="N73" s="77"/>
-      <c r="O73" s="77"/>
-      <c r="P73" s="77"/>
+      <c r="N73" s="260"/>
+      <c r="O73" s="260"/>
+      <c r="P73" s="261"/>
     </row>
     <row r="74" spans="2:16" ht="23.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="29"/>
@@ -3853,16 +4015,16 @@
       <c r="E74" s="29"/>
       <c r="F74" s="29"/>
       <c r="G74" s="29"/>
-      <c r="I74" s="76" t="s">
+      <c r="I74" s="73" t="s">
         <v>124</v>
       </c>
-      <c r="J74" s="76"/>
-      <c r="K74" s="76"/>
-      <c r="L74" s="76"/>
-      <c r="M74" s="77"/>
-      <c r="N74" s="77"/>
-      <c r="O74" s="77"/>
-      <c r="P74" s="77"/>
+      <c r="J74" s="73"/>
+      <c r="K74" s="73"/>
+      <c r="L74" s="73"/>
+      <c r="M74" s="259"/>
+      <c r="N74" s="260"/>
+      <c r="O74" s="260"/>
+      <c r="P74" s="261"/>
     </row>
     <row r="75" spans="2:16" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="29"/>
@@ -3871,16 +4033,16 @@
       <c r="E75" s="29"/>
       <c r="F75" s="29"/>
       <c r="G75" s="29"/>
-      <c r="I75" s="76" t="s">
+      <c r="I75" s="73" t="s">
         <v>125</v>
       </c>
-      <c r="J75" s="76"/>
-      <c r="K75" s="76"/>
-      <c r="L75" s="76"/>
-      <c r="M75" s="77"/>
-      <c r="N75" s="77"/>
-      <c r="O75" s="77"/>
-      <c r="P75" s="77"/>
+      <c r="J75" s="73"/>
+      <c r="K75" s="73"/>
+      <c r="L75" s="73"/>
+      <c r="M75" s="259"/>
+      <c r="N75" s="260"/>
+      <c r="O75" s="260"/>
+      <c r="P75" s="261"/>
     </row>
     <row r="76" spans="2:16" ht="23.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="29"/>
@@ -3889,18 +4051,18 @@
       <c r="E76" s="29"/>
       <c r="F76" s="29"/>
       <c r="G76" s="29"/>
-      <c r="I76" s="76" t="s">
+      <c r="I76" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="J76" s="76"/>
-      <c r="K76" s="76"/>
-      <c r="L76" s="76"/>
-      <c r="M76" s="77" t="s">
+      <c r="J76" s="73"/>
+      <c r="K76" s="73"/>
+      <c r="L76" s="73"/>
+      <c r="M76" s="259" t="s">
         <v>20</v>
       </c>
-      <c r="N76" s="77"/>
-      <c r="O76" s="77"/>
-      <c r="P76" s="77"/>
+      <c r="N76" s="260"/>
+      <c r="O76" s="260"/>
+      <c r="P76" s="261"/>
     </row>
     <row r="77" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="29"/>
@@ -3909,16 +4071,16 @@
       <c r="E77" s="29"/>
       <c r="F77" s="29"/>
       <c r="G77" s="29"/>
-      <c r="I77" s="76" t="s">
+      <c r="I77" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="J77" s="76"/>
-      <c r="K77" s="76"/>
-      <c r="L77" s="76"/>
-      <c r="M77" s="77"/>
-      <c r="N77" s="77"/>
-      <c r="O77" s="77"/>
-      <c r="P77" s="77"/>
+      <c r="J77" s="73"/>
+      <c r="K77" s="73"/>
+      <c r="L77" s="73"/>
+      <c r="M77" s="259"/>
+      <c r="N77" s="260"/>
+      <c r="O77" s="260"/>
+      <c r="P77" s="261"/>
     </row>
     <row r="78" spans="2:16" ht="23.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="29"/>
@@ -3927,18 +4089,18 @@
       <c r="E78" s="29"/>
       <c r="F78" s="29"/>
       <c r="G78" s="29"/>
-      <c r="I78" s="76" t="s">
+      <c r="I78" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="J78" s="76"/>
-      <c r="K78" s="76"/>
-      <c r="L78" s="76"/>
-      <c r="M78" s="77" t="s">
+      <c r="J78" s="73"/>
+      <c r="K78" s="73"/>
+      <c r="L78" s="73"/>
+      <c r="M78" s="259" t="s">
         <v>20</v>
       </c>
-      <c r="N78" s="77"/>
-      <c r="O78" s="77"/>
-      <c r="P78" s="77"/>
+      <c r="N78" s="260"/>
+      <c r="O78" s="260"/>
+      <c r="P78" s="261"/>
     </row>
     <row r="79" spans="2:16" ht="23.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="29"/>
@@ -3947,16 +4109,16 @@
       <c r="E79" s="29"/>
       <c r="F79" s="29"/>
       <c r="G79" s="29"/>
-      <c r="I79" s="76" t="s">
+      <c r="I79" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="J79" s="76"/>
-      <c r="K79" s="76"/>
-      <c r="L79" s="76"/>
-      <c r="M79" s="77"/>
-      <c r="N79" s="77"/>
-      <c r="O79" s="77"/>
-      <c r="P79" s="77"/>
+      <c r="J79" s="73"/>
+      <c r="K79" s="73"/>
+      <c r="L79" s="73"/>
+      <c r="M79" s="259"/>
+      <c r="N79" s="260"/>
+      <c r="O79" s="260"/>
+      <c r="P79" s="261"/>
     </row>
     <row r="80" spans="2:16" ht="23.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="29"/>
@@ -3965,16 +4127,16 @@
       <c r="E80" s="29"/>
       <c r="F80" s="29"/>
       <c r="G80" s="29"/>
-      <c r="I80" s="82" t="s">
+      <c r="I80" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="J80" s="82"/>
-      <c r="K80" s="82"/>
-      <c r="L80" s="82"/>
-      <c r="M80" s="83"/>
-      <c r="N80" s="83"/>
-      <c r="O80" s="83"/>
-      <c r="P80" s="83"/>
+      <c r="J80" s="78"/>
+      <c r="K80" s="78"/>
+      <c r="L80" s="78"/>
+      <c r="M80" s="256"/>
+      <c r="N80" s="257"/>
+      <c r="O80" s="257"/>
+      <c r="P80" s="258"/>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B81" s="29"/>
@@ -3993,364 +4155,364 @@
       <c r="P81" s="41"/>
     </row>
     <row r="82" spans="1:17" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="55" t="s">
+      <c r="A82" s="57" t="s">
         <v>147</v>
       </c>
-      <c r="B82" s="55"/>
-      <c r="C82" s="55"/>
-      <c r="D82" s="55"/>
-      <c r="E82" s="55"/>
-      <c r="F82" s="55"/>
-      <c r="G82" s="55"/>
-      <c r="H82" s="55"/>
-      <c r="I82" s="55"/>
-      <c r="J82" s="55"/>
-      <c r="K82" s="55"/>
-      <c r="L82" s="55"/>
-      <c r="M82" s="55"/>
-      <c r="N82" s="55"/>
-      <c r="O82" s="55"/>
-      <c r="P82" s="55"/>
-      <c r="Q82" s="55"/>
-    </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A83" s="55"/>
-      <c r="B83" s="55"/>
-      <c r="C83" s="55"/>
-      <c r="D83" s="55"/>
-      <c r="E83" s="55"/>
-      <c r="F83" s="55"/>
-      <c r="G83" s="55"/>
-      <c r="H83" s="55"/>
-      <c r="I83" s="55"/>
-      <c r="J83" s="55"/>
-      <c r="K83" s="55"/>
-      <c r="L83" s="55"/>
-      <c r="M83" s="55"/>
-      <c r="N83" s="55"/>
-      <c r="O83" s="55"/>
-      <c r="P83" s="55"/>
-      <c r="Q83" s="55"/>
-    </row>
-    <row r="84" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="55"/>
-      <c r="B84" s="55"/>
-      <c r="C84" s="55"/>
-      <c r="D84" s="55"/>
-      <c r="E84" s="55"/>
-      <c r="F84" s="55"/>
-      <c r="G84" s="55"/>
-      <c r="H84" s="55"/>
-      <c r="I84" s="55"/>
-      <c r="J84" s="55"/>
-      <c r="K84" s="55"/>
-      <c r="L84" s="55"/>
-      <c r="M84" s="55"/>
-      <c r="N84" s="55"/>
-      <c r="O84" s="55"/>
-      <c r="P84" s="55"/>
-      <c r="Q84" s="55"/>
+      <c r="B82" s="57"/>
+      <c r="C82" s="57"/>
+      <c r="D82" s="57"/>
+      <c r="E82" s="57"/>
+      <c r="F82" s="57"/>
+      <c r="G82" s="57"/>
+      <c r="H82" s="57"/>
+      <c r="I82" s="57"/>
+      <c r="J82" s="57"/>
+      <c r="K82" s="57"/>
+      <c r="L82" s="57"/>
+      <c r="M82" s="57"/>
+      <c r="N82" s="57"/>
+      <c r="O82" s="57"/>
+      <c r="P82" s="57"/>
+      <c r="Q82" s="57"/>
+    </row>
+    <row r="83" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="57"/>
+      <c r="B83" s="57"/>
+      <c r="C83" s="57"/>
+      <c r="D83" s="57"/>
+      <c r="E83" s="57"/>
+      <c r="F83" s="57"/>
+      <c r="G83" s="57"/>
+      <c r="H83" s="57"/>
+      <c r="I83" s="57"/>
+      <c r="J83" s="57"/>
+      <c r="K83" s="57"/>
+      <c r="L83" s="57"/>
+      <c r="M83" s="57"/>
+      <c r="N83" s="57"/>
+      <c r="O83" s="57"/>
+      <c r="P83" s="57"/>
+      <c r="Q83" s="57"/>
+    </row>
+    <row r="84" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="57"/>
+      <c r="B84" s="57"/>
+      <c r="C84" s="57"/>
+      <c r="D84" s="57"/>
+      <c r="E84" s="57"/>
+      <c r="F84" s="57"/>
+      <c r="G84" s="57"/>
+      <c r="H84" s="57"/>
+      <c r="I84" s="57"/>
+      <c r="J84" s="57"/>
+      <c r="K84" s="57"/>
+      <c r="L84" s="57"/>
+      <c r="M84" s="57"/>
+      <c r="N84" s="57"/>
+      <c r="O84" s="57"/>
+      <c r="P84" s="57"/>
+      <c r="Q84" s="57"/>
     </row>
     <row r="85" spans="1:17" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="81" t="s">
+      <c r="B85" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="C85" s="81"/>
-      <c r="D85" s="81"/>
-      <c r="E85" s="81"/>
-      <c r="F85" s="81"/>
-      <c r="G85" s="81"/>
-      <c r="H85" s="60" t="s">
+      <c r="C85" s="77"/>
+      <c r="D85" s="77"/>
+      <c r="E85" s="77"/>
+      <c r="F85" s="77"/>
+      <c r="G85" s="77"/>
+      <c r="H85" s="250" t="s">
         <v>127</v>
       </c>
-      <c r="I85" s="60"/>
-      <c r="J85" s="60"/>
-      <c r="K85" s="60"/>
-      <c r="L85" s="60"/>
-      <c r="M85" s="60"/>
-      <c r="N85" s="60"/>
-      <c r="O85" s="60"/>
-      <c r="P85" s="60"/>
+      <c r="I85" s="251"/>
+      <c r="J85" s="251"/>
+      <c r="K85" s="251"/>
+      <c r="L85" s="251"/>
+      <c r="M85" s="251"/>
+      <c r="N85" s="251"/>
+      <c r="O85" s="251"/>
+      <c r="P85" s="252"/>
     </row>
     <row r="86" spans="1:17" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="81"/>
-      <c r="C86" s="81"/>
-      <c r="D86" s="81"/>
-      <c r="E86" s="81"/>
-      <c r="F86" s="81"/>
-      <c r="G86" s="81"/>
-      <c r="H86" s="60"/>
-      <c r="I86" s="60"/>
-      <c r="J86" s="60"/>
-      <c r="K86" s="60"/>
-      <c r="L86" s="60"/>
-      <c r="M86" s="60"/>
-      <c r="N86" s="60"/>
-      <c r="O86" s="60"/>
-      <c r="P86" s="60"/>
+      <c r="B86" s="77"/>
+      <c r="C86" s="77"/>
+      <c r="D86" s="77"/>
+      <c r="E86" s="77"/>
+      <c r="F86" s="77"/>
+      <c r="G86" s="77"/>
+      <c r="H86" s="253"/>
+      <c r="I86" s="254"/>
+      <c r="J86" s="254"/>
+      <c r="K86" s="254"/>
+      <c r="L86" s="254"/>
+      <c r="M86" s="254"/>
+      <c r="N86" s="254"/>
+      <c r="O86" s="254"/>
+      <c r="P86" s="255"/>
     </row>
     <row r="87" spans="1:17" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="81" t="s">
+      <c r="B87" s="77" t="s">
         <v>37</v>
       </c>
-      <c r="C87" s="81"/>
-      <c r="D87" s="81"/>
-      <c r="E87" s="81"/>
-      <c r="F87" s="81"/>
-      <c r="G87" s="81"/>
-      <c r="H87" s="60" t="s">
+      <c r="C87" s="77"/>
+      <c r="D87" s="77"/>
+      <c r="E87" s="77"/>
+      <c r="F87" s="77"/>
+      <c r="G87" s="77"/>
+      <c r="H87" s="250" t="s">
         <v>127</v>
       </c>
-      <c r="I87" s="60"/>
-      <c r="J87" s="60"/>
-      <c r="K87" s="60"/>
-      <c r="L87" s="60"/>
-      <c r="M87" s="60"/>
-      <c r="N87" s="60"/>
-      <c r="O87" s="60"/>
-      <c r="P87" s="60"/>
+      <c r="I87" s="251"/>
+      <c r="J87" s="251"/>
+      <c r="K87" s="251"/>
+      <c r="L87" s="251"/>
+      <c r="M87" s="251"/>
+      <c r="N87" s="251"/>
+      <c r="O87" s="251"/>
+      <c r="P87" s="252"/>
     </row>
     <row r="88" spans="1:17" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B88" s="81"/>
-      <c r="C88" s="81"/>
-      <c r="D88" s="81"/>
-      <c r="E88" s="81"/>
-      <c r="F88" s="81"/>
-      <c r="G88" s="81"/>
-      <c r="H88" s="60"/>
-      <c r="I88" s="60"/>
-      <c r="J88" s="60"/>
-      <c r="K88" s="60"/>
-      <c r="L88" s="60"/>
-      <c r="M88" s="60"/>
-      <c r="N88" s="60"/>
-      <c r="O88" s="60"/>
-      <c r="P88" s="60"/>
+      <c r="B88" s="77"/>
+      <c r="C88" s="77"/>
+      <c r="D88" s="77"/>
+      <c r="E88" s="77"/>
+      <c r="F88" s="77"/>
+      <c r="G88" s="77"/>
+      <c r="H88" s="253"/>
+      <c r="I88" s="254"/>
+      <c r="J88" s="254"/>
+      <c r="K88" s="254"/>
+      <c r="L88" s="254"/>
+      <c r="M88" s="254"/>
+      <c r="N88" s="254"/>
+      <c r="O88" s="254"/>
+      <c r="P88" s="255"/>
     </row>
     <row r="89" spans="1:17" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="81" t="s">
+      <c r="B89" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="C89" s="81"/>
-      <c r="D89" s="81"/>
-      <c r="E89" s="81"/>
-      <c r="F89" s="81"/>
-      <c r="G89" s="81"/>
-      <c r="H89" s="65"/>
-      <c r="I89" s="65"/>
-      <c r="J89" s="65"/>
-      <c r="K89" s="65"/>
-      <c r="L89" s="65"/>
-      <c r="M89" s="65"/>
-      <c r="N89" s="65"/>
-      <c r="O89" s="65"/>
-      <c r="P89" s="65"/>
+      <c r="C89" s="77"/>
+      <c r="D89" s="77"/>
+      <c r="E89" s="77"/>
+      <c r="F89" s="77"/>
+      <c r="G89" s="77"/>
+      <c r="H89" s="238"/>
+      <c r="I89" s="239"/>
+      <c r="J89" s="239"/>
+      <c r="K89" s="239"/>
+      <c r="L89" s="239"/>
+      <c r="M89" s="239"/>
+      <c r="N89" s="239"/>
+      <c r="O89" s="239"/>
+      <c r="P89" s="240"/>
     </row>
     <row r="90" spans="1:17" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="81"/>
-      <c r="C90" s="81"/>
-      <c r="D90" s="81"/>
-      <c r="E90" s="81"/>
-      <c r="F90" s="81"/>
-      <c r="G90" s="81"/>
-      <c r="H90" s="65"/>
-      <c r="I90" s="65"/>
-      <c r="J90" s="65"/>
-      <c r="K90" s="65"/>
-      <c r="L90" s="65"/>
-      <c r="M90" s="65"/>
-      <c r="N90" s="65"/>
-      <c r="O90" s="65"/>
-      <c r="P90" s="65"/>
+      <c r="B90" s="77"/>
+      <c r="C90" s="77"/>
+      <c r="D90" s="77"/>
+      <c r="E90" s="77"/>
+      <c r="F90" s="77"/>
+      <c r="G90" s="77"/>
+      <c r="H90" s="241"/>
+      <c r="I90" s="242"/>
+      <c r="J90" s="242"/>
+      <c r="K90" s="242"/>
+      <c r="L90" s="242"/>
+      <c r="M90" s="242"/>
+      <c r="N90" s="242"/>
+      <c r="O90" s="242"/>
+      <c r="P90" s="243"/>
     </row>
     <row r="91" spans="1:17" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B91" s="72" t="s">
+      <c r="B91" s="70" t="s">
         <v>38</v>
       </c>
-      <c r="C91" s="72"/>
-      <c r="D91" s="72"/>
-      <c r="E91" s="72"/>
-      <c r="F91" s="72"/>
-      <c r="G91" s="72"/>
-      <c r="H91" s="70" t="s">
+      <c r="C91" s="70"/>
+      <c r="D91" s="70"/>
+      <c r="E91" s="70"/>
+      <c r="F91" s="70"/>
+      <c r="G91" s="70"/>
+      <c r="H91" s="244" t="s">
         <v>128</v>
       </c>
-      <c r="I91" s="70"/>
-      <c r="J91" s="70"/>
-      <c r="K91" s="70"/>
-      <c r="L91" s="70"/>
-      <c r="M91" s="70"/>
-      <c r="N91" s="70"/>
-      <c r="O91" s="70"/>
-      <c r="P91" s="70"/>
+      <c r="I91" s="245"/>
+      <c r="J91" s="245"/>
+      <c r="K91" s="245"/>
+      <c r="L91" s="245"/>
+      <c r="M91" s="245"/>
+      <c r="N91" s="245"/>
+      <c r="O91" s="245"/>
+      <c r="P91" s="246"/>
     </row>
     <row r="92" spans="1:17" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B92" s="72"/>
-      <c r="C92" s="72"/>
-      <c r="D92" s="72"/>
-      <c r="E92" s="72"/>
-      <c r="F92" s="72"/>
-      <c r="G92" s="72"/>
-      <c r="H92" s="70"/>
-      <c r="I92" s="70"/>
-      <c r="J92" s="70"/>
-      <c r="K92" s="70"/>
-      <c r="L92" s="70"/>
-      <c r="M92" s="70"/>
-      <c r="N92" s="70"/>
-      <c r="O92" s="70"/>
-      <c r="P92" s="70"/>
+      <c r="B92" s="70"/>
+      <c r="C92" s="70"/>
+      <c r="D92" s="70"/>
+      <c r="E92" s="70"/>
+      <c r="F92" s="70"/>
+      <c r="G92" s="70"/>
+      <c r="H92" s="247"/>
+      <c r="I92" s="248"/>
+      <c r="J92" s="248"/>
+      <c r="K92" s="248"/>
+      <c r="L92" s="248"/>
+      <c r="M92" s="248"/>
+      <c r="N92" s="248"/>
+      <c r="O92" s="248"/>
+      <c r="P92" s="249"/>
     </row>
     <row r="93" spans="1:17" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B93" s="72" t="s">
+      <c r="B93" s="70" t="s">
         <v>129</v>
       </c>
-      <c r="C93" s="72"/>
-      <c r="D93" s="72"/>
-      <c r="E93" s="72"/>
-      <c r="F93" s="72"/>
-      <c r="G93" s="72"/>
-      <c r="H93" s="65"/>
-      <c r="I93" s="65"/>
-      <c r="J93" s="65"/>
-      <c r="K93" s="65"/>
-      <c r="L93" s="65"/>
-      <c r="M93" s="65"/>
-      <c r="N93" s="65"/>
-      <c r="O93" s="65"/>
-      <c r="P93" s="65"/>
+      <c r="C93" s="70"/>
+      <c r="D93" s="70"/>
+      <c r="E93" s="70"/>
+      <c r="F93" s="70"/>
+      <c r="G93" s="70"/>
+      <c r="H93" s="238"/>
+      <c r="I93" s="239"/>
+      <c r="J93" s="239"/>
+      <c r="K93" s="239"/>
+      <c r="L93" s="239"/>
+      <c r="M93" s="239"/>
+      <c r="N93" s="239"/>
+      <c r="O93" s="239"/>
+      <c r="P93" s="240"/>
     </row>
     <row r="94" spans="1:17" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B94" s="72"/>
-      <c r="C94" s="72"/>
-      <c r="D94" s="72"/>
-      <c r="E94" s="72"/>
-      <c r="F94" s="72"/>
-      <c r="G94" s="72"/>
-      <c r="H94" s="65"/>
-      <c r="I94" s="65"/>
-      <c r="J94" s="65"/>
-      <c r="K94" s="65"/>
-      <c r="L94" s="65"/>
-      <c r="M94" s="65"/>
-      <c r="N94" s="65"/>
-      <c r="O94" s="65"/>
-      <c r="P94" s="65"/>
+      <c r="B94" s="70"/>
+      <c r="C94" s="70"/>
+      <c r="D94" s="70"/>
+      <c r="E94" s="70"/>
+      <c r="F94" s="70"/>
+      <c r="G94" s="70"/>
+      <c r="H94" s="241"/>
+      <c r="I94" s="242"/>
+      <c r="J94" s="242"/>
+      <c r="K94" s="242"/>
+      <c r="L94" s="242"/>
+      <c r="M94" s="242"/>
+      <c r="N94" s="242"/>
+      <c r="O94" s="242"/>
+      <c r="P94" s="243"/>
     </row>
     <row r="98" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="99" spans="1:16" ht="22.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="84" t="s">
+      <c r="B99" s="79" t="s">
         <v>148</v>
       </c>
-      <c r="C99" s="85"/>
-      <c r="D99" s="85"/>
-      <c r="E99" s="85"/>
-      <c r="F99" s="85"/>
-      <c r="G99" s="86"/>
-      <c r="H99" s="90" t="s">
+      <c r="C99" s="80"/>
+      <c r="D99" s="80"/>
+      <c r="E99" s="80"/>
+      <c r="F99" s="80"/>
+      <c r="G99" s="81"/>
+      <c r="H99" s="85" t="s">
         <v>149</v>
       </c>
-      <c r="I99" s="91"/>
-      <c r="J99" s="94" t="s">
+      <c r="I99" s="86"/>
+      <c r="J99" s="89" t="s">
         <v>150</v>
       </c>
-      <c r="K99" s="95"/>
-      <c r="L99" s="96"/>
-      <c r="M99" s="94" t="s">
+      <c r="K99" s="90"/>
+      <c r="L99" s="91"/>
+      <c r="M99" s="89" t="s">
         <v>151</v>
       </c>
-      <c r="N99" s="95"/>
-      <c r="O99" s="96"/>
+      <c r="N99" s="90"/>
+      <c r="O99" s="91"/>
       <c r="P99" s="27"/>
     </row>
     <row r="100" spans="1:16" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B100" s="87"/>
-      <c r="C100" s="88"/>
-      <c r="D100" s="88"/>
-      <c r="E100" s="88"/>
-      <c r="F100" s="88"/>
-      <c r="G100" s="89"/>
-      <c r="H100" s="92"/>
-      <c r="I100" s="93"/>
-      <c r="J100" s="97"/>
-      <c r="K100" s="98"/>
-      <c r="L100" s="99"/>
-      <c r="M100" s="97"/>
-      <c r="N100" s="98"/>
-      <c r="O100" s="99"/>
+      <c r="B100" s="82"/>
+      <c r="C100" s="83"/>
+      <c r="D100" s="83"/>
+      <c r="E100" s="83"/>
+      <c r="F100" s="83"/>
+      <c r="G100" s="84"/>
+      <c r="H100" s="87"/>
+      <c r="I100" s="88"/>
+      <c r="J100" s="92"/>
+      <c r="K100" s="93"/>
+      <c r="L100" s="94"/>
+      <c r="M100" s="92"/>
+      <c r="N100" s="93"/>
+      <c r="O100" s="94"/>
       <c r="P100" s="3"/>
     </row>
     <row r="101" spans="1:16" ht="22.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="100" t="s">
+      <c r="B101" s="95" t="s">
         <v>152</v>
       </c>
-      <c r="C101" s="100"/>
-      <c r="D101" s="100"/>
-      <c r="E101" s="100"/>
-      <c r="F101" s="100"/>
-      <c r="G101" s="100"/>
-      <c r="H101" s="102"/>
-      <c r="I101" s="103"/>
-      <c r="J101" s="100"/>
-      <c r="K101" s="100"/>
-      <c r="L101" s="100"/>
-      <c r="M101" s="100"/>
-      <c r="N101" s="100"/>
-      <c r="O101" s="100"/>
+      <c r="C101" s="95"/>
+      <c r="D101" s="95"/>
+      <c r="E101" s="95"/>
+      <c r="F101" s="95"/>
+      <c r="G101" s="95"/>
+      <c r="H101" s="97"/>
+      <c r="I101" s="98"/>
+      <c r="J101" s="95"/>
+      <c r="K101" s="95"/>
+      <c r="L101" s="95"/>
+      <c r="M101" s="95"/>
+      <c r="N101" s="95"/>
+      <c r="O101" s="95"/>
       <c r="P101" s="3"/>
     </row>
     <row r="102" spans="1:16" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B102" s="101"/>
-      <c r="C102" s="101"/>
-      <c r="D102" s="101"/>
-      <c r="E102" s="101"/>
-      <c r="F102" s="101"/>
-      <c r="G102" s="101"/>
-      <c r="H102" s="104"/>
-      <c r="I102" s="105"/>
-      <c r="J102" s="101"/>
-      <c r="K102" s="101"/>
-      <c r="L102" s="101"/>
-      <c r="M102" s="101"/>
-      <c r="N102" s="101"/>
-      <c r="O102" s="101"/>
+      <c r="B102" s="96"/>
+      <c r="C102" s="96"/>
+      <c r="D102" s="96"/>
+      <c r="E102" s="96"/>
+      <c r="F102" s="96"/>
+      <c r="G102" s="96"/>
+      <c r="H102" s="99"/>
+      <c r="I102" s="100"/>
+      <c r="J102" s="96"/>
+      <c r="K102" s="96"/>
+      <c r="L102" s="96"/>
+      <c r="M102" s="96"/>
+      <c r="N102" s="96"/>
+      <c r="O102" s="96"/>
       <c r="P102" s="3"/>
     </row>
     <row r="103" spans="1:16" ht="22.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="100" t="s">
+      <c r="B103" s="95" t="s">
         <v>153</v>
       </c>
-      <c r="C103" s="100"/>
-      <c r="D103" s="100"/>
-      <c r="E103" s="100"/>
-      <c r="F103" s="100"/>
-      <c r="G103" s="100"/>
-      <c r="H103" s="102"/>
-      <c r="I103" s="103"/>
-      <c r="J103" s="100"/>
-      <c r="K103" s="100"/>
-      <c r="L103" s="100"/>
-      <c r="M103" s="100"/>
-      <c r="N103" s="100"/>
-      <c r="O103" s="100"/>
+      <c r="C103" s="95"/>
+      <c r="D103" s="95"/>
+      <c r="E103" s="95"/>
+      <c r="F103" s="95"/>
+      <c r="G103" s="95"/>
+      <c r="H103" s="97"/>
+      <c r="I103" s="98"/>
+      <c r="J103" s="95"/>
+      <c r="K103" s="95"/>
+      <c r="L103" s="95"/>
+      <c r="M103" s="95"/>
+      <c r="N103" s="95"/>
+      <c r="O103" s="95"/>
       <c r="P103" s="3"/>
     </row>
     <row r="104" spans="1:16" customFormat="1" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="7"/>
-      <c r="B104" s="101"/>
-      <c r="C104" s="101"/>
-      <c r="D104" s="101"/>
-      <c r="E104" s="101"/>
-      <c r="F104" s="101"/>
-      <c r="G104" s="101"/>
-      <c r="H104" s="104"/>
-      <c r="I104" s="105"/>
-      <c r="J104" s="101"/>
-      <c r="K104" s="101"/>
-      <c r="L104" s="101"/>
-      <c r="M104" s="101"/>
-      <c r="N104" s="101"/>
-      <c r="O104" s="101"/>
+      <c r="B104" s="96"/>
+      <c r="C104" s="96"/>
+      <c r="D104" s="96"/>
+      <c r="E104" s="96"/>
+      <c r="F104" s="96"/>
+      <c r="G104" s="96"/>
+      <c r="H104" s="99"/>
+      <c r="I104" s="100"/>
+      <c r="J104" s="96"/>
+      <c r="K104" s="96"/>
+      <c r="L104" s="96"/>
+      <c r="M104" s="96"/>
+      <c r="N104" s="96"/>
+      <c r="O104" s="96"/>
       <c r="P104" s="6"/>
     </row>
     <row r="105" spans="1:16" customFormat="1" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -4373,12 +4535,12 @@
     </row>
     <row r="106" spans="1:16" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="7"/>
-      <c r="B106" s="108"/>
-      <c r="C106" s="109"/>
-      <c r="D106" s="110"/>
-      <c r="E106" s="111"/>
-      <c r="F106" s="111"/>
-      <c r="G106" s="111"/>
+      <c r="B106" s="103"/>
+      <c r="C106" s="104"/>
+      <c r="D106" s="105"/>
+      <c r="E106" s="106"/>
+      <c r="F106" s="106"/>
+      <c r="G106" s="106"/>
       <c r="H106" s="29"/>
       <c r="I106" s="29"/>
       <c r="J106" s="23"/>
@@ -4391,181 +4553,181 @@
     </row>
     <row r="107" spans="1:16" customFormat="1" ht="22.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A107" s="7"/>
-      <c r="B107" s="84" t="s">
+      <c r="B107" s="79" t="s">
         <v>154</v>
       </c>
-      <c r="C107" s="85"/>
-      <c r="D107" s="85"/>
-      <c r="E107" s="85"/>
-      <c r="F107" s="85"/>
-      <c r="G107" s="86"/>
-      <c r="H107" s="90" t="s">
+      <c r="C107" s="80"/>
+      <c r="D107" s="80"/>
+      <c r="E107" s="80"/>
+      <c r="F107" s="80"/>
+      <c r="G107" s="81"/>
+      <c r="H107" s="85" t="s">
         <v>149</v>
       </c>
-      <c r="I107" s="91"/>
-      <c r="J107" s="94" t="s">
+      <c r="I107" s="86"/>
+      <c r="J107" s="89" t="s">
         <v>155</v>
       </c>
-      <c r="K107" s="95"/>
-      <c r="L107" s="96"/>
-      <c r="M107" s="90" t="s">
+      <c r="K107" s="90"/>
+      <c r="L107" s="91"/>
+      <c r="M107" s="85" t="s">
         <v>156</v>
       </c>
-      <c r="N107" s="106"/>
-      <c r="O107" s="91"/>
+      <c r="N107" s="101"/>
+      <c r="O107" s="86"/>
       <c r="P107" s="6"/>
     </row>
     <row r="108" spans="1:16" customFormat="1" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="7"/>
-      <c r="B108" s="87"/>
-      <c r="C108" s="88"/>
-      <c r="D108" s="88"/>
-      <c r="E108" s="88"/>
-      <c r="F108" s="88"/>
-      <c r="G108" s="89"/>
-      <c r="H108" s="92"/>
-      <c r="I108" s="93"/>
-      <c r="J108" s="97"/>
-      <c r="K108" s="98"/>
-      <c r="L108" s="99"/>
-      <c r="M108" s="92"/>
-      <c r="N108" s="107"/>
-      <c r="O108" s="93"/>
+      <c r="B108" s="82"/>
+      <c r="C108" s="83"/>
+      <c r="D108" s="83"/>
+      <c r="E108" s="83"/>
+      <c r="F108" s="83"/>
+      <c r="G108" s="84"/>
+      <c r="H108" s="87"/>
+      <c r="I108" s="88"/>
+      <c r="J108" s="92"/>
+      <c r="K108" s="93"/>
+      <c r="L108" s="94"/>
+      <c r="M108" s="87"/>
+      <c r="N108" s="102"/>
+      <c r="O108" s="88"/>
       <c r="P108" s="6"/>
     </row>
     <row r="109" spans="1:16" customFormat="1" ht="22.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A109" s="7"/>
-      <c r="B109" s="100" t="s">
+      <c r="B109" s="95" t="s">
         <v>157</v>
       </c>
-      <c r="C109" s="100"/>
-      <c r="D109" s="100"/>
-      <c r="E109" s="100"/>
-      <c r="F109" s="100"/>
-      <c r="G109" s="100"/>
-      <c r="H109" s="102"/>
-      <c r="I109" s="103"/>
-      <c r="J109" s="100"/>
-      <c r="K109" s="100"/>
-      <c r="L109" s="100"/>
-      <c r="M109" s="100"/>
-      <c r="N109" s="100"/>
-      <c r="O109" s="100"/>
+      <c r="C109" s="95"/>
+      <c r="D109" s="95"/>
+      <c r="E109" s="95"/>
+      <c r="F109" s="95"/>
+      <c r="G109" s="95"/>
+      <c r="H109" s="97"/>
+      <c r="I109" s="98"/>
+      <c r="J109" s="95"/>
+      <c r="K109" s="95"/>
+      <c r="L109" s="95"/>
+      <c r="M109" s="95"/>
+      <c r="N109" s="95"/>
+      <c r="O109" s="95"/>
       <c r="P109" s="6"/>
     </row>
     <row r="110" spans="1:16" customFormat="1" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="7"/>
-      <c r="B110" s="101"/>
-      <c r="C110" s="101"/>
-      <c r="D110" s="101"/>
-      <c r="E110" s="101"/>
-      <c r="F110" s="101"/>
-      <c r="G110" s="101"/>
-      <c r="H110" s="104"/>
-      <c r="I110" s="105"/>
-      <c r="J110" s="101"/>
-      <c r="K110" s="101"/>
-      <c r="L110" s="101"/>
-      <c r="M110" s="101"/>
-      <c r="N110" s="101"/>
-      <c r="O110" s="101"/>
+      <c r="B110" s="96"/>
+      <c r="C110" s="96"/>
+      <c r="D110" s="96"/>
+      <c r="E110" s="96"/>
+      <c r="F110" s="96"/>
+      <c r="G110" s="96"/>
+      <c r="H110" s="99"/>
+      <c r="I110" s="100"/>
+      <c r="J110" s="96"/>
+      <c r="K110" s="96"/>
+      <c r="L110" s="96"/>
+      <c r="M110" s="96"/>
+      <c r="N110" s="96"/>
+      <c r="O110" s="96"/>
       <c r="P110" s="6"/>
     </row>
     <row r="111" spans="1:16" customFormat="1" ht="22.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A111" s="7"/>
-      <c r="B111" s="100" t="s">
+      <c r="B111" s="95" t="s">
         <v>158</v>
       </c>
-      <c r="C111" s="100"/>
-      <c r="D111" s="100"/>
-      <c r="E111" s="100"/>
-      <c r="F111" s="100"/>
-      <c r="G111" s="100"/>
-      <c r="H111" s="102"/>
-      <c r="I111" s="103"/>
-      <c r="J111" s="100"/>
-      <c r="K111" s="100"/>
-      <c r="L111" s="100"/>
-      <c r="M111" s="100"/>
-      <c r="N111" s="100"/>
-      <c r="O111" s="100"/>
+      <c r="C111" s="95"/>
+      <c r="D111" s="95"/>
+      <c r="E111" s="95"/>
+      <c r="F111" s="95"/>
+      <c r="G111" s="95"/>
+      <c r="H111" s="97"/>
+      <c r="I111" s="98"/>
+      <c r="J111" s="95"/>
+      <c r="K111" s="95"/>
+      <c r="L111" s="95"/>
+      <c r="M111" s="95"/>
+      <c r="N111" s="95"/>
+      <c r="O111" s="95"/>
       <c r="P111" s="6"/>
     </row>
     <row r="112" spans="1:16" customFormat="1" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="7"/>
-      <c r="B112" s="101"/>
-      <c r="C112" s="101"/>
-      <c r="D112" s="101"/>
-      <c r="E112" s="101"/>
-      <c r="F112" s="101"/>
-      <c r="G112" s="101"/>
-      <c r="H112" s="104"/>
-      <c r="I112" s="105"/>
-      <c r="J112" s="101"/>
-      <c r="K112" s="101"/>
-      <c r="L112" s="101"/>
-      <c r="M112" s="101"/>
-      <c r="N112" s="101"/>
-      <c r="O112" s="101"/>
+      <c r="B112" s="96"/>
+      <c r="C112" s="96"/>
+      <c r="D112" s="96"/>
+      <c r="E112" s="96"/>
+      <c r="F112" s="96"/>
+      <c r="G112" s="96"/>
+      <c r="H112" s="99"/>
+      <c r="I112" s="100"/>
+      <c r="J112" s="96"/>
+      <c r="K112" s="96"/>
+      <c r="L112" s="96"/>
+      <c r="M112" s="96"/>
+      <c r="N112" s="96"/>
+      <c r="O112" s="96"/>
       <c r="P112" s="6"/>
     </row>
     <row r="113" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="117" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="118" spans="1:16" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="7"/>
-      <c r="B118" s="73" t="s">
+      <c r="B118" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="C118" s="73"/>
-      <c r="D118" s="74"/>
-      <c r="E118" s="74"/>
-      <c r="F118" s="74"/>
-      <c r="G118" s="74"/>
-      <c r="H118" s="74"/>
-      <c r="I118" s="74"/>
-      <c r="J118" s="74"/>
-      <c r="K118" s="75"/>
-      <c r="L118" s="75"/>
-      <c r="M118" s="75"/>
-      <c r="N118" s="75"/>
-      <c r="O118" s="75"/>
-      <c r="P118" s="75"/>
+      <c r="C118" s="71"/>
+      <c r="D118" s="72"/>
+      <c r="E118" s="72"/>
+      <c r="F118" s="72"/>
+      <c r="G118" s="72"/>
+      <c r="H118" s="72"/>
+      <c r="I118" s="72"/>
+      <c r="J118" s="72"/>
+      <c r="K118" s="235"/>
+      <c r="L118" s="236"/>
+      <c r="M118" s="236"/>
+      <c r="N118" s="236"/>
+      <c r="O118" s="236"/>
+      <c r="P118" s="237"/>
     </row>
     <row r="119" spans="1:16" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="7"/>
-      <c r="B119" s="73"/>
-      <c r="C119" s="73"/>
-      <c r="D119" s="74"/>
-      <c r="E119" s="74"/>
-      <c r="F119" s="74"/>
-      <c r="G119" s="74"/>
-      <c r="H119" s="74"/>
-      <c r="I119" s="74"/>
-      <c r="J119" s="74"/>
-      <c r="K119" s="75"/>
-      <c r="L119" s="75"/>
-      <c r="M119" s="75"/>
-      <c r="N119" s="75"/>
-      <c r="O119" s="75"/>
-      <c r="P119" s="75"/>
+      <c r="B119" s="71"/>
+      <c r="C119" s="71"/>
+      <c r="D119" s="72"/>
+      <c r="E119" s="72"/>
+      <c r="F119" s="72"/>
+      <c r="G119" s="72"/>
+      <c r="H119" s="72"/>
+      <c r="I119" s="72"/>
+      <c r="J119" s="72"/>
+      <c r="K119" s="235"/>
+      <c r="L119" s="236"/>
+      <c r="M119" s="236"/>
+      <c r="N119" s="236"/>
+      <c r="O119" s="236"/>
+      <c r="P119" s="237"/>
     </row>
     <row r="120" spans="1:16" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="7"/>
-      <c r="B120" s="78"/>
-      <c r="C120" s="78"/>
-      <c r="D120" s="78"/>
-      <c r="E120" s="78"/>
-      <c r="F120" s="78"/>
-      <c r="G120" s="78"/>
-      <c r="H120" s="78"/>
-      <c r="I120" s="78"/>
-      <c r="J120" s="78"/>
-      <c r="K120" s="75"/>
-      <c r="L120" s="75"/>
-      <c r="M120" s="75"/>
-      <c r="N120" s="75"/>
-      <c r="O120" s="75"/>
-      <c r="P120" s="75"/>
+      <c r="B120" s="74"/>
+      <c r="C120" s="74"/>
+      <c r="D120" s="74"/>
+      <c r="E120" s="74"/>
+      <c r="F120" s="74"/>
+      <c r="G120" s="74"/>
+      <c r="H120" s="74"/>
+      <c r="I120" s="74"/>
+      <c r="J120" s="74"/>
+      <c r="K120" s="235"/>
+      <c r="L120" s="236"/>
+      <c r="M120" s="236"/>
+      <c r="N120" s="236"/>
+      <c r="O120" s="236"/>
+      <c r="P120" s="237"/>
     </row>
     <row r="121" spans="1:16" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="7"/>
@@ -4599,22 +4761,22 @@
       <c r="K122" s="30" t="s">
         <v>146</v>
       </c>
-      <c r="L122" s="79"/>
-      <c r="M122" s="79"/>
-      <c r="N122" s="79"/>
+      <c r="L122" s="75"/>
+      <c r="M122" s="75"/>
+      <c r="N122" s="75"/>
       <c r="O122" s="28"/>
       <c r="P122" s="6"/>
     </row>
     <row r="123" spans="1:16" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="7"/>
-      <c r="B123" s="80" t="s">
+      <c r="B123" s="76" t="s">
         <v>44</v>
       </c>
-      <c r="C123" s="80"/>
-      <c r="D123" s="80"/>
-      <c r="E123" s="80"/>
-      <c r="F123" s="80"/>
-      <c r="G123" s="80"/>
+      <c r="C123" s="76"/>
+      <c r="D123" s="76"/>
+      <c r="E123" s="76"/>
+      <c r="F123" s="76"/>
+      <c r="G123" s="76"/>
       <c r="H123" s="23"/>
       <c r="I123" s="23"/>
       <c r="J123" s="23"/>
@@ -4870,42 +5032,43 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28385E2D-6593-47B0-A4DF-B7D11295FCDA}">
-  <dimension ref="A1:Q43"/>
+  <dimension ref="A1:Q44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="W15" sqref="W15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
     <col min="4" max="4" width="21.7109375" customWidth="1"/>
     <col min="5" max="5" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="44" t="s">
         <v>121</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43" t="s">
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43" t="str">
+      <c r="M1" s="45"/>
+      <c r="N1" s="45" t="str">
         <f>IF(D6="","",D6)</f>
         <v/>
       </c>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
       <c r="Q1" s="1"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -4929,101 +5092,101 @@
     </row>
     <row r="3" spans="1:17" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="54"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="56"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="52" t="s">
+      <c r="I3" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="53"/>
-      <c r="N3" s="53"/>
-      <c r="O3" s="53"/>
-      <c r="P3" s="54"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="55"/>
+      <c r="N3" s="55"/>
+      <c r="O3" s="55"/>
+      <c r="P3" s="56"/>
       <c r="Q3" s="1"/>
     </row>
     <row r="4" spans="1:17" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="45"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="45"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="47"/>
       <c r="H4" s="1"/>
-      <c r="I4" s="47" t="s">
+      <c r="I4" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="49" t="str">
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="51" t="str">
         <f>REPT($I$1,1)</f>
         <v/>
       </c>
-      <c r="N4" s="50"/>
-      <c r="O4" s="50"/>
-      <c r="P4" s="51"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
+      <c r="P4" s="53"/>
       <c r="Q4" s="1"/>
     </row>
     <row r="5" spans="1:17" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="45"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="45"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="47"/>
       <c r="H5" s="1"/>
-      <c r="I5" s="47" t="s">
+      <c r="I5" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="49" t="s">
+      <c r="J5" s="50"/>
+      <c r="K5" s="50"/>
+      <c r="L5" s="50"/>
+      <c r="M5" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="N5" s="50"/>
-      <c r="O5" s="50"/>
-      <c r="P5" s="51"/>
+      <c r="N5" s="52"/>
+      <c r="O5" s="52"/>
+      <c r="P5" s="53"/>
       <c r="Q5" s="1"/>
     </row>
     <row r="6" spans="1:17" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="46" t="s">
         <v>123</v>
       </c>
-      <c r="C6" s="45"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="45"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="47"/>
       <c r="H6" s="1"/>
-      <c r="I6" s="47" t="s">
+      <c r="I6" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="48"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="49" t="s">
+      <c r="J6" s="50"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="50"/>
+      <c r="M6" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="N6" s="50"/>
-      <c r="O6" s="50"/>
-      <c r="P6" s="51"/>
+      <c r="N6" s="52"/>
+      <c r="O6" s="52"/>
+      <c r="P6" s="53"/>
       <c r="Q6" s="1"/>
     </row>
     <row r="7" spans="1:17" ht="18.75" x14ac:dyDescent="0.25">
@@ -5035,16 +5198,16 @@
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="47" t="s">
+      <c r="I7" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="J7" s="48"/>
-      <c r="K7" s="48"/>
-      <c r="L7" s="48"/>
-      <c r="M7" s="49"/>
-      <c r="N7" s="50"/>
-      <c r="O7" s="50"/>
-      <c r="P7" s="51"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="50"/>
+      <c r="M7" s="51"/>
+      <c r="N7" s="52"/>
+      <c r="O7" s="52"/>
+      <c r="P7" s="53"/>
       <c r="Q7" s="1"/>
     </row>
     <row r="8" spans="1:17" ht="18.75" x14ac:dyDescent="0.25">
@@ -5056,16 +5219,16 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="47" t="s">
+      <c r="I8" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="J8" s="48"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="48"/>
-      <c r="M8" s="49"/>
-      <c r="N8" s="50"/>
-      <c r="O8" s="50"/>
-      <c r="P8" s="51"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="50"/>
+      <c r="M8" s="51"/>
+      <c r="N8" s="52"/>
+      <c r="O8" s="52"/>
+      <c r="P8" s="53"/>
       <c r="Q8" s="1"/>
     </row>
     <row r="9" spans="1:17" ht="18.75" x14ac:dyDescent="0.25">
@@ -5077,18 +5240,18 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="47" t="s">
+      <c r="I9" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="J9" s="48"/>
-      <c r="K9" s="48"/>
-      <c r="L9" s="48"/>
-      <c r="M9" s="49" t="s">
+      <c r="J9" s="50"/>
+      <c r="K9" s="50"/>
+      <c r="L9" s="50"/>
+      <c r="M9" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="N9" s="50"/>
-      <c r="O9" s="50"/>
-      <c r="P9" s="51"/>
+      <c r="N9" s="52"/>
+      <c r="O9" s="52"/>
+      <c r="P9" s="53"/>
       <c r="Q9" s="1"/>
     </row>
     <row r="10" spans="1:17" ht="18.75" x14ac:dyDescent="0.25">
@@ -5100,16 +5263,16 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
-      <c r="I10" s="47" t="s">
+      <c r="I10" s="49" t="s">
         <v>124</v>
       </c>
-      <c r="J10" s="48"/>
-      <c r="K10" s="48"/>
-      <c r="L10" s="48"/>
-      <c r="M10" s="49"/>
-      <c r="N10" s="50"/>
-      <c r="O10" s="50"/>
-      <c r="P10" s="51"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="50"/>
+      <c r="L10" s="50"/>
+      <c r="M10" s="51"/>
+      <c r="N10" s="52"/>
+      <c r="O10" s="52"/>
+      <c r="P10" s="53"/>
       <c r="Q10" s="1"/>
     </row>
     <row r="11" spans="1:17" ht="18.75" x14ac:dyDescent="0.25">
@@ -5121,16 +5284,16 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
-      <c r="I11" s="47" t="s">
+      <c r="I11" s="49" t="s">
         <v>125</v>
       </c>
-      <c r="J11" s="48"/>
-      <c r="K11" s="48"/>
-      <c r="L11" s="48"/>
-      <c r="M11" s="49"/>
-      <c r="N11" s="50"/>
-      <c r="O11" s="50"/>
-      <c r="P11" s="51"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="50"/>
+      <c r="L11" s="50"/>
+      <c r="M11" s="51"/>
+      <c r="N11" s="52"/>
+      <c r="O11" s="52"/>
+      <c r="P11" s="53"/>
       <c r="Q11" s="1"/>
     </row>
     <row r="12" spans="1:17" ht="18.75" x14ac:dyDescent="0.25">
@@ -5142,18 +5305,18 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="47" t="s">
+      <c r="I12" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="J12" s="48"/>
-      <c r="K12" s="48"/>
-      <c r="L12" s="48"/>
-      <c r="M12" s="49" t="s">
+      <c r="J12" s="50"/>
+      <c r="K12" s="50"/>
+      <c r="L12" s="50"/>
+      <c r="M12" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="N12" s="50"/>
-      <c r="O12" s="50"/>
-      <c r="P12" s="51"/>
+      <c r="N12" s="52"/>
+      <c r="O12" s="52"/>
+      <c r="P12" s="53"/>
       <c r="Q12" s="1"/>
     </row>
     <row r="13" spans="1:17" ht="18.75" x14ac:dyDescent="0.25">
@@ -5165,16 +5328,16 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="47" t="s">
+      <c r="I13" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="J13" s="48"/>
-      <c r="K13" s="48"/>
-      <c r="L13" s="48"/>
-      <c r="M13" s="49"/>
-      <c r="N13" s="50"/>
-      <c r="O13" s="50"/>
-      <c r="P13" s="51"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="50"/>
+      <c r="L13" s="50"/>
+      <c r="M13" s="51"/>
+      <c r="N13" s="52"/>
+      <c r="O13" s="52"/>
+      <c r="P13" s="53"/>
       <c r="Q13" s="1"/>
     </row>
     <row r="14" spans="1:17" ht="18.75" x14ac:dyDescent="0.25">
@@ -5186,18 +5349,18 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="47" t="s">
+      <c r="I14" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="J14" s="48"/>
-      <c r="K14" s="48"/>
-      <c r="L14" s="48"/>
-      <c r="M14" s="49" t="s">
+      <c r="J14" s="50"/>
+      <c r="K14" s="50"/>
+      <c r="L14" s="50"/>
+      <c r="M14" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="N14" s="50"/>
-      <c r="O14" s="50"/>
-      <c r="P14" s="51"/>
+      <c r="N14" s="52"/>
+      <c r="O14" s="52"/>
+      <c r="P14" s="53"/>
       <c r="Q14" s="1"/>
     </row>
     <row r="15" spans="1:17" ht="18.75" x14ac:dyDescent="0.25">
@@ -5209,16 +5372,16 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="47" t="s">
+      <c r="I15" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="J15" s="48"/>
-      <c r="K15" s="48"/>
-      <c r="L15" s="48"/>
-      <c r="M15" s="49"/>
-      <c r="N15" s="50"/>
-      <c r="O15" s="50"/>
-      <c r="P15" s="51"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="50"/>
+      <c r="L15" s="50"/>
+      <c r="M15" s="51"/>
+      <c r="N15" s="52"/>
+      <c r="O15" s="52"/>
+      <c r="P15" s="53"/>
       <c r="Q15" s="1"/>
     </row>
     <row r="16" spans="1:17" ht="18.75" x14ac:dyDescent="0.25">
@@ -5230,250 +5393,270 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="47" t="s">
+      <c r="I16" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="J16" s="48"/>
-      <c r="K16" s="48"/>
-      <c r="L16" s="48"/>
-      <c r="M16" s="49"/>
-      <c r="N16" s="50"/>
-      <c r="O16" s="50"/>
-      <c r="P16" s="51"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="50"/>
+      <c r="L16" s="50"/>
+      <c r="M16" s="51"/>
+      <c r="N16" s="52"/>
+      <c r="O16" s="52"/>
+      <c r="P16" s="53"/>
       <c r="Q16" s="1"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="55" t="s">
+    <row r="17" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="31"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="31"/>
+      <c r="L17" s="31"/>
+      <c r="M17" s="31"/>
+      <c r="N17" s="31"/>
+      <c r="O17" s="31"/>
+      <c r="P17" s="31"/>
+      <c r="Q17" s="31"/>
+    </row>
+    <row r="18" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="107" t="s">
         <v>166</v>
       </c>
-      <c r="B17" s="55"/>
-      <c r="C17" s="55"/>
-      <c r="D17" s="55"/>
-      <c r="E17" s="55"/>
-      <c r="F17" s="55"/>
-      <c r="G17" s="55"/>
-      <c r="H17" s="55"/>
-      <c r="I17" s="55"/>
-      <c r="J17" s="55"/>
-      <c r="K17" s="55"/>
-      <c r="L17" s="55"/>
-      <c r="M17" s="55"/>
-      <c r="N17" s="55"/>
-      <c r="O17" s="55"/>
-      <c r="P17" s="55"/>
-      <c r="Q17" s="55"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="55"/>
-      <c r="B18" s="55"/>
-      <c r="C18" s="55"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="55"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="55"/>
-      <c r="I18" s="55"/>
-      <c r="J18" s="55"/>
-      <c r="K18" s="55"/>
-      <c r="L18" s="55"/>
-      <c r="M18" s="55"/>
-      <c r="N18" s="55"/>
-      <c r="O18" s="55"/>
-      <c r="P18" s="55"/>
-      <c r="Q18" s="55"/>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="55"/>
-      <c r="B19" s="55"/>
-      <c r="C19" s="55"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="55"/>
-      <c r="I19" s="55"/>
-      <c r="J19" s="55"/>
-      <c r="K19" s="55"/>
-      <c r="L19" s="55"/>
-      <c r="M19" s="55"/>
-      <c r="N19" s="55"/>
-      <c r="O19" s="55"/>
-      <c r="P19" s="55"/>
-      <c r="Q19" s="55"/>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B21" s="239" t="s">
+      <c r="B18" s="57"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="57"/>
+      <c r="K18" s="57"/>
+      <c r="L18" s="57"/>
+      <c r="M18" s="57"/>
+      <c r="N18" s="57"/>
+      <c r="O18" s="57"/>
+      <c r="P18" s="57"/>
+      <c r="Q18" s="57"/>
+    </row>
+    <row r="19" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="57"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="57"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="57"/>
+      <c r="K19" s="57"/>
+      <c r="L19" s="57"/>
+      <c r="M19" s="57"/>
+      <c r="N19" s="57"/>
+      <c r="O19" s="57"/>
+      <c r="P19" s="57"/>
+      <c r="Q19" s="57"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="57"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="57"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="57"/>
+      <c r="J20" s="57"/>
+      <c r="K20" s="57"/>
+      <c r="L20" s="57"/>
+      <c r="M20" s="57"/>
+      <c r="N20" s="57"/>
+      <c r="O20" s="57"/>
+      <c r="P20" s="57"/>
+      <c r="Q20" s="57"/>
+    </row>
+    <row r="21" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B22" s="42" t="s">
         <v>162</v>
       </c>
-      <c r="C21" s="239" t="s">
+      <c r="C22" s="42" t="s">
         <v>163</v>
       </c>
-      <c r="D21" s="239" t="s">
+      <c r="D22" s="42" t="s">
         <v>164</v>
       </c>
-      <c r="E21" s="239" t="s">
+      <c r="E22" s="42" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B22" s="239">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B23" s="42">
         <v>1</v>
       </c>
-      <c r="C22" s="240"/>
-      <c r="D22" s="240"/>
-      <c r="E22" s="240"/>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B23" s="239">
+      <c r="C23" s="43"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="43"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B24" s="42">
         <v>2</v>
       </c>
-      <c r="C23" s="240"/>
-      <c r="D23" s="240"/>
-      <c r="E23" s="240"/>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B24" s="239">
+      <c r="C24" s="43"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="43"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B25" s="42">
         <v>3</v>
       </c>
-      <c r="C24" s="240"/>
-      <c r="D24" s="240"/>
-      <c r="E24" s="240"/>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B25" s="239">
+      <c r="C25" s="43"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="43"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B26" s="42">
         <v>4</v>
       </c>
-      <c r="C25" s="240"/>
-      <c r="D25" s="240"/>
-      <c r="E25" s="240"/>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B26" s="239">
+      <c r="C26" s="43"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="43"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B27" s="42">
         <v>5</v>
       </c>
-      <c r="C26" s="240"/>
-      <c r="D26" s="240"/>
-      <c r="E26" s="240"/>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B27" s="239">
+      <c r="C27" s="43"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="43"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B28" s="42">
         <v>6</v>
       </c>
-      <c r="C27" s="240"/>
-      <c r="D27" s="240"/>
-      <c r="E27" s="240"/>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B28" s="239">
+      <c r="C28" s="43"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="43"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B29" s="42">
         <v>7</v>
       </c>
-      <c r="C28" s="240"/>
-      <c r="D28" s="240"/>
-      <c r="E28" s="240"/>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B29" s="239">
+      <c r="C29" s="43"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="43"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B30" s="42">
         <v>8</v>
       </c>
-      <c r="C29" s="240"/>
-      <c r="D29" s="240"/>
-      <c r="E29" s="240"/>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B30" s="239">
+      <c r="C30" s="43"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="43"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B31" s="42">
         <v>9</v>
       </c>
-      <c r="C30" s="240"/>
-      <c r="D30" s="240"/>
-      <c r="E30" s="240"/>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B31" s="239">
+      <c r="C31" s="43"/>
+      <c r="D31" s="43"/>
+      <c r="E31" s="43"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B32" s="42">
         <v>10</v>
       </c>
-      <c r="C31" s="240"/>
-      <c r="D31" s="240"/>
-      <c r="E31" s="240"/>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B32" s="239">
+      <c r="C32" s="43"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="43"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B33" s="42">
         <v>11</v>
       </c>
-      <c r="C32" s="240"/>
-      <c r="D32" s="240"/>
-      <c r="E32" s="240"/>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B33" s="239">
+      <c r="C33" s="43"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="43"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B34" s="42">
         <v>12</v>
       </c>
-      <c r="C33" s="240"/>
-      <c r="D33" s="240"/>
-      <c r="E33" s="240"/>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B34" s="239">
+      <c r="C34" s="43"/>
+      <c r="D34" s="43"/>
+      <c r="E34" s="43"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B35" s="42">
         <v>13</v>
       </c>
-      <c r="C34" s="240"/>
-      <c r="D34" s="240"/>
-      <c r="E34" s="240"/>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B35" s="239">
+      <c r="C35" s="43"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="43"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B36" s="42">
         <v>14</v>
       </c>
-      <c r="C35" s="240"/>
-      <c r="D35" s="240"/>
-      <c r="E35" s="240"/>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B36" s="239">
+      <c r="C36" s="43"/>
+      <c r="D36" s="43"/>
+      <c r="E36" s="43"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B37" s="42">
         <v>15</v>
       </c>
-      <c r="C36" s="240"/>
-      <c r="D36" s="240"/>
-      <c r="E36" s="240"/>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B37" s="239">
+      <c r="C37" s="43"/>
+      <c r="D37" s="43"/>
+      <c r="E37" s="43"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B38" s="42">
         <v>16</v>
       </c>
-      <c r="C37" s="240"/>
-      <c r="D37" s="240"/>
-      <c r="E37" s="240"/>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B38" s="239">
+      <c r="C38" s="43"/>
+      <c r="D38" s="43"/>
+      <c r="E38" s="43"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B39" s="42">
         <v>17</v>
       </c>
-      <c r="C38" s="240"/>
-      <c r="D38" s="240"/>
-      <c r="E38" s="240"/>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B39" s="239">
+      <c r="C39" s="43"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="43"/>
+    </row>
+    <row r="40" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="42">
         <v>18</v>
       </c>
-      <c r="C39" s="240"/>
-      <c r="D39" s="240"/>
-      <c r="E39" s="240"/>
-    </row>
-    <row r="40" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="239">
+      <c r="C40" s="43"/>
+      <c r="D40" s="43"/>
+      <c r="E40" s="43"/>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B41" s="42">
         <v>19</v>
       </c>
-      <c r="C40" s="240"/>
-      <c r="D40" s="240"/>
-      <c r="E40" s="240"/>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B41" s="239">
+      <c r="C41" s="43"/>
+      <c r="D41" s="43"/>
+      <c r="E41" s="43"/>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B42" s="42">
         <v>20</v>
       </c>
-      <c r="C41" s="240"/>
-      <c r="D41" s="240"/>
-      <c r="E41" s="240"/>
+      <c r="C42" s="43"/>
+      <c r="D42" s="43"/>
+      <c r="E42" s="43"/>
     </row>
     <row r="43" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A43" s="7"/>
@@ -5486,18 +5669,36 @@
       <c r="H43" s="23"/>
       <c r="I43" s="23"/>
       <c r="J43" s="23"/>
-      <c r="K43" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="L43" s="79"/>
-      <c r="M43" s="79"/>
-      <c r="N43" s="79"/>
+      <c r="K43" s="30"/>
+      <c r="L43" s="75"/>
+      <c r="M43" s="75"/>
+      <c r="N43" s="75"/>
       <c r="O43" s="28"/>
       <c r="P43" s="6"/>
     </row>
+    <row r="44" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A44" s="7"/>
+      <c r="B44" s="23"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="23"/>
+      <c r="F44" s="23"/>
+      <c r="G44" s="23"/>
+      <c r="H44" s="23"/>
+      <c r="I44" s="23"/>
+      <c r="J44" s="23"/>
+      <c r="K44" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="L44" s="75"/>
+      <c r="M44" s="75"/>
+      <c r="N44" s="75"/>
+      <c r="O44" s="28"/>
+      <c r="P44" s="6"/>
+    </row>
   </sheetData>
-  <mergeCells count="40">
-    <mergeCell ref="A17:Q19"/>
+  <mergeCells count="41">
+    <mergeCell ref="L44:N44"/>
     <mergeCell ref="L43:N43"/>
     <mergeCell ref="I14:L14"/>
     <mergeCell ref="M14:P14"/>
@@ -5505,6 +5706,7 @@
     <mergeCell ref="M15:P15"/>
     <mergeCell ref="I16:L16"/>
     <mergeCell ref="M16:P16"/>
+    <mergeCell ref="A18:Q20"/>
     <mergeCell ref="I11:L11"/>
     <mergeCell ref="M11:P11"/>
     <mergeCell ref="I12:L12"/>
@@ -5546,7 +5748,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{072533D2-A903-4FC2-B9B2-3AA68D317314}">
   <dimension ref="A1:U158"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="75" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A34" zoomScale="75" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
@@ -5565,115 +5767,115 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B1" s="236" t="s">
+      <c r="B1" s="232" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="236"/>
-      <c r="D1" s="236"/>
-      <c r="E1" s="236"/>
-      <c r="F1" s="236"/>
-      <c r="G1" s="236"/>
-      <c r="H1" s="236"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="237" t="s">
+      <c r="C1" s="232"/>
+      <c r="D1" s="232"/>
+      <c r="E1" s="232"/>
+      <c r="F1" s="232"/>
+      <c r="G1" s="232"/>
+      <c r="H1" s="232"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="233" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="237"/>
-      <c r="N1" s="43" t="str">
+      <c r="M1" s="233"/>
+      <c r="N1" s="45" t="str">
         <f>IF(D6="","",D6)</f>
         <v/>
       </c>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
     </row>
     <row r="3" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="113" t="s">
+      <c r="B3" s="109" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="114"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
-      <c r="F3" s="114"/>
-      <c r="G3" s="115"/>
-      <c r="I3" s="113" t="s">
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="110"/>
+      <c r="G3" s="111"/>
+      <c r="I3" s="109" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="114"/>
-      <c r="K3" s="114"/>
-      <c r="L3" s="114"/>
-      <c r="M3" s="114"/>
-      <c r="N3" s="114"/>
-      <c r="O3" s="114"/>
-      <c r="P3" s="115"/>
+      <c r="J3" s="110"/>
+      <c r="K3" s="110"/>
+      <c r="L3" s="110"/>
+      <c r="M3" s="110"/>
+      <c r="N3" s="110"/>
+      <c r="O3" s="110"/>
+      <c r="P3" s="111"/>
     </row>
     <row r="4" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="113" t="s">
+      <c r="B4" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="115"/>
-      <c r="D4" s="113"/>
-      <c r="E4" s="114"/>
-      <c r="F4" s="114"/>
-      <c r="G4" s="115"/>
-      <c r="I4" s="121" t="s">
+      <c r="C4" s="111"/>
+      <c r="D4" s="109"/>
+      <c r="E4" s="110"/>
+      <c r="F4" s="110"/>
+      <c r="G4" s="111"/>
+      <c r="I4" s="117" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="121"/>
-      <c r="K4" s="121"/>
-      <c r="L4" s="121"/>
-      <c r="M4" s="116" t="str">
+      <c r="J4" s="117"/>
+      <c r="K4" s="117"/>
+      <c r="L4" s="117"/>
+      <c r="M4" s="112" t="str">
         <f>REPT($I$1,1)</f>
         <v/>
       </c>
-      <c r="N4" s="117"/>
-      <c r="O4" s="117"/>
-      <c r="P4" s="117"/>
+      <c r="N4" s="113"/>
+      <c r="O4" s="113"/>
+      <c r="P4" s="113"/>
     </row>
     <row r="5" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="113" t="s">
+      <c r="B5" s="109" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="115"/>
-      <c r="D5" s="113"/>
-      <c r="E5" s="114"/>
-      <c r="F5" s="114"/>
-      <c r="G5" s="115"/>
-      <c r="I5" s="121" t="s">
+      <c r="C5" s="111"/>
+      <c r="D5" s="109"/>
+      <c r="E5" s="110"/>
+      <c r="F5" s="110"/>
+      <c r="G5" s="111"/>
+      <c r="I5" s="117" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="121"/>
-      <c r="K5" s="121"/>
-      <c r="L5" s="121"/>
-      <c r="M5" s="116" t="s">
+      <c r="J5" s="117"/>
+      <c r="K5" s="117"/>
+      <c r="L5" s="117"/>
+      <c r="M5" s="112" t="s">
         <v>20</v>
       </c>
-      <c r="N5" s="117"/>
-      <c r="O5" s="117"/>
-      <c r="P5" s="118"/>
+      <c r="N5" s="113"/>
+      <c r="O5" s="113"/>
+      <c r="P5" s="114"/>
     </row>
     <row r="6" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="113" t="s">
+      <c r="B6" s="109" t="s">
         <v>123</v>
       </c>
-      <c r="C6" s="115"/>
-      <c r="D6" s="113"/>
-      <c r="E6" s="114"/>
-      <c r="F6" s="114"/>
-      <c r="G6" s="115"/>
-      <c r="I6" s="121" t="s">
+      <c r="C6" s="111"/>
+      <c r="D6" s="109"/>
+      <c r="E6" s="110"/>
+      <c r="F6" s="110"/>
+      <c r="G6" s="111"/>
+      <c r="I6" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="121"/>
-      <c r="K6" s="121"/>
-      <c r="L6" s="121"/>
-      <c r="M6" s="116" t="s">
+      <c r="J6" s="117"/>
+      <c r="K6" s="117"/>
+      <c r="L6" s="117"/>
+      <c r="M6" s="112" t="s">
         <v>20</v>
       </c>
-      <c r="N6" s="117"/>
-      <c r="O6" s="117"/>
-      <c r="P6" s="118"/>
+      <c r="N6" s="113"/>
+      <c r="O6" s="113"/>
+      <c r="P6" s="114"/>
     </row>
     <row r="7" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="8"/>
@@ -5682,28 +5884,28 @@
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
-      <c r="I7" s="121" t="s">
+      <c r="I7" s="117" t="s">
         <v>34</v>
       </c>
-      <c r="J7" s="121"/>
-      <c r="K7" s="121"/>
-      <c r="L7" s="121"/>
-      <c r="M7" s="116"/>
-      <c r="N7" s="117"/>
-      <c r="O7" s="117"/>
-      <c r="P7" s="118"/>
+      <c r="J7" s="117"/>
+      <c r="K7" s="117"/>
+      <c r="L7" s="117"/>
+      <c r="M7" s="112"/>
+      <c r="N7" s="113"/>
+      <c r="O7" s="113"/>
+      <c r="P7" s="114"/>
     </row>
     <row r="8" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="I8" s="121" t="s">
+      <c r="I8" s="117" t="s">
         <v>8</v>
       </c>
-      <c r="J8" s="121"/>
-      <c r="K8" s="121"/>
-      <c r="L8" s="121"/>
-      <c r="M8" s="116"/>
-      <c r="N8" s="117"/>
-      <c r="O8" s="117"/>
-      <c r="P8" s="118"/>
+      <c r="J8" s="117"/>
+      <c r="K8" s="117"/>
+      <c r="L8" s="117"/>
+      <c r="M8" s="112"/>
+      <c r="N8" s="113"/>
+      <c r="O8" s="113"/>
+      <c r="P8" s="114"/>
     </row>
     <row r="9" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="29"/>
@@ -5712,18 +5914,18 @@
       <c r="E9" s="29"/>
       <c r="F9" s="29"/>
       <c r="G9" s="29"/>
-      <c r="I9" s="121" t="s">
+      <c r="I9" s="117" t="s">
         <v>9</v>
       </c>
-      <c r="J9" s="121"/>
-      <c r="K9" s="121"/>
-      <c r="L9" s="121"/>
-      <c r="M9" s="116" t="s">
+      <c r="J9" s="117"/>
+      <c r="K9" s="117"/>
+      <c r="L9" s="117"/>
+      <c r="M9" s="112" t="s">
         <v>20</v>
       </c>
-      <c r="N9" s="117"/>
-      <c r="O9" s="117"/>
-      <c r="P9" s="118"/>
+      <c r="N9" s="113"/>
+      <c r="O9" s="113"/>
+      <c r="P9" s="114"/>
     </row>
     <row r="10" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="29"/>
@@ -5732,16 +5934,16 @@
       <c r="E10" s="29"/>
       <c r="F10" s="29"/>
       <c r="G10" s="29"/>
-      <c r="I10" s="121" t="s">
+      <c r="I10" s="117" t="s">
         <v>124</v>
       </c>
-      <c r="J10" s="121"/>
-      <c r="K10" s="121"/>
-      <c r="L10" s="121"/>
-      <c r="M10" s="116"/>
-      <c r="N10" s="117"/>
-      <c r="O10" s="117"/>
-      <c r="P10" s="118"/>
+      <c r="J10" s="117"/>
+      <c r="K10" s="117"/>
+      <c r="L10" s="117"/>
+      <c r="M10" s="112"/>
+      <c r="N10" s="113"/>
+      <c r="O10" s="113"/>
+      <c r="P10" s="114"/>
     </row>
     <row r="11" spans="2:16" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="29"/>
@@ -5750,16 +5952,16 @@
       <c r="E11" s="29"/>
       <c r="F11" s="29"/>
       <c r="G11" s="29"/>
-      <c r="I11" s="119" t="s">
+      <c r="I11" s="115" t="s">
         <v>125</v>
       </c>
-      <c r="J11" s="119"/>
-      <c r="K11" s="119"/>
-      <c r="L11" s="119"/>
-      <c r="M11" s="116"/>
-      <c r="N11" s="117"/>
-      <c r="O11" s="117"/>
-      <c r="P11" s="118"/>
+      <c r="J11" s="115"/>
+      <c r="K11" s="115"/>
+      <c r="L11" s="115"/>
+      <c r="M11" s="112"/>
+      <c r="N11" s="113"/>
+      <c r="O11" s="113"/>
+      <c r="P11" s="114"/>
     </row>
     <row r="12" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="29"/>
@@ -5768,18 +5970,18 @@
       <c r="E12" s="29"/>
       <c r="F12" s="29"/>
       <c r="G12" s="29"/>
-      <c r="I12" s="119" t="s">
+      <c r="I12" s="115" t="s">
         <v>16</v>
       </c>
-      <c r="J12" s="119"/>
-      <c r="K12" s="119"/>
-      <c r="L12" s="119"/>
-      <c r="M12" s="116" t="s">
+      <c r="J12" s="115"/>
+      <c r="K12" s="115"/>
+      <c r="L12" s="115"/>
+      <c r="M12" s="112" t="s">
         <v>20</v>
       </c>
-      <c r="N12" s="117"/>
-      <c r="O12" s="117"/>
-      <c r="P12" s="118"/>
+      <c r="N12" s="113"/>
+      <c r="O12" s="113"/>
+      <c r="P12" s="114"/>
     </row>
     <row r="13" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="29"/>
@@ -5788,16 +5990,16 @@
       <c r="E13" s="29"/>
       <c r="F13" s="29"/>
       <c r="G13" s="29"/>
-      <c r="I13" s="119" t="s">
+      <c r="I13" s="115" t="s">
         <v>10</v>
       </c>
-      <c r="J13" s="119"/>
-      <c r="K13" s="119"/>
-      <c r="L13" s="119"/>
-      <c r="M13" s="116"/>
-      <c r="N13" s="117"/>
-      <c r="O13" s="117"/>
-      <c r="P13" s="118"/>
+      <c r="J13" s="115"/>
+      <c r="K13" s="115"/>
+      <c r="L13" s="115"/>
+      <c r="M13" s="112"/>
+      <c r="N13" s="113"/>
+      <c r="O13" s="113"/>
+      <c r="P13" s="114"/>
     </row>
     <row r="14" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="29"/>
@@ -5806,18 +6008,18 @@
       <c r="E14" s="29"/>
       <c r="F14" s="29"/>
       <c r="G14" s="29"/>
-      <c r="I14" s="119" t="s">
+      <c r="I14" s="115" t="s">
         <v>19</v>
       </c>
-      <c r="J14" s="119"/>
-      <c r="K14" s="119"/>
-      <c r="L14" s="119"/>
-      <c r="M14" s="116" t="s">
+      <c r="J14" s="115"/>
+      <c r="K14" s="115"/>
+      <c r="L14" s="115"/>
+      <c r="M14" s="112" t="s">
         <v>20</v>
       </c>
-      <c r="N14" s="117"/>
-      <c r="O14" s="117"/>
-      <c r="P14" s="118"/>
+      <c r="N14" s="113"/>
+      <c r="O14" s="113"/>
+      <c r="P14" s="114"/>
     </row>
     <row r="15" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="29"/>
@@ -5826,16 +6028,16 @@
       <c r="E15" s="29"/>
       <c r="F15" s="29"/>
       <c r="G15" s="29"/>
-      <c r="I15" s="119" t="s">
+      <c r="I15" s="115" t="s">
         <v>17</v>
       </c>
-      <c r="J15" s="119"/>
-      <c r="K15" s="119"/>
-      <c r="L15" s="119"/>
-      <c r="M15" s="116"/>
-      <c r="N15" s="117"/>
-      <c r="O15" s="117"/>
-      <c r="P15" s="118"/>
+      <c r="J15" s="115"/>
+      <c r="K15" s="115"/>
+      <c r="L15" s="115"/>
+      <c r="M15" s="112"/>
+      <c r="N15" s="113"/>
+      <c r="O15" s="113"/>
+      <c r="P15" s="114"/>
     </row>
     <row r="16" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B16" s="29"/>
@@ -5844,16 +6046,16 @@
       <c r="E16" s="29"/>
       <c r="F16" s="29"/>
       <c r="G16" s="29"/>
-      <c r="I16" s="120" t="s">
+      <c r="I16" s="116" t="s">
         <v>22</v>
       </c>
-      <c r="J16" s="120"/>
-      <c r="K16" s="120"/>
-      <c r="L16" s="120"/>
-      <c r="M16" s="116"/>
-      <c r="N16" s="117"/>
-      <c r="O16" s="117"/>
-      <c r="P16" s="118"/>
+      <c r="J16" s="116"/>
+      <c r="K16" s="116"/>
+      <c r="L16" s="116"/>
+      <c r="M16" s="112"/>
+      <c r="N16" s="113"/>
+      <c r="O16" s="113"/>
+      <c r="P16" s="114"/>
     </row>
     <row r="17" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B17" s="29"/>
@@ -5872,24 +6074,24 @@
       <c r="Q17" s="36"/>
     </row>
     <row r="18" spans="1:21" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A18" s="112" t="s">
+      <c r="A18" s="108" t="s">
         <v>159</v>
       </c>
-      <c r="B18" s="112"/>
-      <c r="C18" s="112"/>
-      <c r="D18" s="112"/>
-      <c r="E18" s="112"/>
-      <c r="F18" s="112"/>
-      <c r="G18" s="112"/>
-      <c r="H18" s="112"/>
-      <c r="I18" s="112"/>
-      <c r="J18" s="112"/>
-      <c r="K18" s="112"/>
-      <c r="L18" s="112"/>
-      <c r="M18" s="112"/>
-      <c r="N18" s="112"/>
-      <c r="O18" s="112"/>
-      <c r="P18" s="112"/>
+      <c r="B18" s="108"/>
+      <c r="C18" s="108"/>
+      <c r="D18" s="108"/>
+      <c r="E18" s="108"/>
+      <c r="F18" s="108"/>
+      <c r="G18" s="108"/>
+      <c r="H18" s="108"/>
+      <c r="I18" s="108"/>
+      <c r="J18" s="108"/>
+      <c r="K18" s="108"/>
+      <c r="L18" s="108"/>
+      <c r="M18" s="108"/>
+      <c r="N18" s="108"/>
+      <c r="O18" s="108"/>
+      <c r="P18" s="108"/>
     </row>
     <row r="19" spans="1:21" ht="15.6" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A19" s="37"/>
@@ -5911,316 +6113,316 @@
       <c r="Q19" s="37"/>
     </row>
     <row r="20" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B20" s="121" t="s">
+      <c r="B20" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="121"/>
-      <c r="D20" s="121"/>
-      <c r="E20" s="121" t="s">
+      <c r="C20" s="117"/>
+      <c r="D20" s="117"/>
+      <c r="E20" s="117" t="s">
         <v>13</v>
       </c>
-      <c r="F20" s="121"/>
-      <c r="G20" s="121"/>
-      <c r="H20" s="121" t="s">
+      <c r="F20" s="117"/>
+      <c r="G20" s="117"/>
+      <c r="H20" s="117" t="s">
         <v>14</v>
       </c>
-      <c r="I20" s="121"/>
-      <c r="J20" s="121"/>
-      <c r="K20" s="229" t="s">
+      <c r="I20" s="117"/>
+      <c r="J20" s="117"/>
+      <c r="K20" s="225" t="s">
         <v>21</v>
       </c>
-      <c r="L20" s="230"/>
-      <c r="M20" s="230"/>
-      <c r="N20" s="230"/>
-      <c r="O20" s="230"/>
-      <c r="P20" s="231"/>
+      <c r="L20" s="226"/>
+      <c r="M20" s="226"/>
+      <c r="N20" s="226"/>
+      <c r="O20" s="226"/>
+      <c r="P20" s="227"/>
       <c r="Q20" s="37"/>
     </row>
     <row r="21" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B21" s="121"/>
-      <c r="C21" s="121"/>
-      <c r="D21" s="121"/>
-      <c r="E21" s="121"/>
-      <c r="F21" s="121"/>
-      <c r="G21" s="121"/>
-      <c r="H21" s="121"/>
-      <c r="I21" s="121"/>
-      <c r="J21" s="121"/>
-      <c r="K21" s="232"/>
-      <c r="L21" s="233"/>
-      <c r="M21" s="233"/>
-      <c r="N21" s="233"/>
-      <c r="O21" s="233"/>
-      <c r="P21" s="234"/>
+      <c r="B21" s="117"/>
+      <c r="C21" s="117"/>
+      <c r="D21" s="117"/>
+      <c r="E21" s="117"/>
+      <c r="F21" s="117"/>
+      <c r="G21" s="117"/>
+      <c r="H21" s="117"/>
+      <c r="I21" s="117"/>
+      <c r="J21" s="117"/>
+      <c r="K21" s="228"/>
+      <c r="L21" s="229"/>
+      <c r="M21" s="229"/>
+      <c r="N21" s="229"/>
+      <c r="O21" s="229"/>
+      <c r="P21" s="230"/>
       <c r="Q21" s="37"/>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B22" s="119" t="s">
+      <c r="B22" s="115" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="119"/>
-      <c r="D22" s="119"/>
-      <c r="E22" s="200"/>
-      <c r="F22" s="200"/>
-      <c r="G22" s="200"/>
-      <c r="H22" s="235" t="s">
+      <c r="C22" s="115"/>
+      <c r="D22" s="115"/>
+      <c r="E22" s="196"/>
+      <c r="F22" s="196"/>
+      <c r="G22" s="196"/>
+      <c r="H22" s="231" t="s">
         <v>20</v>
       </c>
-      <c r="I22" s="235"/>
-      <c r="J22" s="235"/>
-      <c r="K22" s="225" t="s">
+      <c r="I22" s="231"/>
+      <c r="J22" s="231"/>
+      <c r="K22" s="221" t="s">
         <v>29</v>
       </c>
-      <c r="L22" s="226"/>
-      <c r="M22" s="226"/>
-      <c r="N22" s="226"/>
-      <c r="O22" s="226"/>
-      <c r="P22" s="227"/>
+      <c r="L22" s="222"/>
+      <c r="M22" s="222"/>
+      <c r="N22" s="222"/>
+      <c r="O22" s="222"/>
+      <c r="P22" s="223"/>
     </row>
     <row r="23" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="119"/>
-      <c r="C23" s="119"/>
-      <c r="D23" s="119"/>
-      <c r="E23" s="200"/>
-      <c r="F23" s="200"/>
-      <c r="G23" s="200"/>
-      <c r="H23" s="235"/>
-      <c r="I23" s="235"/>
-      <c r="J23" s="235"/>
-      <c r="K23" s="225"/>
-      <c r="L23" s="226"/>
-      <c r="M23" s="226"/>
-      <c r="N23" s="226"/>
-      <c r="O23" s="226"/>
-      <c r="P23" s="227"/>
+      <c r="B23" s="115"/>
+      <c r="C23" s="115"/>
+      <c r="D23" s="115"/>
+      <c r="E23" s="196"/>
+      <c r="F23" s="196"/>
+      <c r="G23" s="196"/>
+      <c r="H23" s="231"/>
+      <c r="I23" s="231"/>
+      <c r="J23" s="231"/>
+      <c r="K23" s="221"/>
+      <c r="L23" s="222"/>
+      <c r="M23" s="222"/>
+      <c r="N23" s="222"/>
+      <c r="O23" s="222"/>
+      <c r="P23" s="223"/>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B24" s="201" t="s">
+      <c r="B24" s="197" t="s">
         <v>60</v>
       </c>
-      <c r="C24" s="202"/>
-      <c r="D24" s="203"/>
-      <c r="E24" s="207"/>
-      <c r="F24" s="208"/>
-      <c r="G24" s="209"/>
-      <c r="H24" s="207" t="s">
+      <c r="C24" s="198"/>
+      <c r="D24" s="199"/>
+      <c r="E24" s="203"/>
+      <c r="F24" s="204"/>
+      <c r="G24" s="205"/>
+      <c r="H24" s="203" t="s">
         <v>59</v>
       </c>
-      <c r="I24" s="208"/>
-      <c r="J24" s="209"/>
-      <c r="K24" s="215" t="s">
+      <c r="I24" s="204"/>
+      <c r="J24" s="205"/>
+      <c r="K24" s="211" t="s">
         <v>58</v>
       </c>
-      <c r="L24" s="216"/>
-      <c r="M24" s="216"/>
-      <c r="N24" s="216"/>
-      <c r="O24" s="216"/>
-      <c r="P24" s="217"/>
+      <c r="L24" s="212"/>
+      <c r="M24" s="212"/>
+      <c r="N24" s="212"/>
+      <c r="O24" s="212"/>
+      <c r="P24" s="213"/>
     </row>
     <row r="25" spans="1:21" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="204"/>
-      <c r="C25" s="205"/>
-      <c r="D25" s="206"/>
-      <c r="E25" s="210"/>
-      <c r="F25" s="211"/>
-      <c r="G25" s="212"/>
-      <c r="H25" s="210"/>
-      <c r="I25" s="211"/>
-      <c r="J25" s="212"/>
-      <c r="K25" s="218"/>
-      <c r="L25" s="219"/>
-      <c r="M25" s="219"/>
-      <c r="N25" s="219"/>
-      <c r="O25" s="219"/>
-      <c r="P25" s="220"/>
-      <c r="Q25" s="213"/>
-      <c r="R25" s="214"/>
-      <c r="S25" s="214"/>
-      <c r="T25" s="214"/>
-      <c r="U25" s="214"/>
+      <c r="B25" s="200"/>
+      <c r="C25" s="201"/>
+      <c r="D25" s="202"/>
+      <c r="E25" s="206"/>
+      <c r="F25" s="207"/>
+      <c r="G25" s="208"/>
+      <c r="H25" s="206"/>
+      <c r="I25" s="207"/>
+      <c r="J25" s="208"/>
+      <c r="K25" s="214"/>
+      <c r="L25" s="215"/>
+      <c r="M25" s="215"/>
+      <c r="N25" s="215"/>
+      <c r="O25" s="215"/>
+      <c r="P25" s="216"/>
+      <c r="Q25" s="209"/>
+      <c r="R25" s="210"/>
+      <c r="S25" s="210"/>
+      <c r="T25" s="210"/>
+      <c r="U25" s="210"/>
     </row>
     <row r="26" spans="1:21" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="119" t="s">
+      <c r="B26" s="115" t="s">
         <v>40</v>
       </c>
-      <c r="C26" s="119"/>
-      <c r="D26" s="119"/>
-      <c r="E26" s="200"/>
-      <c r="F26" s="200"/>
-      <c r="G26" s="200"/>
-      <c r="H26" s="200" t="s">
+      <c r="C26" s="115"/>
+      <c r="D26" s="115"/>
+      <c r="E26" s="196"/>
+      <c r="F26" s="196"/>
+      <c r="G26" s="196"/>
+      <c r="H26" s="196" t="s">
         <v>20</v>
       </c>
-      <c r="I26" s="200"/>
-      <c r="J26" s="200"/>
-      <c r="K26" s="225" t="s">
+      <c r="I26" s="196"/>
+      <c r="J26" s="196"/>
+      <c r="K26" s="221" t="s">
         <v>31</v>
       </c>
-      <c r="L26" s="226"/>
-      <c r="M26" s="226"/>
-      <c r="N26" s="226"/>
-      <c r="O26" s="226"/>
-      <c r="P26" s="227"/>
-      <c r="Q26" s="213"/>
-      <c r="R26" s="214"/>
-      <c r="S26" s="214"/>
-      <c r="T26" s="214"/>
-      <c r="U26" s="214"/>
+      <c r="L26" s="222"/>
+      <c r="M26" s="222"/>
+      <c r="N26" s="222"/>
+      <c r="O26" s="222"/>
+      <c r="P26" s="223"/>
+      <c r="Q26" s="209"/>
+      <c r="R26" s="210"/>
+      <c r="S26" s="210"/>
+      <c r="T26" s="210"/>
+      <c r="U26" s="210"/>
     </row>
     <row r="27" spans="1:21" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="119"/>
-      <c r="C27" s="119"/>
-      <c r="D27" s="119"/>
-      <c r="E27" s="200"/>
-      <c r="F27" s="200"/>
-      <c r="G27" s="200"/>
-      <c r="H27" s="200"/>
-      <c r="I27" s="200"/>
-      <c r="J27" s="200"/>
-      <c r="K27" s="225"/>
-      <c r="L27" s="226"/>
-      <c r="M27" s="226"/>
-      <c r="N27" s="226"/>
-      <c r="O27" s="226"/>
-      <c r="P27" s="227"/>
-      <c r="R27" s="228"/>
-      <c r="S27" s="228"/>
-      <c r="T27" s="228"/>
-      <c r="U27" s="228"/>
+      <c r="B27" s="115"/>
+      <c r="C27" s="115"/>
+      <c r="D27" s="115"/>
+      <c r="E27" s="196"/>
+      <c r="F27" s="196"/>
+      <c r="G27" s="196"/>
+      <c r="H27" s="196"/>
+      <c r="I27" s="196"/>
+      <c r="J27" s="196"/>
+      <c r="K27" s="221"/>
+      <c r="L27" s="222"/>
+      <c r="M27" s="222"/>
+      <c r="N27" s="222"/>
+      <c r="O27" s="222"/>
+      <c r="P27" s="223"/>
+      <c r="R27" s="224"/>
+      <c r="S27" s="224"/>
+      <c r="T27" s="224"/>
+      <c r="U27" s="224"/>
     </row>
     <row r="28" spans="1:21" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="119" t="s">
+      <c r="B28" s="115" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="119"/>
-      <c r="D28" s="119"/>
-      <c r="E28" s="200"/>
-      <c r="F28" s="200"/>
-      <c r="G28" s="200"/>
-      <c r="H28" s="200"/>
-      <c r="I28" s="200"/>
-      <c r="J28" s="200"/>
-      <c r="K28" s="225" t="s">
+      <c r="C28" s="115"/>
+      <c r="D28" s="115"/>
+      <c r="E28" s="196"/>
+      <c r="F28" s="196"/>
+      <c r="G28" s="196"/>
+      <c r="H28" s="196"/>
+      <c r="I28" s="196"/>
+      <c r="J28" s="196"/>
+      <c r="K28" s="221" t="s">
         <v>30</v>
       </c>
-      <c r="L28" s="226"/>
-      <c r="M28" s="226"/>
-      <c r="N28" s="226"/>
-      <c r="O28" s="226"/>
-      <c r="P28" s="227"/>
-      <c r="R28" s="228"/>
-      <c r="S28" s="228"/>
-      <c r="T28" s="228"/>
-      <c r="U28" s="228"/>
+      <c r="L28" s="222"/>
+      <c r="M28" s="222"/>
+      <c r="N28" s="222"/>
+      <c r="O28" s="222"/>
+      <c r="P28" s="223"/>
+      <c r="R28" s="224"/>
+      <c r="S28" s="224"/>
+      <c r="T28" s="224"/>
+      <c r="U28" s="224"/>
     </row>
     <row r="29" spans="1:21" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="119"/>
-      <c r="C29" s="119"/>
-      <c r="D29" s="119"/>
-      <c r="E29" s="200"/>
-      <c r="F29" s="200"/>
-      <c r="G29" s="200"/>
-      <c r="H29" s="200"/>
-      <c r="I29" s="200"/>
-      <c r="J29" s="200"/>
-      <c r="K29" s="225"/>
-      <c r="L29" s="226"/>
-      <c r="M29" s="226"/>
-      <c r="N29" s="226"/>
-      <c r="O29" s="226"/>
-      <c r="P29" s="227"/>
+      <c r="B29" s="115"/>
+      <c r="C29" s="115"/>
+      <c r="D29" s="115"/>
+      <c r="E29" s="196"/>
+      <c r="F29" s="196"/>
+      <c r="G29" s="196"/>
+      <c r="H29" s="196"/>
+      <c r="I29" s="196"/>
+      <c r="J29" s="196"/>
+      <c r="K29" s="221"/>
+      <c r="L29" s="222"/>
+      <c r="M29" s="222"/>
+      <c r="N29" s="222"/>
+      <c r="O29" s="222"/>
+      <c r="P29" s="223"/>
       <c r="R29" s="20"/>
       <c r="S29" s="20"/>
       <c r="T29" s="20"/>
       <c r="U29" s="20"/>
     </row>
     <row r="30" spans="1:21" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="201" t="s">
+      <c r="B30" s="197" t="s">
         <v>57</v>
       </c>
-      <c r="C30" s="202"/>
-      <c r="D30" s="203"/>
-      <c r="E30" s="207"/>
-      <c r="F30" s="208"/>
-      <c r="G30" s="208"/>
-      <c r="H30" s="208"/>
-      <c r="I30" s="208"/>
-      <c r="J30" s="209"/>
-      <c r="K30" s="215"/>
-      <c r="L30" s="216"/>
-      <c r="M30" s="216"/>
-      <c r="N30" s="216"/>
-      <c r="O30" s="216"/>
-      <c r="P30" s="217"/>
+      <c r="C30" s="198"/>
+      <c r="D30" s="199"/>
+      <c r="E30" s="203"/>
+      <c r="F30" s="204"/>
+      <c r="G30" s="204"/>
+      <c r="H30" s="204"/>
+      <c r="I30" s="204"/>
+      <c r="J30" s="205"/>
+      <c r="K30" s="211"/>
+      <c r="L30" s="212"/>
+      <c r="M30" s="212"/>
+      <c r="N30" s="212"/>
+      <c r="O30" s="212"/>
+      <c r="P30" s="213"/>
       <c r="R30" s="20"/>
       <c r="S30" s="20"/>
       <c r="T30" s="20"/>
       <c r="U30" s="20"/>
     </row>
     <row r="31" spans="1:21" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="204"/>
-      <c r="C31" s="205"/>
-      <c r="D31" s="206"/>
-      <c r="E31" s="210"/>
-      <c r="F31" s="211"/>
-      <c r="G31" s="211"/>
-      <c r="H31" s="211"/>
-      <c r="I31" s="211"/>
-      <c r="J31" s="212"/>
-      <c r="K31" s="218"/>
-      <c r="L31" s="219"/>
-      <c r="M31" s="219"/>
-      <c r="N31" s="219"/>
-      <c r="O31" s="219"/>
-      <c r="P31" s="220"/>
-      <c r="Q31" s="213"/>
-      <c r="R31" s="214"/>
-      <c r="S31" s="214"/>
-      <c r="T31" s="214"/>
-      <c r="U31" s="214"/>
+      <c r="B31" s="200"/>
+      <c r="C31" s="201"/>
+      <c r="D31" s="202"/>
+      <c r="E31" s="206"/>
+      <c r="F31" s="207"/>
+      <c r="G31" s="207"/>
+      <c r="H31" s="207"/>
+      <c r="I31" s="207"/>
+      <c r="J31" s="208"/>
+      <c r="K31" s="214"/>
+      <c r="L31" s="215"/>
+      <c r="M31" s="215"/>
+      <c r="N31" s="215"/>
+      <c r="O31" s="215"/>
+      <c r="P31" s="216"/>
+      <c r="Q31" s="209"/>
+      <c r="R31" s="210"/>
+      <c r="S31" s="210"/>
+      <c r="T31" s="210"/>
+      <c r="U31" s="210"/>
     </row>
     <row r="32" spans="1:21" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="121" t="s">
+      <c r="B32" s="117" t="s">
         <v>42</v>
       </c>
-      <c r="C32" s="121"/>
-      <c r="D32" s="121"/>
-      <c r="E32" s="221"/>
-      <c r="F32" s="222"/>
-      <c r="G32" s="222"/>
-      <c r="H32" s="222"/>
-      <c r="I32" s="222"/>
-      <c r="J32" s="223"/>
-      <c r="K32" s="225" t="s">
+      <c r="C32" s="117"/>
+      <c r="D32" s="117"/>
+      <c r="E32" s="217"/>
+      <c r="F32" s="218"/>
+      <c r="G32" s="218"/>
+      <c r="H32" s="218"/>
+      <c r="I32" s="218"/>
+      <c r="J32" s="219"/>
+      <c r="K32" s="221" t="s">
         <v>32</v>
       </c>
-      <c r="L32" s="226"/>
-      <c r="M32" s="226"/>
-      <c r="N32" s="226"/>
-      <c r="O32" s="226"/>
-      <c r="P32" s="227"/>
-      <c r="Q32" s="213"/>
-      <c r="R32" s="214"/>
-      <c r="S32" s="214"/>
-      <c r="T32" s="214"/>
-      <c r="U32" s="214"/>
+      <c r="L32" s="222"/>
+      <c r="M32" s="222"/>
+      <c r="N32" s="222"/>
+      <c r="O32" s="222"/>
+      <c r="P32" s="223"/>
+      <c r="Q32" s="209"/>
+      <c r="R32" s="210"/>
+      <c r="S32" s="210"/>
+      <c r="T32" s="210"/>
+      <c r="U32" s="210"/>
     </row>
     <row r="33" spans="2:21" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="121"/>
-      <c r="C33" s="121"/>
-      <c r="D33" s="121"/>
-      <c r="E33" s="224"/>
-      <c r="F33" s="222"/>
-      <c r="G33" s="222"/>
-      <c r="H33" s="222"/>
-      <c r="I33" s="222"/>
-      <c r="J33" s="223"/>
-      <c r="K33" s="225"/>
-      <c r="L33" s="226"/>
-      <c r="M33" s="226"/>
-      <c r="N33" s="226"/>
-      <c r="O33" s="226"/>
-      <c r="P33" s="227"/>
+      <c r="B33" s="117"/>
+      <c r="C33" s="117"/>
+      <c r="D33" s="117"/>
+      <c r="E33" s="220"/>
+      <c r="F33" s="218"/>
+      <c r="G33" s="218"/>
+      <c r="H33" s="218"/>
+      <c r="I33" s="218"/>
+      <c r="J33" s="219"/>
+      <c r="K33" s="221"/>
+      <c r="L33" s="222"/>
+      <c r="M33" s="222"/>
+      <c r="N33" s="222"/>
+      <c r="O33" s="222"/>
+      <c r="P33" s="223"/>
       <c r="Q33" s="22"/>
       <c r="R33" s="19"/>
       <c r="S33" s="19"/>
@@ -6228,17 +6430,17 @@
       <c r="U33" s="19"/>
     </row>
     <row r="34" spans="2:21" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="121" t="s">
+      <c r="B34" s="117" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="121"/>
-      <c r="D34" s="121"/>
-      <c r="E34" s="200"/>
-      <c r="F34" s="200"/>
-      <c r="G34" s="200"/>
-      <c r="H34" s="200"/>
-      <c r="I34" s="200"/>
-      <c r="J34" s="200"/>
+      <c r="C34" s="117"/>
+      <c r="D34" s="117"/>
+      <c r="E34" s="196"/>
+      <c r="F34" s="196"/>
+      <c r="G34" s="196"/>
+      <c r="H34" s="196"/>
+      <c r="I34" s="196"/>
+      <c r="J34" s="196"/>
       <c r="K34" s="33"/>
       <c r="L34" s="33"/>
       <c r="M34" s="33"/>
@@ -6252,61 +6454,61 @@
       <c r="U34" s="19"/>
     </row>
     <row r="35" spans="2:21" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="121"/>
-      <c r="C35" s="121"/>
-      <c r="D35" s="121"/>
-      <c r="E35" s="200"/>
-      <c r="F35" s="200"/>
-      <c r="G35" s="200"/>
-      <c r="H35" s="200"/>
-      <c r="I35" s="200"/>
-      <c r="J35" s="200"/>
+      <c r="B35" s="117"/>
+      <c r="C35" s="117"/>
+      <c r="D35" s="117"/>
+      <c r="E35" s="196"/>
+      <c r="F35" s="196"/>
+      <c r="G35" s="196"/>
+      <c r="H35" s="196"/>
+      <c r="I35" s="196"/>
+      <c r="J35" s="196"/>
       <c r="K35" s="33"/>
       <c r="L35" s="33"/>
       <c r="M35" s="33"/>
       <c r="N35" s="33"/>
       <c r="O35" s="33"/>
       <c r="P35" s="33"/>
-      <c r="Q35" s="213"/>
-      <c r="R35" s="214"/>
-      <c r="S35" s="214"/>
-      <c r="T35" s="214"/>
-      <c r="U35" s="214"/>
+      <c r="Q35" s="209"/>
+      <c r="R35" s="210"/>
+      <c r="S35" s="210"/>
+      <c r="T35" s="210"/>
+      <c r="U35" s="210"/>
     </row>
     <row r="36" spans="2:21" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="201" t="s">
+      <c r="B36" s="197" t="s">
         <v>56</v>
       </c>
-      <c r="C36" s="202"/>
-      <c r="D36" s="203"/>
-      <c r="E36" s="207"/>
-      <c r="F36" s="208"/>
-      <c r="G36" s="208"/>
-      <c r="H36" s="208"/>
-      <c r="I36" s="208"/>
-      <c r="J36" s="209"/>
+      <c r="C36" s="198"/>
+      <c r="D36" s="199"/>
+      <c r="E36" s="203"/>
+      <c r="F36" s="204"/>
+      <c r="G36" s="204"/>
+      <c r="H36" s="204"/>
+      <c r="I36" s="204"/>
+      <c r="J36" s="205"/>
       <c r="K36" s="33"/>
       <c r="L36" s="33"/>
       <c r="M36" s="33"/>
       <c r="N36" s="33"/>
       <c r="O36" s="33"/>
       <c r="P36" s="33"/>
-      <c r="Q36" s="213"/>
-      <c r="R36" s="214"/>
-      <c r="S36" s="214"/>
-      <c r="T36" s="214"/>
-      <c r="U36" s="214"/>
+      <c r="Q36" s="209"/>
+      <c r="R36" s="210"/>
+      <c r="S36" s="210"/>
+      <c r="T36" s="210"/>
+      <c r="U36" s="210"/>
     </row>
     <row r="37" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="204"/>
-      <c r="C37" s="205"/>
-      <c r="D37" s="206"/>
-      <c r="E37" s="210"/>
-      <c r="F37" s="211"/>
-      <c r="G37" s="211"/>
-      <c r="H37" s="211"/>
-      <c r="I37" s="211"/>
-      <c r="J37" s="212"/>
+      <c r="B37" s="200"/>
+      <c r="C37" s="201"/>
+      <c r="D37" s="202"/>
+      <c r="E37" s="206"/>
+      <c r="F37" s="207"/>
+      <c r="G37" s="207"/>
+      <c r="H37" s="207"/>
+      <c r="I37" s="207"/>
+      <c r="J37" s="208"/>
       <c r="K37" s="33"/>
       <c r="L37" s="33"/>
       <c r="M37" s="33"/>
@@ -6315,57 +6517,57 @@
       <c r="P37" s="33"/>
     </row>
     <row r="38" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="121" t="s">
+      <c r="B38" s="117" t="s">
         <v>55</v>
       </c>
-      <c r="C38" s="121"/>
-      <c r="D38" s="121"/>
-      <c r="E38" s="189" t="s">
+      <c r="C38" s="117"/>
+      <c r="D38" s="117"/>
+      <c r="E38" s="185" t="s">
         <v>27</v>
       </c>
-      <c r="F38" s="190"/>
-      <c r="G38" s="190"/>
-      <c r="H38" s="190"/>
-      <c r="I38" s="190"/>
-      <c r="J38" s="191"/>
-      <c r="K38" s="187"/>
-      <c r="L38" s="188"/>
-      <c r="M38" s="188"/>
-      <c r="N38" s="188"/>
-      <c r="O38" s="188"/>
+      <c r="F38" s="186"/>
+      <c r="G38" s="186"/>
+      <c r="H38" s="186"/>
+      <c r="I38" s="186"/>
+      <c r="J38" s="187"/>
+      <c r="K38" s="183"/>
+      <c r="L38" s="184"/>
+      <c r="M38" s="184"/>
+      <c r="N38" s="184"/>
+      <c r="O38" s="184"/>
       <c r="P38" s="33"/>
     </row>
     <row r="39" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="121"/>
-      <c r="C39" s="121"/>
-      <c r="D39" s="121"/>
-      <c r="E39" s="189"/>
-      <c r="F39" s="190"/>
-      <c r="G39" s="190"/>
-      <c r="H39" s="190"/>
-      <c r="I39" s="190"/>
-      <c r="J39" s="191"/>
-      <c r="K39" s="187"/>
-      <c r="L39" s="188"/>
-      <c r="M39" s="188"/>
-      <c r="N39" s="188"/>
-      <c r="O39" s="188"/>
+      <c r="B39" s="117"/>
+      <c r="C39" s="117"/>
+      <c r="D39" s="117"/>
+      <c r="E39" s="185"/>
+      <c r="F39" s="186"/>
+      <c r="G39" s="186"/>
+      <c r="H39" s="186"/>
+      <c r="I39" s="186"/>
+      <c r="J39" s="187"/>
+      <c r="K39" s="183"/>
+      <c r="L39" s="184"/>
+      <c r="M39" s="184"/>
+      <c r="N39" s="184"/>
+      <c r="O39" s="184"/>
       <c r="P39" s="33"/>
     </row>
     <row r="40" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="119" t="s">
+      <c r="B40" s="115" t="s">
         <v>54</v>
       </c>
-      <c r="C40" s="119"/>
-      <c r="D40" s="119"/>
-      <c r="E40" s="189" t="s">
+      <c r="C40" s="115"/>
+      <c r="D40" s="115"/>
+      <c r="E40" s="185" t="s">
         <v>23</v>
       </c>
-      <c r="F40" s="190"/>
-      <c r="G40" s="190"/>
-      <c r="H40" s="190"/>
-      <c r="I40" s="190"/>
-      <c r="J40" s="191"/>
+      <c r="F40" s="186"/>
+      <c r="G40" s="186"/>
+      <c r="H40" s="186"/>
+      <c r="I40" s="186"/>
+      <c r="J40" s="187"/>
       <c r="K40" s="34"/>
       <c r="L40" s="34"/>
       <c r="M40" s="34"/>
@@ -6374,15 +6576,15 @@
       <c r="P40" s="34"/>
     </row>
     <row r="41" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="119"/>
-      <c r="C41" s="119"/>
-      <c r="D41" s="119"/>
-      <c r="E41" s="189"/>
-      <c r="F41" s="190"/>
-      <c r="G41" s="190"/>
-      <c r="H41" s="190"/>
-      <c r="I41" s="190"/>
-      <c r="J41" s="191"/>
+      <c r="B41" s="115"/>
+      <c r="C41" s="115"/>
+      <c r="D41" s="115"/>
+      <c r="E41" s="185"/>
+      <c r="F41" s="186"/>
+      <c r="G41" s="186"/>
+      <c r="H41" s="186"/>
+      <c r="I41" s="186"/>
+      <c r="J41" s="187"/>
       <c r="K41" s="34"/>
       <c r="L41" s="34"/>
       <c r="M41" s="34"/>
@@ -6391,19 +6593,19 @@
       <c r="P41" s="34"/>
     </row>
     <row r="42" spans="2:21" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="119" t="s">
+      <c r="B42" s="115" t="s">
         <v>53</v>
       </c>
-      <c r="C42" s="121"/>
-      <c r="D42" s="121"/>
-      <c r="E42" s="192" t="s">
+      <c r="C42" s="117"/>
+      <c r="D42" s="117"/>
+      <c r="E42" s="188" t="s">
         <v>23</v>
       </c>
-      <c r="F42" s="193"/>
-      <c r="G42" s="193"/>
-      <c r="H42" s="193"/>
-      <c r="I42" s="193"/>
-      <c r="J42" s="194"/>
+      <c r="F42" s="189"/>
+      <c r="G42" s="189"/>
+      <c r="H42" s="189"/>
+      <c r="I42" s="189"/>
+      <c r="J42" s="190"/>
       <c r="K42" s="34"/>
       <c r="L42" s="34"/>
       <c r="M42" s="34"/>
@@ -6412,15 +6614,15 @@
       <c r="P42" s="35"/>
     </row>
     <row r="43" spans="2:21" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="121"/>
-      <c r="C43" s="121"/>
-      <c r="D43" s="121"/>
-      <c r="E43" s="195"/>
-      <c r="F43" s="196"/>
-      <c r="G43" s="196"/>
-      <c r="H43" s="196"/>
-      <c r="I43" s="196"/>
-      <c r="J43" s="197"/>
+      <c r="B43" s="117"/>
+      <c r="C43" s="117"/>
+      <c r="D43" s="117"/>
+      <c r="E43" s="191"/>
+      <c r="F43" s="192"/>
+      <c r="G43" s="192"/>
+      <c r="H43" s="192"/>
+      <c r="I43" s="192"/>
+      <c r="J43" s="193"/>
       <c r="K43" s="34"/>
       <c r="L43" s="34"/>
       <c r="M43" s="34"/>
@@ -6429,93 +6631,93 @@
       <c r="P43" s="35"/>
     </row>
     <row r="44" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="121" t="s">
+      <c r="B44" s="117" t="s">
         <v>52</v>
       </c>
-      <c r="C44" s="121"/>
-      <c r="D44" s="121"/>
-      <c r="E44" s="189" t="s">
+      <c r="C44" s="117"/>
+      <c r="D44" s="117"/>
+      <c r="E44" s="185" t="s">
         <v>24</v>
       </c>
-      <c r="F44" s="190"/>
-      <c r="G44" s="190"/>
-      <c r="H44" s="190"/>
-      <c r="I44" s="190"/>
-      <c r="J44" s="191"/>
-      <c r="K44" s="198"/>
-      <c r="L44" s="199"/>
-      <c r="M44" s="199"/>
-      <c r="N44" s="199"/>
-      <c r="O44" s="199"/>
+      <c r="F44" s="186"/>
+      <c r="G44" s="186"/>
+      <c r="H44" s="186"/>
+      <c r="I44" s="186"/>
+      <c r="J44" s="187"/>
+      <c r="K44" s="194"/>
+      <c r="L44" s="195"/>
+      <c r="M44" s="195"/>
+      <c r="N44" s="195"/>
+      <c r="O44" s="195"/>
       <c r="P44" s="35"/>
     </row>
     <row r="45" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="121"/>
-      <c r="C45" s="121"/>
-      <c r="D45" s="121"/>
-      <c r="E45" s="189"/>
-      <c r="F45" s="190"/>
-      <c r="G45" s="190"/>
-      <c r="H45" s="190"/>
-      <c r="I45" s="190"/>
-      <c r="J45" s="191"/>
-      <c r="K45" s="198"/>
-      <c r="L45" s="199"/>
-      <c r="M45" s="199"/>
-      <c r="N45" s="199"/>
-      <c r="O45" s="199"/>
+      <c r="B45" s="117"/>
+      <c r="C45" s="117"/>
+      <c r="D45" s="117"/>
+      <c r="E45" s="185"/>
+      <c r="F45" s="186"/>
+      <c r="G45" s="186"/>
+      <c r="H45" s="186"/>
+      <c r="I45" s="186"/>
+      <c r="J45" s="187"/>
+      <c r="K45" s="194"/>
+      <c r="L45" s="195"/>
+      <c r="M45" s="195"/>
+      <c r="N45" s="195"/>
+      <c r="O45" s="195"/>
       <c r="P45" s="35"/>
     </row>
     <row r="46" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="172" t="s">
+      <c r="B46" s="168" t="s">
         <v>51</v>
       </c>
-      <c r="C46" s="172"/>
-      <c r="D46" s="172"/>
-      <c r="E46" s="174" t="s">
+      <c r="C46" s="168"/>
+      <c r="D46" s="168"/>
+      <c r="E46" s="170" t="s">
         <v>25</v>
       </c>
-      <c r="F46" s="175"/>
-      <c r="G46" s="175"/>
-      <c r="H46" s="175"/>
-      <c r="I46" s="175"/>
-      <c r="J46" s="176"/>
-      <c r="K46" s="177"/>
-      <c r="L46" s="178"/>
-      <c r="M46" s="178"/>
-      <c r="N46" s="178"/>
-      <c r="O46" s="178"/>
+      <c r="F46" s="171"/>
+      <c r="G46" s="171"/>
+      <c r="H46" s="171"/>
+      <c r="I46" s="171"/>
+      <c r="J46" s="172"/>
+      <c r="K46" s="173"/>
+      <c r="L46" s="174"/>
+      <c r="M46" s="174"/>
+      <c r="N46" s="174"/>
+      <c r="O46" s="174"/>
       <c r="P46" s="35"/>
     </row>
     <row r="47" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="173"/>
-      <c r="C47" s="173"/>
-      <c r="D47" s="173"/>
-      <c r="E47" s="174"/>
-      <c r="F47" s="175"/>
-      <c r="G47" s="175"/>
-      <c r="H47" s="175"/>
-      <c r="I47" s="175"/>
-      <c r="J47" s="176"/>
-      <c r="K47" s="177"/>
-      <c r="L47" s="178"/>
-      <c r="M47" s="178"/>
-      <c r="N47" s="178"/>
-      <c r="O47" s="178"/>
+      <c r="B47" s="169"/>
+      <c r="C47" s="169"/>
+      <c r="D47" s="169"/>
+      <c r="E47" s="170"/>
+      <c r="F47" s="171"/>
+      <c r="G47" s="171"/>
+      <c r="H47" s="171"/>
+      <c r="I47" s="171"/>
+      <c r="J47" s="172"/>
+      <c r="K47" s="173"/>
+      <c r="L47" s="174"/>
+      <c r="M47" s="174"/>
+      <c r="N47" s="174"/>
+      <c r="O47" s="174"/>
       <c r="P47" s="35"/>
     </row>
     <row r="48" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="179" t="s">
+      <c r="B48" s="175" t="s">
         <v>50</v>
       </c>
-      <c r="C48" s="179"/>
-      <c r="D48" s="179"/>
-      <c r="E48" s="181"/>
-      <c r="F48" s="182"/>
-      <c r="G48" s="183"/>
-      <c r="H48" s="181"/>
-      <c r="I48" s="182"/>
-      <c r="J48" s="183"/>
+      <c r="C48" s="175"/>
+      <c r="D48" s="175"/>
+      <c r="E48" s="177"/>
+      <c r="F48" s="178"/>
+      <c r="G48" s="179"/>
+      <c r="H48" s="177"/>
+      <c r="I48" s="178"/>
+      <c r="J48" s="179"/>
       <c r="K48" s="35"/>
       <c r="L48" s="35"/>
       <c r="M48" s="35"/>
@@ -6524,15 +6726,15 @@
       <c r="P48" s="35"/>
     </row>
     <row r="49" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="180"/>
-      <c r="C49" s="180"/>
-      <c r="D49" s="180"/>
-      <c r="E49" s="184"/>
-      <c r="F49" s="185"/>
-      <c r="G49" s="186"/>
-      <c r="H49" s="184"/>
-      <c r="I49" s="185"/>
-      <c r="J49" s="186"/>
+      <c r="B49" s="176"/>
+      <c r="C49" s="176"/>
+      <c r="D49" s="176"/>
+      <c r="E49" s="180"/>
+      <c r="F49" s="181"/>
+      <c r="G49" s="182"/>
+      <c r="H49" s="180"/>
+      <c r="I49" s="181"/>
+      <c r="J49" s="182"/>
       <c r="K49" s="35"/>
       <c r="L49" s="35"/>
       <c r="M49" s="35"/>
@@ -6542,217 +6744,217 @@
     </row>
     <row r="50" spans="2:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="51" spans="2:16" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="157" t="s">
+      <c r="B51" s="153" t="s">
         <v>49</v>
       </c>
-      <c r="C51" s="158"/>
-      <c r="D51" s="158"/>
-      <c r="E51" s="158"/>
-      <c r="F51" s="158"/>
-      <c r="G51" s="158"/>
-      <c r="H51" s="158"/>
-      <c r="I51" s="159"/>
-      <c r="J51" s="160" t="s">
+      <c r="C51" s="154"/>
+      <c r="D51" s="154"/>
+      <c r="E51" s="154"/>
+      <c r="F51" s="154"/>
+      <c r="G51" s="154"/>
+      <c r="H51" s="154"/>
+      <c r="I51" s="155"/>
+      <c r="J51" s="156" t="s">
         <v>48</v>
       </c>
-      <c r="K51" s="161"/>
-      <c r="L51" s="161"/>
-      <c r="M51" s="161"/>
-      <c r="N51" s="161"/>
-      <c r="O51" s="161"/>
-      <c r="P51" s="162"/>
+      <c r="K51" s="157"/>
+      <c r="L51" s="157"/>
+      <c r="M51" s="157"/>
+      <c r="N51" s="157"/>
+      <c r="O51" s="157"/>
+      <c r="P51" s="158"/>
     </row>
     <row r="52" spans="2:16" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="163" t="s">
+      <c r="B52" s="159" t="s">
         <v>47</v>
       </c>
-      <c r="C52" s="164"/>
-      <c r="D52" s="164"/>
-      <c r="E52" s="164"/>
-      <c r="F52" s="164"/>
-      <c r="G52" s="164"/>
-      <c r="H52" s="164"/>
-      <c r="I52" s="165"/>
-      <c r="J52" s="150"/>
-      <c r="K52" s="151"/>
-      <c r="L52" s="151"/>
-      <c r="M52" s="151"/>
-      <c r="N52" s="151"/>
-      <c r="O52" s="151"/>
-      <c r="P52" s="152"/>
+      <c r="C52" s="160"/>
+      <c r="D52" s="160"/>
+      <c r="E52" s="160"/>
+      <c r="F52" s="160"/>
+      <c r="G52" s="160"/>
+      <c r="H52" s="160"/>
+      <c r="I52" s="161"/>
+      <c r="J52" s="146"/>
+      <c r="K52" s="147"/>
+      <c r="L52" s="147"/>
+      <c r="M52" s="147"/>
+      <c r="N52" s="147"/>
+      <c r="O52" s="147"/>
+      <c r="P52" s="148"/>
     </row>
     <row r="53" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B53" s="166"/>
-      <c r="C53" s="167"/>
-      <c r="D53" s="167"/>
-      <c r="E53" s="167"/>
-      <c r="F53" s="167"/>
-      <c r="G53" s="167"/>
-      <c r="H53" s="167"/>
-      <c r="I53" s="168"/>
-      <c r="J53" s="150"/>
-      <c r="K53" s="151"/>
-      <c r="L53" s="151"/>
-      <c r="M53" s="151"/>
-      <c r="N53" s="151"/>
-      <c r="O53" s="151"/>
-      <c r="P53" s="152"/>
+      <c r="B53" s="162"/>
+      <c r="C53" s="163"/>
+      <c r="D53" s="163"/>
+      <c r="E53" s="163"/>
+      <c r="F53" s="163"/>
+      <c r="G53" s="163"/>
+      <c r="H53" s="163"/>
+      <c r="I53" s="164"/>
+      <c r="J53" s="146"/>
+      <c r="K53" s="147"/>
+      <c r="L53" s="147"/>
+      <c r="M53" s="147"/>
+      <c r="N53" s="147"/>
+      <c r="O53" s="147"/>
+      <c r="P53" s="148"/>
     </row>
     <row r="54" spans="2:16" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="166"/>
-      <c r="C54" s="167"/>
-      <c r="D54" s="167"/>
-      <c r="E54" s="167"/>
-      <c r="F54" s="167"/>
-      <c r="G54" s="167"/>
-      <c r="H54" s="167"/>
-      <c r="I54" s="168"/>
-      <c r="J54" s="150"/>
-      <c r="K54" s="151"/>
-      <c r="L54" s="151"/>
-      <c r="M54" s="151"/>
-      <c r="N54" s="151"/>
-      <c r="O54" s="151"/>
-      <c r="P54" s="152"/>
+      <c r="B54" s="162"/>
+      <c r="C54" s="163"/>
+      <c r="D54" s="163"/>
+      <c r="E54" s="163"/>
+      <c r="F54" s="163"/>
+      <c r="G54" s="163"/>
+      <c r="H54" s="163"/>
+      <c r="I54" s="164"/>
+      <c r="J54" s="146"/>
+      <c r="K54" s="147"/>
+      <c r="L54" s="147"/>
+      <c r="M54" s="147"/>
+      <c r="N54" s="147"/>
+      <c r="O54" s="147"/>
+      <c r="P54" s="148"/>
     </row>
     <row r="55" spans="2:16" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="166"/>
-      <c r="C55" s="167"/>
-      <c r="D55" s="167"/>
-      <c r="E55" s="167"/>
-      <c r="F55" s="167"/>
-      <c r="G55" s="167"/>
-      <c r="H55" s="167"/>
-      <c r="I55" s="168"/>
-      <c r="J55" s="150"/>
-      <c r="K55" s="151"/>
-      <c r="L55" s="151"/>
-      <c r="M55" s="151"/>
-      <c r="N55" s="151"/>
-      <c r="O55" s="151"/>
-      <c r="P55" s="152"/>
+      <c r="B55" s="162"/>
+      <c r="C55" s="163"/>
+      <c r="D55" s="163"/>
+      <c r="E55" s="163"/>
+      <c r="F55" s="163"/>
+      <c r="G55" s="163"/>
+      <c r="H55" s="163"/>
+      <c r="I55" s="164"/>
+      <c r="J55" s="146"/>
+      <c r="K55" s="147"/>
+      <c r="L55" s="147"/>
+      <c r="M55" s="147"/>
+      <c r="N55" s="147"/>
+      <c r="O55" s="147"/>
+      <c r="P55" s="148"/>
     </row>
     <row r="56" spans="2:16" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="166"/>
-      <c r="C56" s="167"/>
-      <c r="D56" s="167"/>
-      <c r="E56" s="167"/>
-      <c r="F56" s="167"/>
-      <c r="G56" s="167"/>
-      <c r="H56" s="167"/>
-      <c r="I56" s="168"/>
-      <c r="J56" s="150"/>
-      <c r="K56" s="151"/>
-      <c r="L56" s="151"/>
-      <c r="M56" s="151"/>
-      <c r="N56" s="151"/>
-      <c r="O56" s="151"/>
-      <c r="P56" s="152"/>
+      <c r="B56" s="162"/>
+      <c r="C56" s="163"/>
+      <c r="D56" s="163"/>
+      <c r="E56" s="163"/>
+      <c r="F56" s="163"/>
+      <c r="G56" s="163"/>
+      <c r="H56" s="163"/>
+      <c r="I56" s="164"/>
+      <c r="J56" s="146"/>
+      <c r="K56" s="147"/>
+      <c r="L56" s="147"/>
+      <c r="M56" s="147"/>
+      <c r="N56" s="147"/>
+      <c r="O56" s="147"/>
+      <c r="P56" s="148"/>
     </row>
     <row r="57" spans="2:16" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="166"/>
-      <c r="C57" s="167"/>
-      <c r="D57" s="167"/>
-      <c r="E57" s="167"/>
-      <c r="F57" s="167"/>
-      <c r="G57" s="167"/>
-      <c r="H57" s="167"/>
-      <c r="I57" s="168"/>
-      <c r="J57" s="150"/>
-      <c r="K57" s="151"/>
-      <c r="L57" s="151"/>
-      <c r="M57" s="151"/>
-      <c r="N57" s="151"/>
-      <c r="O57" s="151"/>
-      <c r="P57" s="152"/>
+      <c r="B57" s="162"/>
+      <c r="C57" s="163"/>
+      <c r="D57" s="163"/>
+      <c r="E57" s="163"/>
+      <c r="F57" s="163"/>
+      <c r="G57" s="163"/>
+      <c r="H57" s="163"/>
+      <c r="I57" s="164"/>
+      <c r="J57" s="146"/>
+      <c r="K57" s="147"/>
+      <c r="L57" s="147"/>
+      <c r="M57" s="147"/>
+      <c r="N57" s="147"/>
+      <c r="O57" s="147"/>
+      <c r="P57" s="148"/>
     </row>
     <row r="58" spans="2:16" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="166"/>
-      <c r="C58" s="167"/>
-      <c r="D58" s="167"/>
-      <c r="E58" s="167"/>
-      <c r="F58" s="167"/>
-      <c r="G58" s="167"/>
-      <c r="H58" s="167"/>
-      <c r="I58" s="168"/>
-      <c r="J58" s="150"/>
-      <c r="K58" s="151"/>
-      <c r="L58" s="151"/>
-      <c r="M58" s="151"/>
-      <c r="N58" s="151"/>
-      <c r="O58" s="151"/>
-      <c r="P58" s="152"/>
+      <c r="B58" s="162"/>
+      <c r="C58" s="163"/>
+      <c r="D58" s="163"/>
+      <c r="E58" s="163"/>
+      <c r="F58" s="163"/>
+      <c r="G58" s="163"/>
+      <c r="H58" s="163"/>
+      <c r="I58" s="164"/>
+      <c r="J58" s="146"/>
+      <c r="K58" s="147"/>
+      <c r="L58" s="147"/>
+      <c r="M58" s="147"/>
+      <c r="N58" s="147"/>
+      <c r="O58" s="147"/>
+      <c r="P58" s="148"/>
     </row>
     <row r="59" spans="2:16" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="166"/>
-      <c r="C59" s="167"/>
-      <c r="D59" s="167"/>
-      <c r="E59" s="167"/>
-      <c r="F59" s="167"/>
-      <c r="G59" s="167"/>
-      <c r="H59" s="167"/>
-      <c r="I59" s="168"/>
-      <c r="J59" s="150"/>
-      <c r="K59" s="151"/>
-      <c r="L59" s="151"/>
-      <c r="M59" s="151"/>
-      <c r="N59" s="151"/>
-      <c r="O59" s="151"/>
-      <c r="P59" s="152"/>
+      <c r="B59" s="162"/>
+      <c r="C59" s="163"/>
+      <c r="D59" s="163"/>
+      <c r="E59" s="163"/>
+      <c r="F59" s="163"/>
+      <c r="G59" s="163"/>
+      <c r="H59" s="163"/>
+      <c r="I59" s="164"/>
+      <c r="J59" s="146"/>
+      <c r="K59" s="147"/>
+      <c r="L59" s="147"/>
+      <c r="M59" s="147"/>
+      <c r="N59" s="147"/>
+      <c r="O59" s="147"/>
+      <c r="P59" s="148"/>
     </row>
     <row r="60" spans="2:16" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="166"/>
-      <c r="C60" s="167"/>
-      <c r="D60" s="167"/>
-      <c r="E60" s="167"/>
-      <c r="F60" s="167"/>
-      <c r="G60" s="167"/>
-      <c r="H60" s="167"/>
-      <c r="I60" s="168"/>
-      <c r="J60" s="150"/>
-      <c r="K60" s="151"/>
-      <c r="L60" s="151"/>
-      <c r="M60" s="151"/>
-      <c r="N60" s="151"/>
-      <c r="O60" s="151"/>
-      <c r="P60" s="152"/>
+      <c r="B60" s="162"/>
+      <c r="C60" s="163"/>
+      <c r="D60" s="163"/>
+      <c r="E60" s="163"/>
+      <c r="F60" s="163"/>
+      <c r="G60" s="163"/>
+      <c r="H60" s="163"/>
+      <c r="I60" s="164"/>
+      <c r="J60" s="146"/>
+      <c r="K60" s="147"/>
+      <c r="L60" s="147"/>
+      <c r="M60" s="147"/>
+      <c r="N60" s="147"/>
+      <c r="O60" s="147"/>
+      <c r="P60" s="148"/>
     </row>
     <row r="61" spans="2:16" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="169"/>
-      <c r="C61" s="170"/>
-      <c r="D61" s="170"/>
-      <c r="E61" s="170"/>
-      <c r="F61" s="170"/>
-      <c r="G61" s="170"/>
-      <c r="H61" s="170"/>
-      <c r="I61" s="171"/>
-      <c r="J61" s="153"/>
-      <c r="K61" s="154"/>
-      <c r="L61" s="154"/>
-      <c r="M61" s="154"/>
-      <c r="N61" s="154"/>
-      <c r="O61" s="154"/>
-      <c r="P61" s="155"/>
+      <c r="B61" s="165"/>
+      <c r="C61" s="166"/>
+      <c r="D61" s="166"/>
+      <c r="E61" s="166"/>
+      <c r="F61" s="166"/>
+      <c r="G61" s="166"/>
+      <c r="H61" s="166"/>
+      <c r="I61" s="167"/>
+      <c r="J61" s="149"/>
+      <c r="K61" s="150"/>
+      <c r="L61" s="150"/>
+      <c r="M61" s="150"/>
+      <c r="N61" s="150"/>
+      <c r="O61" s="150"/>
+      <c r="P61" s="151"/>
     </row>
     <row r="62" spans="2:16" ht="14.65" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="K62" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="L62" s="156"/>
-      <c r="M62" s="156"/>
-      <c r="N62" s="156"/>
-      <c r="O62" s="156"/>
+      <c r="L62" s="152"/>
+      <c r="M62" s="152"/>
+      <c r="N62" s="152"/>
+      <c r="O62" s="152"/>
       <c r="P62" s="3"/>
     </row>
     <row r="63" spans="2:16" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="147"/>
-      <c r="C63" s="148"/>
-      <c r="D63" s="149"/>
-      <c r="E63" s="144"/>
-      <c r="F63" s="145"/>
-      <c r="G63" s="145"/>
-      <c r="H63" s="145"/>
-      <c r="I63" s="146"/>
+      <c r="B63" s="143"/>
+      <c r="C63" s="144"/>
+      <c r="D63" s="145"/>
+      <c r="E63" s="140"/>
+      <c r="F63" s="141"/>
+      <c r="G63" s="141"/>
+      <c r="H63" s="141"/>
+      <c r="I63" s="142"/>
       <c r="K63" s="4"/>
       <c r="L63" s="21"/>
       <c r="M63" s="21"/>
@@ -6761,14 +6963,14 @@
       <c r="P63" s="3"/>
     </row>
     <row r="64" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="147"/>
-      <c r="C64" s="148"/>
-      <c r="D64" s="149"/>
-      <c r="E64" s="144"/>
-      <c r="F64" s="145"/>
-      <c r="G64" s="145"/>
-      <c r="H64" s="145"/>
-      <c r="I64" s="146"/>
+      <c r="B64" s="143"/>
+      <c r="C64" s="144"/>
+      <c r="D64" s="145"/>
+      <c r="E64" s="140"/>
+      <c r="F64" s="141"/>
+      <c r="G64" s="141"/>
+      <c r="H64" s="141"/>
+      <c r="I64" s="142"/>
       <c r="K64" s="4"/>
       <c r="L64" s="21"/>
       <c r="M64" s="21"/>
@@ -6777,14 +6979,14 @@
       <c r="P64" s="3"/>
     </row>
     <row r="65" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B65" s="141"/>
-      <c r="C65" s="142"/>
-      <c r="D65" s="143"/>
-      <c r="E65" s="144"/>
-      <c r="F65" s="145"/>
-      <c r="G65" s="145"/>
-      <c r="H65" s="145"/>
-      <c r="I65" s="146"/>
+      <c r="B65" s="137"/>
+      <c r="C65" s="138"/>
+      <c r="D65" s="139"/>
+      <c r="E65" s="140"/>
+      <c r="F65" s="141"/>
+      <c r="G65" s="141"/>
+      <c r="H65" s="141"/>
+      <c r="I65" s="142"/>
       <c r="K65" s="4"/>
       <c r="L65" s="21"/>
       <c r="M65" s="21"/>
@@ -6794,14 +6996,14 @@
     </row>
     <row r="66" spans="1:16" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="7"/>
-      <c r="B66" s="141"/>
-      <c r="C66" s="142"/>
-      <c r="D66" s="143"/>
-      <c r="E66" s="144"/>
-      <c r="F66" s="145"/>
-      <c r="G66" s="145"/>
-      <c r="H66" s="145"/>
-      <c r="I66" s="146"/>
+      <c r="B66" s="137"/>
+      <c r="C66" s="138"/>
+      <c r="D66" s="139"/>
+      <c r="E66" s="140"/>
+      <c r="F66" s="141"/>
+      <c r="G66" s="141"/>
+      <c r="H66" s="141"/>
+      <c r="I66" s="142"/>
       <c r="J66" s="23"/>
       <c r="K66" s="6"/>
       <c r="L66" s="6"/>
@@ -6812,14 +7014,14 @@
     </row>
     <row r="67" spans="1:16" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="7"/>
-      <c r="B67" s="141"/>
-      <c r="C67" s="142"/>
-      <c r="D67" s="143"/>
-      <c r="E67" s="144"/>
-      <c r="F67" s="145"/>
-      <c r="G67" s="145"/>
-      <c r="H67" s="145"/>
-      <c r="I67" s="146"/>
+      <c r="B67" s="137"/>
+      <c r="C67" s="138"/>
+      <c r="D67" s="139"/>
+      <c r="E67" s="140"/>
+      <c r="F67" s="141"/>
+      <c r="G67" s="141"/>
+      <c r="H67" s="141"/>
+      <c r="I67" s="142"/>
       <c r="J67" s="23"/>
       <c r="K67" s="6"/>
       <c r="L67" s="6"/>
@@ -6830,14 +7032,14 @@
     </row>
     <row r="68" spans="1:16" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="7"/>
-      <c r="B68" s="141"/>
-      <c r="C68" s="142"/>
-      <c r="D68" s="143"/>
-      <c r="E68" s="144"/>
-      <c r="F68" s="145"/>
-      <c r="G68" s="145"/>
-      <c r="H68" s="145"/>
-      <c r="I68" s="146"/>
+      <c r="B68" s="137"/>
+      <c r="C68" s="138"/>
+      <c r="D68" s="139"/>
+      <c r="E68" s="140"/>
+      <c r="F68" s="141"/>
+      <c r="G68" s="141"/>
+      <c r="H68" s="141"/>
+      <c r="I68" s="142"/>
       <c r="J68" s="23"/>
       <c r="K68" s="6"/>
       <c r="L68" s="6"/>
@@ -6866,61 +7068,61 @@
     </row>
     <row r="70" spans="1:16" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="7"/>
-      <c r="B70" s="131" t="s">
+      <c r="B70" s="127" t="s">
         <v>33</v>
       </c>
-      <c r="C70" s="132"/>
-      <c r="D70" s="133"/>
-      <c r="E70" s="134"/>
-      <c r="F70" s="134"/>
-      <c r="G70" s="134"/>
-      <c r="H70" s="134"/>
-      <c r="I70" s="134"/>
-      <c r="J70" s="135"/>
-      <c r="K70" s="129"/>
-      <c r="L70" s="130"/>
-      <c r="M70" s="130"/>
-      <c r="N70" s="130"/>
-      <c r="O70" s="130"/>
-      <c r="P70" s="130"/>
+      <c r="C70" s="128"/>
+      <c r="D70" s="129"/>
+      <c r="E70" s="130"/>
+      <c r="F70" s="130"/>
+      <c r="G70" s="130"/>
+      <c r="H70" s="130"/>
+      <c r="I70" s="130"/>
+      <c r="J70" s="131"/>
+      <c r="K70" s="125"/>
+      <c r="L70" s="126"/>
+      <c r="M70" s="126"/>
+      <c r="N70" s="126"/>
+      <c r="O70" s="126"/>
+      <c r="P70" s="126"/>
     </row>
     <row r="71" spans="1:16" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="7"/>
-      <c r="B71" s="131" t="s">
+      <c r="B71" s="127" t="s">
         <v>46</v>
       </c>
-      <c r="C71" s="132"/>
-      <c r="D71" s="133"/>
-      <c r="E71" s="134"/>
-      <c r="F71" s="134"/>
-      <c r="G71" s="134"/>
-      <c r="H71" s="134"/>
-      <c r="I71" s="134"/>
-      <c r="J71" s="135"/>
-      <c r="K71" s="136"/>
-      <c r="L71" s="137"/>
-      <c r="M71" s="137"/>
-      <c r="N71" s="137"/>
-      <c r="O71" s="137"/>
-      <c r="P71" s="129"/>
+      <c r="C71" s="128"/>
+      <c r="D71" s="129"/>
+      <c r="E71" s="130"/>
+      <c r="F71" s="130"/>
+      <c r="G71" s="130"/>
+      <c r="H71" s="130"/>
+      <c r="I71" s="130"/>
+      <c r="J71" s="131"/>
+      <c r="K71" s="132"/>
+      <c r="L71" s="133"/>
+      <c r="M71" s="133"/>
+      <c r="N71" s="133"/>
+      <c r="O71" s="133"/>
+      <c r="P71" s="125"/>
     </row>
     <row r="72" spans="1:16" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="7"/>
-      <c r="B72" s="138"/>
-      <c r="C72" s="139"/>
-      <c r="D72" s="138"/>
-      <c r="E72" s="139"/>
-      <c r="F72" s="139"/>
-      <c r="G72" s="139"/>
-      <c r="H72" s="139"/>
-      <c r="I72" s="139"/>
-      <c r="J72" s="140"/>
-      <c r="K72" s="136"/>
-      <c r="L72" s="137"/>
-      <c r="M72" s="137"/>
-      <c r="N72" s="137"/>
-      <c r="O72" s="137"/>
-      <c r="P72" s="129"/>
+      <c r="B72" s="134"/>
+      <c r="C72" s="135"/>
+      <c r="D72" s="134"/>
+      <c r="E72" s="135"/>
+      <c r="F72" s="135"/>
+      <c r="G72" s="135"/>
+      <c r="H72" s="135"/>
+      <c r="I72" s="135"/>
+      <c r="J72" s="136"/>
+      <c r="K72" s="132"/>
+      <c r="L72" s="133"/>
+      <c r="M72" s="133"/>
+      <c r="N72" s="133"/>
+      <c r="O72" s="133"/>
+      <c r="P72" s="125"/>
     </row>
     <row r="73" spans="1:16" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="7"/>
@@ -6942,14 +7144,14 @@
     </row>
     <row r="74" spans="1:16" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="7"/>
-      <c r="B74" s="80" t="s">
+      <c r="B74" s="76" t="s">
         <v>44</v>
       </c>
-      <c r="C74" s="80"/>
-      <c r="D74" s="80"/>
-      <c r="E74" s="80"/>
-      <c r="F74" s="80"/>
-      <c r="G74" s="80"/>
+      <c r="C74" s="76"/>
+      <c r="D74" s="76"/>
+      <c r="E74" s="76"/>
+      <c r="F74" s="76"/>
+      <c r="G74" s="76"/>
       <c r="H74" s="23"/>
       <c r="I74" s="23"/>
       <c r="J74" s="23"/>
@@ -6980,493 +7182,493 @@
     </row>
     <row r="76" spans="1:16" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
-      <c r="B76" s="127" t="s">
+      <c r="B76" s="123" t="s">
         <v>45</v>
       </c>
-      <c r="C76" s="127"/>
-      <c r="D76" s="127"/>
-      <c r="E76" s="127"/>
-      <c r="F76" s="127"/>
-      <c r="G76" s="127"/>
-      <c r="H76" s="127"/>
-      <c r="I76" s="127"/>
-      <c r="J76" s="127"/>
-      <c r="K76" s="127"/>
-      <c r="L76" s="127"/>
-      <c r="M76" s="128" t="str">
+      <c r="C76" s="123"/>
+      <c r="D76" s="123"/>
+      <c r="E76" s="123"/>
+      <c r="F76" s="123"/>
+      <c r="G76" s="123"/>
+      <c r="H76" s="123"/>
+      <c r="I76" s="123"/>
+      <c r="J76" s="123"/>
+      <c r="K76" s="123"/>
+      <c r="L76" s="123"/>
+      <c r="M76" s="124" t="str">
         <f>IF(L4="","",L4)</f>
         <v/>
       </c>
-      <c r="N76" s="128"/>
-      <c r="O76" s="128"/>
-      <c r="P76" s="128"/>
+      <c r="N76" s="124"/>
+      <c r="O76" s="124"/>
+      <c r="P76" s="124"/>
     </row>
     <row r="77" spans="1:16" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
-      <c r="B77" s="127"/>
-      <c r="C77" s="127"/>
-      <c r="D77" s="127"/>
-      <c r="E77" s="127"/>
-      <c r="F77" s="127"/>
-      <c r="G77" s="127"/>
-      <c r="H77" s="127"/>
-      <c r="I77" s="127"/>
-      <c r="J77" s="127"/>
-      <c r="K77" s="127"/>
-      <c r="L77" s="127"/>
-      <c r="M77" s="128"/>
-      <c r="N77" s="128"/>
-      <c r="O77" s="128"/>
-      <c r="P77" s="128"/>
+      <c r="B77" s="123"/>
+      <c r="C77" s="123"/>
+      <c r="D77" s="123"/>
+      <c r="E77" s="123"/>
+      <c r="F77" s="123"/>
+      <c r="G77" s="123"/>
+      <c r="H77" s="123"/>
+      <c r="I77" s="123"/>
+      <c r="J77" s="123"/>
+      <c r="K77" s="123"/>
+      <c r="L77" s="123"/>
+      <c r="M77" s="124"/>
+      <c r="N77" s="124"/>
+      <c r="O77" s="124"/>
+      <c r="P77" s="124"/>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B78" s="127"/>
-      <c r="C78" s="127"/>
-      <c r="D78" s="127"/>
-      <c r="E78" s="127"/>
-      <c r="F78" s="127"/>
-      <c r="G78" s="127"/>
-      <c r="H78" s="127"/>
-      <c r="I78" s="127"/>
-      <c r="J78" s="127"/>
-      <c r="K78" s="127"/>
-      <c r="L78" s="127"/>
-      <c r="M78" s="128"/>
-      <c r="N78" s="128"/>
-      <c r="O78" s="128"/>
-      <c r="P78" s="128"/>
+      <c r="B78" s="123"/>
+      <c r="C78" s="123"/>
+      <c r="D78" s="123"/>
+      <c r="E78" s="123"/>
+      <c r="F78" s="123"/>
+      <c r="G78" s="123"/>
+      <c r="H78" s="123"/>
+      <c r="I78" s="123"/>
+      <c r="J78" s="123"/>
+      <c r="K78" s="123"/>
+      <c r="L78" s="123"/>
+      <c r="M78" s="124"/>
+      <c r="N78" s="124"/>
+      <c r="O78" s="124"/>
+      <c r="P78" s="124"/>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B79" s="127"/>
-      <c r="C79" s="127"/>
-      <c r="D79" s="127"/>
-      <c r="E79" s="127"/>
-      <c r="F79" s="127"/>
-      <c r="G79" s="127"/>
-      <c r="H79" s="127"/>
-      <c r="I79" s="127"/>
-      <c r="J79" s="127"/>
-      <c r="K79" s="127"/>
-      <c r="L79" s="127"/>
-      <c r="M79" s="128"/>
-      <c r="N79" s="128"/>
-      <c r="O79" s="128"/>
-      <c r="P79" s="128"/>
+      <c r="B79" s="123"/>
+      <c r="C79" s="123"/>
+      <c r="D79" s="123"/>
+      <c r="E79" s="123"/>
+      <c r="F79" s="123"/>
+      <c r="G79" s="123"/>
+      <c r="H79" s="123"/>
+      <c r="I79" s="123"/>
+      <c r="J79" s="123"/>
+      <c r="K79" s="123"/>
+      <c r="L79" s="123"/>
+      <c r="M79" s="124"/>
+      <c r="N79" s="124"/>
+      <c r="O79" s="124"/>
+      <c r="P79" s="124"/>
     </row>
     <row r="80" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="42" t="s">
+      <c r="B80" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="C80" s="42"/>
-      <c r="D80" s="42"/>
-      <c r="E80" s="42"/>
-      <c r="F80" s="42"/>
-      <c r="G80" s="42"/>
-      <c r="H80" s="42"/>
-      <c r="I80" s="42"/>
-      <c r="J80" s="42"/>
-      <c r="K80" s="42"/>
+      <c r="C80" s="44"/>
+      <c r="D80" s="44"/>
+      <c r="E80" s="44"/>
+      <c r="F80" s="44"/>
+      <c r="G80" s="44"/>
+      <c r="H80" s="44"/>
+      <c r="I80" s="44"/>
+      <c r="J80" s="44"/>
+      <c r="K80" s="44"/>
     </row>
     <row r="81" spans="2:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="122"/>
-      <c r="C81" s="123"/>
-      <c r="D81" s="123"/>
-      <c r="E81" s="123"/>
-      <c r="F81" s="123"/>
-      <c r="G81" s="123"/>
-      <c r="H81" s="123"/>
-      <c r="I81" s="123"/>
-      <c r="J81" s="123"/>
-      <c r="K81" s="123"/>
-      <c r="L81" s="123"/>
-      <c r="M81" s="123"/>
-      <c r="N81" s="123"/>
-      <c r="O81" s="123"/>
+      <c r="B81" s="118"/>
+      <c r="C81" s="119"/>
+      <c r="D81" s="119"/>
+      <c r="E81" s="119"/>
+      <c r="F81" s="119"/>
+      <c r="G81" s="119"/>
+      <c r="H81" s="119"/>
+      <c r="I81" s="119"/>
+      <c r="J81" s="119"/>
+      <c r="K81" s="119"/>
+      <c r="L81" s="119"/>
+      <c r="M81" s="119"/>
+      <c r="N81" s="119"/>
+      <c r="O81" s="119"/>
     </row>
     <row r="82" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="122"/>
-      <c r="C82" s="123"/>
-      <c r="D82" s="123"/>
-      <c r="E82" s="123"/>
-      <c r="F82" s="123"/>
-      <c r="G82" s="123"/>
-      <c r="H82" s="123"/>
-      <c r="I82" s="123"/>
-      <c r="J82" s="123"/>
-      <c r="K82" s="123"/>
-      <c r="L82" s="123"/>
-      <c r="M82" s="123"/>
-      <c r="N82" s="123"/>
-      <c r="O82" s="123"/>
+      <c r="B82" s="118"/>
+      <c r="C82" s="119"/>
+      <c r="D82" s="119"/>
+      <c r="E82" s="119"/>
+      <c r="F82" s="119"/>
+      <c r="G82" s="119"/>
+      <c r="H82" s="119"/>
+      <c r="I82" s="119"/>
+      <c r="J82" s="119"/>
+      <c r="K82" s="119"/>
+      <c r="L82" s="119"/>
+      <c r="M82" s="119"/>
+      <c r="N82" s="119"/>
+      <c r="O82" s="119"/>
     </row>
     <row r="83" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B83" s="122"/>
-      <c r="C83" s="123"/>
-      <c r="D83" s="123"/>
-      <c r="E83" s="123"/>
-      <c r="F83" s="123"/>
-      <c r="G83" s="123"/>
-      <c r="H83" s="123"/>
-      <c r="I83" s="123"/>
-      <c r="J83" s="123"/>
-      <c r="K83" s="123"/>
-      <c r="L83" s="123"/>
-      <c r="M83" s="123"/>
-      <c r="N83" s="123"/>
-      <c r="O83" s="123"/>
+      <c r="B83" s="118"/>
+      <c r="C83" s="119"/>
+      <c r="D83" s="119"/>
+      <c r="E83" s="119"/>
+      <c r="F83" s="119"/>
+      <c r="G83" s="119"/>
+      <c r="H83" s="119"/>
+      <c r="I83" s="119"/>
+      <c r="J83" s="119"/>
+      <c r="K83" s="119"/>
+      <c r="L83" s="119"/>
+      <c r="M83" s="119"/>
+      <c r="N83" s="119"/>
+      <c r="O83" s="119"/>
     </row>
     <row r="84" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B84" s="122"/>
-      <c r="C84" s="123"/>
-      <c r="D84" s="123"/>
-      <c r="E84" s="123"/>
-      <c r="F84" s="123"/>
-      <c r="G84" s="123"/>
-      <c r="H84" s="123"/>
-      <c r="I84" s="123"/>
-      <c r="J84" s="123"/>
-      <c r="K84" s="123"/>
-      <c r="L84" s="123"/>
-      <c r="M84" s="123"/>
-      <c r="N84" s="123"/>
-      <c r="O84" s="123"/>
+      <c r="B84" s="118"/>
+      <c r="C84" s="119"/>
+      <c r="D84" s="119"/>
+      <c r="E84" s="119"/>
+      <c r="F84" s="119"/>
+      <c r="G84" s="119"/>
+      <c r="H84" s="119"/>
+      <c r="I84" s="119"/>
+      <c r="J84" s="119"/>
+      <c r="K84" s="119"/>
+      <c r="L84" s="119"/>
+      <c r="M84" s="119"/>
+      <c r="N84" s="119"/>
+      <c r="O84" s="119"/>
     </row>
     <row r="85" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B85" s="122"/>
-      <c r="C85" s="123"/>
-      <c r="D85" s="123"/>
-      <c r="E85" s="123"/>
-      <c r="F85" s="123"/>
-      <c r="G85" s="123"/>
-      <c r="H85" s="123"/>
-      <c r="I85" s="123"/>
-      <c r="J85" s="123"/>
-      <c r="K85" s="123"/>
-      <c r="L85" s="123"/>
-      <c r="M85" s="123"/>
-      <c r="N85" s="123"/>
-      <c r="O85" s="123"/>
+      <c r="B85" s="118"/>
+      <c r="C85" s="119"/>
+      <c r="D85" s="119"/>
+      <c r="E85" s="119"/>
+      <c r="F85" s="119"/>
+      <c r="G85" s="119"/>
+      <c r="H85" s="119"/>
+      <c r="I85" s="119"/>
+      <c r="J85" s="119"/>
+      <c r="K85" s="119"/>
+      <c r="L85" s="119"/>
+      <c r="M85" s="119"/>
+      <c r="N85" s="119"/>
+      <c r="O85" s="119"/>
       <c r="P85"/>
     </row>
     <row r="86" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B86" s="122"/>
-      <c r="C86" s="123"/>
-      <c r="D86" s="123"/>
-      <c r="E86" s="123"/>
-      <c r="F86" s="123"/>
-      <c r="G86" s="123"/>
-      <c r="H86" s="123"/>
-      <c r="I86" s="123"/>
-      <c r="J86" s="123"/>
-      <c r="K86" s="123"/>
-      <c r="L86" s="123"/>
-      <c r="M86" s="123"/>
-      <c r="N86" s="123"/>
-      <c r="O86" s="123"/>
+      <c r="B86" s="118"/>
+      <c r="C86" s="119"/>
+      <c r="D86" s="119"/>
+      <c r="E86" s="119"/>
+      <c r="F86" s="119"/>
+      <c r="G86" s="119"/>
+      <c r="H86" s="119"/>
+      <c r="I86" s="119"/>
+      <c r="J86" s="119"/>
+      <c r="K86" s="119"/>
+      <c r="L86" s="119"/>
+      <c r="M86" s="119"/>
+      <c r="N86" s="119"/>
+      <c r="O86" s="119"/>
       <c r="P86"/>
     </row>
     <row r="87" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B87" s="122"/>
-      <c r="C87" s="123"/>
-      <c r="D87" s="123"/>
-      <c r="E87" s="123"/>
-      <c r="F87" s="123"/>
-      <c r="G87" s="123"/>
-      <c r="H87" s="123"/>
-      <c r="I87" s="123"/>
-      <c r="J87" s="123"/>
-      <c r="K87" s="123"/>
-      <c r="L87" s="123"/>
-      <c r="M87" s="123"/>
-      <c r="N87" s="123"/>
-      <c r="O87" s="123"/>
+      <c r="B87" s="118"/>
+      <c r="C87" s="119"/>
+      <c r="D87" s="119"/>
+      <c r="E87" s="119"/>
+      <c r="F87" s="119"/>
+      <c r="G87" s="119"/>
+      <c r="H87" s="119"/>
+      <c r="I87" s="119"/>
+      <c r="J87" s="119"/>
+      <c r="K87" s="119"/>
+      <c r="L87" s="119"/>
+      <c r="M87" s="119"/>
+      <c r="N87" s="119"/>
+      <c r="O87" s="119"/>
       <c r="P87"/>
     </row>
     <row r="88" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B88" s="122"/>
-      <c r="C88" s="123"/>
-      <c r="D88" s="123"/>
-      <c r="E88" s="123"/>
-      <c r="F88" s="123"/>
-      <c r="G88" s="123"/>
-      <c r="H88" s="123"/>
-      <c r="I88" s="123"/>
-      <c r="J88" s="123"/>
-      <c r="K88" s="123"/>
-      <c r="L88" s="123"/>
-      <c r="M88" s="123"/>
-      <c r="N88" s="123"/>
-      <c r="O88" s="123"/>
+      <c r="B88" s="118"/>
+      <c r="C88" s="119"/>
+      <c r="D88" s="119"/>
+      <c r="E88" s="119"/>
+      <c r="F88" s="119"/>
+      <c r="G88" s="119"/>
+      <c r="H88" s="119"/>
+      <c r="I88" s="119"/>
+      <c r="J88" s="119"/>
+      <c r="K88" s="119"/>
+      <c r="L88" s="119"/>
+      <c r="M88" s="119"/>
+      <c r="N88" s="119"/>
+      <c r="O88" s="119"/>
       <c r="P88"/>
       <c r="Q88"/>
     </row>
     <row r="89" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B89" s="122"/>
-      <c r="C89" s="123"/>
-      <c r="D89" s="123"/>
-      <c r="E89" s="123"/>
-      <c r="F89" s="123"/>
-      <c r="G89" s="123"/>
-      <c r="H89" s="123"/>
-      <c r="I89" s="123"/>
-      <c r="J89" s="123"/>
-      <c r="K89" s="123"/>
-      <c r="L89" s="123"/>
-      <c r="M89" s="123"/>
-      <c r="N89" s="123"/>
-      <c r="O89" s="123"/>
+      <c r="B89" s="118"/>
+      <c r="C89" s="119"/>
+      <c r="D89" s="119"/>
+      <c r="E89" s="119"/>
+      <c r="F89" s="119"/>
+      <c r="G89" s="119"/>
+      <c r="H89" s="119"/>
+      <c r="I89" s="119"/>
+      <c r="J89" s="119"/>
+      <c r="K89" s="119"/>
+      <c r="L89" s="119"/>
+      <c r="M89" s="119"/>
+      <c r="N89" s="119"/>
+      <c r="O89" s="119"/>
       <c r="P89"/>
       <c r="Q89"/>
     </row>
     <row r="90" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B90" s="122"/>
-      <c r="C90" s="123"/>
-      <c r="D90" s="123"/>
-      <c r="E90" s="123"/>
-      <c r="F90" s="123"/>
-      <c r="G90" s="123"/>
-      <c r="H90" s="123"/>
-      <c r="I90" s="123"/>
-      <c r="J90" s="123"/>
-      <c r="K90" s="123"/>
-      <c r="L90" s="123"/>
-      <c r="M90" s="123"/>
-      <c r="N90" s="123"/>
-      <c r="O90" s="123"/>
+      <c r="B90" s="118"/>
+      <c r="C90" s="119"/>
+      <c r="D90" s="119"/>
+      <c r="E90" s="119"/>
+      <c r="F90" s="119"/>
+      <c r="G90" s="119"/>
+      <c r="H90" s="119"/>
+      <c r="I90" s="119"/>
+      <c r="J90" s="119"/>
+      <c r="K90" s="119"/>
+      <c r="L90" s="119"/>
+      <c r="M90" s="119"/>
+      <c r="N90" s="119"/>
+      <c r="O90" s="119"/>
       <c r="P90"/>
       <c r="Q90"/>
     </row>
     <row r="91" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B91" s="122"/>
-      <c r="C91" s="123"/>
-      <c r="D91" s="123"/>
-      <c r="E91" s="123"/>
-      <c r="F91" s="123"/>
-      <c r="G91" s="123"/>
-      <c r="H91" s="123"/>
-      <c r="I91" s="123"/>
-      <c r="J91" s="123"/>
-      <c r="K91" s="123"/>
-      <c r="L91" s="123"/>
-      <c r="M91" s="123"/>
-      <c r="N91" s="123"/>
-      <c r="O91" s="123"/>
+      <c r="B91" s="118"/>
+      <c r="C91" s="119"/>
+      <c r="D91" s="119"/>
+      <c r="E91" s="119"/>
+      <c r="F91" s="119"/>
+      <c r="G91" s="119"/>
+      <c r="H91" s="119"/>
+      <c r="I91" s="119"/>
+      <c r="J91" s="119"/>
+      <c r="K91" s="119"/>
+      <c r="L91" s="119"/>
+      <c r="M91" s="119"/>
+      <c r="N91" s="119"/>
+      <c r="O91" s="119"/>
       <c r="P91"/>
       <c r="Q91"/>
     </row>
     <row r="92" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B92" s="122"/>
-      <c r="C92" s="123"/>
-      <c r="D92" s="123"/>
-      <c r="E92" s="123"/>
-      <c r="F92" s="123"/>
-      <c r="G92" s="123"/>
-      <c r="H92" s="123"/>
-      <c r="I92" s="123"/>
-      <c r="J92" s="123"/>
-      <c r="K92" s="123"/>
-      <c r="L92" s="123"/>
-      <c r="M92" s="123"/>
-      <c r="N92" s="123"/>
-      <c r="O92" s="123"/>
+      <c r="B92" s="118"/>
+      <c r="C92" s="119"/>
+      <c r="D92" s="119"/>
+      <c r="E92" s="119"/>
+      <c r="F92" s="119"/>
+      <c r="G92" s="119"/>
+      <c r="H92" s="119"/>
+      <c r="I92" s="119"/>
+      <c r="J92" s="119"/>
+      <c r="K92" s="119"/>
+      <c r="L92" s="119"/>
+      <c r="M92" s="119"/>
+      <c r="N92" s="119"/>
+      <c r="O92" s="119"/>
       <c r="P92"/>
       <c r="Q92"/>
     </row>
     <row r="93" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B93" s="122"/>
-      <c r="C93" s="123"/>
-      <c r="D93" s="123"/>
-      <c r="E93" s="123"/>
-      <c r="F93" s="123"/>
-      <c r="G93" s="123"/>
-      <c r="H93" s="123"/>
-      <c r="I93" s="123"/>
-      <c r="J93" s="123"/>
-      <c r="K93" s="123"/>
-      <c r="L93" s="123"/>
-      <c r="M93" s="123"/>
-      <c r="N93" s="123"/>
-      <c r="O93" s="123"/>
+      <c r="B93" s="118"/>
+      <c r="C93" s="119"/>
+      <c r="D93" s="119"/>
+      <c r="E93" s="119"/>
+      <c r="F93" s="119"/>
+      <c r="G93" s="119"/>
+      <c r="H93" s="119"/>
+      <c r="I93" s="119"/>
+      <c r="J93" s="119"/>
+      <c r="K93" s="119"/>
+      <c r="L93" s="119"/>
+      <c r="M93" s="119"/>
+      <c r="N93" s="119"/>
+      <c r="O93" s="119"/>
       <c r="P93"/>
       <c r="Q93"/>
     </row>
     <row r="94" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B94" s="122"/>
-      <c r="C94" s="123"/>
-      <c r="D94" s="123"/>
-      <c r="E94" s="123"/>
-      <c r="F94" s="123"/>
-      <c r="G94" s="123"/>
-      <c r="H94" s="123"/>
-      <c r="I94" s="123"/>
-      <c r="J94" s="123"/>
-      <c r="K94" s="123"/>
-      <c r="L94" s="123"/>
-      <c r="M94" s="123"/>
-      <c r="N94" s="123"/>
-      <c r="O94" s="123"/>
+      <c r="B94" s="118"/>
+      <c r="C94" s="119"/>
+      <c r="D94" s="119"/>
+      <c r="E94" s="119"/>
+      <c r="F94" s="119"/>
+      <c r="G94" s="119"/>
+      <c r="H94" s="119"/>
+      <c r="I94" s="119"/>
+      <c r="J94" s="119"/>
+      <c r="K94" s="119"/>
+      <c r="L94" s="119"/>
+      <c r="M94" s="119"/>
+      <c r="N94" s="119"/>
+      <c r="O94" s="119"/>
       <c r="P94"/>
       <c r="Q94"/>
     </row>
     <row r="95" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B95" s="122"/>
-      <c r="C95" s="123"/>
-      <c r="D95" s="123"/>
-      <c r="E95" s="123"/>
-      <c r="F95" s="123"/>
-      <c r="G95" s="123"/>
-      <c r="H95" s="123"/>
-      <c r="I95" s="123"/>
-      <c r="J95" s="123"/>
-      <c r="K95" s="123"/>
-      <c r="L95" s="123"/>
-      <c r="M95" s="123"/>
-      <c r="N95" s="123"/>
-      <c r="O95" s="123"/>
+      <c r="B95" s="118"/>
+      <c r="C95" s="119"/>
+      <c r="D95" s="119"/>
+      <c r="E95" s="119"/>
+      <c r="F95" s="119"/>
+      <c r="G95" s="119"/>
+      <c r="H95" s="119"/>
+      <c r="I95" s="119"/>
+      <c r="J95" s="119"/>
+      <c r="K95" s="119"/>
+      <c r="L95" s="119"/>
+      <c r="M95" s="119"/>
+      <c r="N95" s="119"/>
+      <c r="O95" s="119"/>
       <c r="P95"/>
       <c r="Q95"/>
     </row>
     <row r="96" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B96" s="122"/>
-      <c r="C96" s="123"/>
-      <c r="D96" s="123"/>
-      <c r="E96" s="123"/>
-      <c r="F96" s="123"/>
-      <c r="G96" s="123"/>
-      <c r="H96" s="123"/>
-      <c r="I96" s="123"/>
-      <c r="J96" s="123"/>
-      <c r="K96" s="123"/>
-      <c r="L96" s="123"/>
-      <c r="M96" s="123"/>
-      <c r="N96" s="123"/>
-      <c r="O96" s="123"/>
+      <c r="B96" s="118"/>
+      <c r="C96" s="119"/>
+      <c r="D96" s="119"/>
+      <c r="E96" s="119"/>
+      <c r="F96" s="119"/>
+      <c r="G96" s="119"/>
+      <c r="H96" s="119"/>
+      <c r="I96" s="119"/>
+      <c r="J96" s="119"/>
+      <c r="K96" s="119"/>
+      <c r="L96" s="119"/>
+      <c r="M96" s="119"/>
+      <c r="N96" s="119"/>
+      <c r="O96" s="119"/>
       <c r="P96"/>
       <c r="Q96"/>
     </row>
     <row r="97" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B97" s="122"/>
-      <c r="C97" s="123"/>
-      <c r="D97" s="123"/>
-      <c r="E97" s="123"/>
-      <c r="F97" s="123"/>
-      <c r="G97" s="123"/>
-      <c r="H97" s="123"/>
-      <c r="I97" s="123"/>
-      <c r="J97" s="123"/>
-      <c r="K97" s="123"/>
-      <c r="L97" s="123"/>
-      <c r="M97" s="123"/>
-      <c r="N97" s="123"/>
-      <c r="O97" s="123"/>
+      <c r="B97" s="118"/>
+      <c r="C97" s="119"/>
+      <c r="D97" s="119"/>
+      <c r="E97" s="119"/>
+      <c r="F97" s="119"/>
+      <c r="G97" s="119"/>
+      <c r="H97" s="119"/>
+      <c r="I97" s="119"/>
+      <c r="J97" s="119"/>
+      <c r="K97" s="119"/>
+      <c r="L97" s="119"/>
+      <c r="M97" s="119"/>
+      <c r="N97" s="119"/>
+      <c r="O97" s="119"/>
       <c r="P97"/>
       <c r="Q97"/>
     </row>
     <row r="98" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B98" s="122"/>
-      <c r="C98" s="123"/>
-      <c r="D98" s="123"/>
-      <c r="E98" s="123"/>
-      <c r="F98" s="123"/>
-      <c r="G98" s="123"/>
-      <c r="H98" s="123"/>
-      <c r="I98" s="123"/>
-      <c r="J98" s="123"/>
-      <c r="K98" s="123"/>
-      <c r="L98" s="123"/>
-      <c r="M98" s="123"/>
-      <c r="N98" s="123"/>
-      <c r="O98" s="123"/>
+      <c r="B98" s="118"/>
+      <c r="C98" s="119"/>
+      <c r="D98" s="119"/>
+      <c r="E98" s="119"/>
+      <c r="F98" s="119"/>
+      <c r="G98" s="119"/>
+      <c r="H98" s="119"/>
+      <c r="I98" s="119"/>
+      <c r="J98" s="119"/>
+      <c r="K98" s="119"/>
+      <c r="L98" s="119"/>
+      <c r="M98" s="119"/>
+      <c r="N98" s="119"/>
+      <c r="O98" s="119"/>
       <c r="P98"/>
       <c r="Q98"/>
     </row>
     <row r="99" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B99" s="122"/>
-      <c r="C99" s="123"/>
-      <c r="D99" s="123"/>
-      <c r="E99" s="123"/>
-      <c r="F99" s="123"/>
-      <c r="G99" s="123"/>
-      <c r="H99" s="123"/>
-      <c r="I99" s="123"/>
-      <c r="J99" s="123"/>
-      <c r="K99" s="123"/>
-      <c r="L99" s="123"/>
-      <c r="M99" s="123"/>
-      <c r="N99" s="123"/>
-      <c r="O99" s="123"/>
+      <c r="B99" s="118"/>
+      <c r="C99" s="119"/>
+      <c r="D99" s="119"/>
+      <c r="E99" s="119"/>
+      <c r="F99" s="119"/>
+      <c r="G99" s="119"/>
+      <c r="H99" s="119"/>
+      <c r="I99" s="119"/>
+      <c r="J99" s="119"/>
+      <c r="K99" s="119"/>
+      <c r="L99" s="119"/>
+      <c r="M99" s="119"/>
+      <c r="N99" s="119"/>
+      <c r="O99" s="119"/>
       <c r="P99"/>
       <c r="Q99"/>
     </row>
     <row r="100" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B100" s="122"/>
-      <c r="C100" s="123"/>
-      <c r="D100" s="123"/>
-      <c r="E100" s="123"/>
-      <c r="F100" s="123"/>
-      <c r="G100" s="123"/>
-      <c r="H100" s="123"/>
-      <c r="I100" s="123"/>
-      <c r="J100" s="123"/>
-      <c r="K100" s="123"/>
-      <c r="L100" s="123"/>
-      <c r="M100" s="123"/>
-      <c r="N100" s="123"/>
-      <c r="O100" s="123"/>
+      <c r="B100" s="118"/>
+      <c r="C100" s="119"/>
+      <c r="D100" s="119"/>
+      <c r="E100" s="119"/>
+      <c r="F100" s="119"/>
+      <c r="G100" s="119"/>
+      <c r="H100" s="119"/>
+      <c r="I100" s="119"/>
+      <c r="J100" s="119"/>
+      <c r="K100" s="119"/>
+      <c r="L100" s="119"/>
+      <c r="M100" s="119"/>
+      <c r="N100" s="119"/>
+      <c r="O100" s="119"/>
       <c r="P100"/>
       <c r="Q100"/>
     </row>
     <row r="101" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B101" s="122"/>
-      <c r="C101" s="123"/>
-      <c r="D101" s="123"/>
-      <c r="E101" s="123"/>
-      <c r="F101" s="123"/>
-      <c r="G101" s="123"/>
-      <c r="H101" s="123"/>
-      <c r="I101" s="123"/>
-      <c r="J101" s="123"/>
-      <c r="K101" s="123"/>
-      <c r="L101" s="123"/>
-      <c r="M101" s="123"/>
-      <c r="N101" s="123"/>
-      <c r="O101" s="123"/>
+      <c r="B101" s="118"/>
+      <c r="C101" s="119"/>
+      <c r="D101" s="119"/>
+      <c r="E101" s="119"/>
+      <c r="F101" s="119"/>
+      <c r="G101" s="119"/>
+      <c r="H101" s="119"/>
+      <c r="I101" s="119"/>
+      <c r="J101" s="119"/>
+      <c r="K101" s="119"/>
+      <c r="L101" s="119"/>
+      <c r="M101" s="119"/>
+      <c r="N101" s="119"/>
+      <c r="O101" s="119"/>
       <c r="P101"/>
       <c r="Q101"/>
     </row>
     <row r="102" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B102" s="122"/>
-      <c r="C102" s="123"/>
-      <c r="D102" s="123"/>
-      <c r="E102" s="123"/>
-      <c r="F102" s="123"/>
-      <c r="G102" s="123"/>
-      <c r="H102" s="123"/>
-      <c r="I102" s="123"/>
-      <c r="J102" s="123"/>
-      <c r="K102" s="123"/>
-      <c r="L102" s="123"/>
-      <c r="M102" s="123"/>
-      <c r="N102" s="123"/>
-      <c r="O102" s="123"/>
+      <c r="B102" s="118"/>
+      <c r="C102" s="119"/>
+      <c r="D102" s="119"/>
+      <c r="E102" s="119"/>
+      <c r="F102" s="119"/>
+      <c r="G102" s="119"/>
+      <c r="H102" s="119"/>
+      <c r="I102" s="119"/>
+      <c r="J102" s="119"/>
+      <c r="K102" s="119"/>
+      <c r="L102" s="119"/>
+      <c r="M102" s="119"/>
+      <c r="N102" s="119"/>
+      <c r="O102" s="119"/>
       <c r="P102"/>
       <c r="Q102"/>
     </row>
     <row r="103" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B103" s="122"/>
-      <c r="C103" s="123"/>
-      <c r="D103" s="123"/>
-      <c r="E103" s="123"/>
-      <c r="F103" s="123"/>
-      <c r="G103" s="123"/>
-      <c r="H103" s="123"/>
-      <c r="I103" s="123"/>
-      <c r="J103" s="123"/>
-      <c r="K103" s="123"/>
-      <c r="L103" s="123"/>
-      <c r="M103" s="123"/>
-      <c r="N103" s="123"/>
-      <c r="O103" s="123"/>
+      <c r="B103" s="118"/>
+      <c r="C103" s="119"/>
+      <c r="D103" s="119"/>
+      <c r="E103" s="119"/>
+      <c r="F103" s="119"/>
+      <c r="G103" s="119"/>
+      <c r="H103" s="119"/>
+      <c r="I103" s="119"/>
+      <c r="J103" s="119"/>
+      <c r="K103" s="119"/>
+      <c r="L103" s="119"/>
+      <c r="M103" s="119"/>
+      <c r="N103" s="119"/>
+      <c r="O103" s="119"/>
       <c r="P103"/>
       <c r="Q103"/>
     </row>
@@ -7489,17 +7691,17 @@
       <c r="Q104"/>
     </row>
     <row r="105" spans="2:17" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B105" s="124" t="s">
+      <c r="B105" s="120" t="s">
         <v>11</v>
       </c>
-      <c r="C105" s="124"/>
-      <c r="D105" s="124"/>
-      <c r="E105" s="124"/>
-      <c r="F105" s="124"/>
-      <c r="G105" s="124"/>
-      <c r="H105" s="124"/>
-      <c r="I105" s="124"/>
-      <c r="J105" s="124"/>
+      <c r="C105" s="120"/>
+      <c r="D105" s="120"/>
+      <c r="E105" s="120"/>
+      <c r="F105" s="120"/>
+      <c r="G105" s="120"/>
+      <c r="H105" s="120"/>
+      <c r="I105" s="120"/>
+      <c r="J105" s="120"/>
       <c r="K105"/>
       <c r="L105"/>
       <c r="M105"/>
@@ -7509,416 +7711,416 @@
       <c r="Q105"/>
     </row>
     <row r="106" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B106" s="122"/>
-      <c r="C106" s="123"/>
-      <c r="D106" s="123"/>
-      <c r="E106" s="123"/>
-      <c r="F106" s="123"/>
-      <c r="G106" s="123"/>
-      <c r="H106" s="123"/>
-      <c r="I106" s="123"/>
-      <c r="J106" s="123"/>
-      <c r="K106" s="123"/>
-      <c r="L106" s="123"/>
-      <c r="M106" s="123"/>
-      <c r="N106" s="123"/>
-      <c r="O106" s="123"/>
+      <c r="B106" s="118"/>
+      <c r="C106" s="119"/>
+      <c r="D106" s="119"/>
+      <c r="E106" s="119"/>
+      <c r="F106" s="119"/>
+      <c r="G106" s="119"/>
+      <c r="H106" s="119"/>
+      <c r="I106" s="119"/>
+      <c r="J106" s="119"/>
+      <c r="K106" s="119"/>
+      <c r="L106" s="119"/>
+      <c r="M106" s="119"/>
+      <c r="N106" s="119"/>
+      <c r="O106" s="119"/>
       <c r="P106"/>
       <c r="Q106"/>
     </row>
     <row r="107" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B107" s="122"/>
-      <c r="C107" s="123"/>
-      <c r="D107" s="123"/>
-      <c r="E107" s="123"/>
-      <c r="F107" s="123"/>
-      <c r="G107" s="123"/>
-      <c r="H107" s="123"/>
-      <c r="I107" s="123"/>
-      <c r="J107" s="123"/>
-      <c r="K107" s="123"/>
-      <c r="L107" s="123"/>
-      <c r="M107" s="123"/>
-      <c r="N107" s="123"/>
-      <c r="O107" s="123"/>
+      <c r="B107" s="118"/>
+      <c r="C107" s="119"/>
+      <c r="D107" s="119"/>
+      <c r="E107" s="119"/>
+      <c r="F107" s="119"/>
+      <c r="G107" s="119"/>
+      <c r="H107" s="119"/>
+      <c r="I107" s="119"/>
+      <c r="J107" s="119"/>
+      <c r="K107" s="119"/>
+      <c r="L107" s="119"/>
+      <c r="M107" s="119"/>
+      <c r="N107" s="119"/>
+      <c r="O107" s="119"/>
       <c r="P107"/>
       <c r="Q107"/>
     </row>
     <row r="108" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B108" s="122"/>
-      <c r="C108" s="123"/>
-      <c r="D108" s="123"/>
-      <c r="E108" s="123"/>
-      <c r="F108" s="123"/>
-      <c r="G108" s="123"/>
-      <c r="H108" s="123"/>
-      <c r="I108" s="123"/>
-      <c r="J108" s="123"/>
-      <c r="K108" s="123"/>
-      <c r="L108" s="123"/>
-      <c r="M108" s="123"/>
-      <c r="N108" s="123"/>
-      <c r="O108" s="123"/>
+      <c r="B108" s="118"/>
+      <c r="C108" s="119"/>
+      <c r="D108" s="119"/>
+      <c r="E108" s="119"/>
+      <c r="F108" s="119"/>
+      <c r="G108" s="119"/>
+      <c r="H108" s="119"/>
+      <c r="I108" s="119"/>
+      <c r="J108" s="119"/>
+      <c r="K108" s="119"/>
+      <c r="L108" s="119"/>
+      <c r="M108" s="119"/>
+      <c r="N108" s="119"/>
+      <c r="O108" s="119"/>
       <c r="P108"/>
       <c r="Q108"/>
     </row>
     <row r="109" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B109" s="122"/>
-      <c r="C109" s="123"/>
-      <c r="D109" s="123"/>
-      <c r="E109" s="123"/>
-      <c r="F109" s="123"/>
-      <c r="G109" s="123"/>
-      <c r="H109" s="123"/>
-      <c r="I109" s="123"/>
-      <c r="J109" s="123"/>
-      <c r="K109" s="123"/>
-      <c r="L109" s="123"/>
-      <c r="M109" s="123"/>
-      <c r="N109" s="123"/>
-      <c r="O109" s="123"/>
+      <c r="B109" s="118"/>
+      <c r="C109" s="119"/>
+      <c r="D109" s="119"/>
+      <c r="E109" s="119"/>
+      <c r="F109" s="119"/>
+      <c r="G109" s="119"/>
+      <c r="H109" s="119"/>
+      <c r="I109" s="119"/>
+      <c r="J109" s="119"/>
+      <c r="K109" s="119"/>
+      <c r="L109" s="119"/>
+      <c r="M109" s="119"/>
+      <c r="N109" s="119"/>
+      <c r="O109" s="119"/>
       <c r="P109"/>
       <c r="Q109"/>
     </row>
     <row r="110" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B110" s="122"/>
-      <c r="C110" s="123"/>
-      <c r="D110" s="123"/>
-      <c r="E110" s="123"/>
-      <c r="F110" s="123"/>
-      <c r="G110" s="123"/>
-      <c r="H110" s="123"/>
-      <c r="I110" s="123"/>
-      <c r="J110" s="123"/>
-      <c r="K110" s="123"/>
-      <c r="L110" s="123"/>
-      <c r="M110" s="123"/>
-      <c r="N110" s="123"/>
-      <c r="O110" s="123"/>
+      <c r="B110" s="118"/>
+      <c r="C110" s="119"/>
+      <c r="D110" s="119"/>
+      <c r="E110" s="119"/>
+      <c r="F110" s="119"/>
+      <c r="G110" s="119"/>
+      <c r="H110" s="119"/>
+      <c r="I110" s="119"/>
+      <c r="J110" s="119"/>
+      <c r="K110" s="119"/>
+      <c r="L110" s="119"/>
+      <c r="M110" s="119"/>
+      <c r="N110" s="119"/>
+      <c r="O110" s="119"/>
       <c r="P110"/>
       <c r="Q110"/>
     </row>
     <row r="111" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B111" s="122"/>
-      <c r="C111" s="123"/>
-      <c r="D111" s="123"/>
-      <c r="E111" s="123"/>
-      <c r="F111" s="123"/>
-      <c r="G111" s="123"/>
-      <c r="H111" s="123"/>
-      <c r="I111" s="123"/>
-      <c r="J111" s="123"/>
-      <c r="K111" s="123"/>
-      <c r="L111" s="123"/>
-      <c r="M111" s="123"/>
-      <c r="N111" s="123"/>
-      <c r="O111" s="123"/>
+      <c r="B111" s="118"/>
+      <c r="C111" s="119"/>
+      <c r="D111" s="119"/>
+      <c r="E111" s="119"/>
+      <c r="F111" s="119"/>
+      <c r="G111" s="119"/>
+      <c r="H111" s="119"/>
+      <c r="I111" s="119"/>
+      <c r="J111" s="119"/>
+      <c r="K111" s="119"/>
+      <c r="L111" s="119"/>
+      <c r="M111" s="119"/>
+      <c r="N111" s="119"/>
+      <c r="O111" s="119"/>
       <c r="P111"/>
       <c r="Q111"/>
     </row>
     <row r="112" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B112" s="122"/>
-      <c r="C112" s="123"/>
-      <c r="D112" s="123"/>
-      <c r="E112" s="123"/>
-      <c r="F112" s="123"/>
-      <c r="G112" s="123"/>
-      <c r="H112" s="123"/>
-      <c r="I112" s="123"/>
-      <c r="J112" s="123"/>
-      <c r="K112" s="123"/>
-      <c r="L112" s="123"/>
-      <c r="M112" s="123"/>
-      <c r="N112" s="123"/>
-      <c r="O112" s="123"/>
+      <c r="B112" s="118"/>
+      <c r="C112" s="119"/>
+      <c r="D112" s="119"/>
+      <c r="E112" s="119"/>
+      <c r="F112" s="119"/>
+      <c r="G112" s="119"/>
+      <c r="H112" s="119"/>
+      <c r="I112" s="119"/>
+      <c r="J112" s="119"/>
+      <c r="K112" s="119"/>
+      <c r="L112" s="119"/>
+      <c r="M112" s="119"/>
+      <c r="N112" s="119"/>
+      <c r="O112" s="119"/>
       <c r="P112"/>
       <c r="Q112"/>
     </row>
     <row r="113" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B113" s="122"/>
-      <c r="C113" s="123"/>
-      <c r="D113" s="123"/>
-      <c r="E113" s="123"/>
-      <c r="F113" s="123"/>
-      <c r="G113" s="123"/>
-      <c r="H113" s="123"/>
-      <c r="I113" s="123"/>
-      <c r="J113" s="123"/>
-      <c r="K113" s="123"/>
-      <c r="L113" s="123"/>
-      <c r="M113" s="123"/>
-      <c r="N113" s="123"/>
-      <c r="O113" s="123"/>
+      <c r="B113" s="118"/>
+      <c r="C113" s="119"/>
+      <c r="D113" s="119"/>
+      <c r="E113" s="119"/>
+      <c r="F113" s="119"/>
+      <c r="G113" s="119"/>
+      <c r="H113" s="119"/>
+      <c r="I113" s="119"/>
+      <c r="J113" s="119"/>
+      <c r="K113" s="119"/>
+      <c r="L113" s="119"/>
+      <c r="M113" s="119"/>
+      <c r="N113" s="119"/>
+      <c r="O113" s="119"/>
       <c r="P113"/>
       <c r="Q113"/>
     </row>
     <row r="114" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B114" s="122"/>
-      <c r="C114" s="123"/>
-      <c r="D114" s="123"/>
-      <c r="E114" s="123"/>
-      <c r="F114" s="123"/>
-      <c r="G114" s="123"/>
-      <c r="H114" s="123"/>
-      <c r="I114" s="123"/>
-      <c r="J114" s="123"/>
-      <c r="K114" s="123"/>
-      <c r="L114" s="123"/>
-      <c r="M114" s="123"/>
-      <c r="N114" s="123"/>
-      <c r="O114" s="123"/>
+      <c r="B114" s="118"/>
+      <c r="C114" s="119"/>
+      <c r="D114" s="119"/>
+      <c r="E114" s="119"/>
+      <c r="F114" s="119"/>
+      <c r="G114" s="119"/>
+      <c r="H114" s="119"/>
+      <c r="I114" s="119"/>
+      <c r="J114" s="119"/>
+      <c r="K114" s="119"/>
+      <c r="L114" s="119"/>
+      <c r="M114" s="119"/>
+      <c r="N114" s="119"/>
+      <c r="O114" s="119"/>
       <c r="P114"/>
       <c r="Q114"/>
     </row>
     <row r="115" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B115" s="122"/>
-      <c r="C115" s="123"/>
-      <c r="D115" s="123"/>
-      <c r="E115" s="123"/>
-      <c r="F115" s="123"/>
-      <c r="G115" s="123"/>
-      <c r="H115" s="123"/>
-      <c r="I115" s="123"/>
-      <c r="J115" s="123"/>
-      <c r="K115" s="123"/>
-      <c r="L115" s="123"/>
-      <c r="M115" s="123"/>
-      <c r="N115" s="123"/>
-      <c r="O115" s="123"/>
+      <c r="B115" s="118"/>
+      <c r="C115" s="119"/>
+      <c r="D115" s="119"/>
+      <c r="E115" s="119"/>
+      <c r="F115" s="119"/>
+      <c r="G115" s="119"/>
+      <c r="H115" s="119"/>
+      <c r="I115" s="119"/>
+      <c r="J115" s="119"/>
+      <c r="K115" s="119"/>
+      <c r="L115" s="119"/>
+      <c r="M115" s="119"/>
+      <c r="N115" s="119"/>
+      <c r="O115" s="119"/>
       <c r="P115"/>
       <c r="Q115"/>
     </row>
     <row r="116" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B116" s="122"/>
-      <c r="C116" s="123"/>
-      <c r="D116" s="123"/>
-      <c r="E116" s="123"/>
-      <c r="F116" s="123"/>
-      <c r="G116" s="123"/>
-      <c r="H116" s="123"/>
-      <c r="I116" s="123"/>
-      <c r="J116" s="123"/>
-      <c r="K116" s="123"/>
-      <c r="L116" s="123"/>
-      <c r="M116" s="123"/>
-      <c r="N116" s="123"/>
-      <c r="O116" s="123"/>
+      <c r="B116" s="118"/>
+      <c r="C116" s="119"/>
+      <c r="D116" s="119"/>
+      <c r="E116" s="119"/>
+      <c r="F116" s="119"/>
+      <c r="G116" s="119"/>
+      <c r="H116" s="119"/>
+      <c r="I116" s="119"/>
+      <c r="J116" s="119"/>
+      <c r="K116" s="119"/>
+      <c r="L116" s="119"/>
+      <c r="M116" s="119"/>
+      <c r="N116" s="119"/>
+      <c r="O116" s="119"/>
       <c r="P116"/>
       <c r="Q116"/>
     </row>
     <row r="117" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B117" s="122"/>
-      <c r="C117" s="123"/>
-      <c r="D117" s="123"/>
-      <c r="E117" s="123"/>
-      <c r="F117" s="123"/>
-      <c r="G117" s="123"/>
-      <c r="H117" s="123"/>
-      <c r="I117" s="123"/>
-      <c r="J117" s="123"/>
-      <c r="K117" s="123"/>
-      <c r="L117" s="123"/>
-      <c r="M117" s="123"/>
-      <c r="N117" s="123"/>
-      <c r="O117" s="123"/>
+      <c r="B117" s="118"/>
+      <c r="C117" s="119"/>
+      <c r="D117" s="119"/>
+      <c r="E117" s="119"/>
+      <c r="F117" s="119"/>
+      <c r="G117" s="119"/>
+      <c r="H117" s="119"/>
+      <c r="I117" s="119"/>
+      <c r="J117" s="119"/>
+      <c r="K117" s="119"/>
+      <c r="L117" s="119"/>
+      <c r="M117" s="119"/>
+      <c r="N117" s="119"/>
+      <c r="O117" s="119"/>
       <c r="P117"/>
       <c r="Q117"/>
     </row>
     <row r="118" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B118" s="122"/>
-      <c r="C118" s="123"/>
-      <c r="D118" s="123"/>
-      <c r="E118" s="123"/>
-      <c r="F118" s="123"/>
-      <c r="G118" s="123"/>
-      <c r="H118" s="123"/>
-      <c r="I118" s="123"/>
-      <c r="J118" s="123"/>
-      <c r="K118" s="123"/>
-      <c r="L118" s="123"/>
-      <c r="M118" s="123"/>
-      <c r="N118" s="123"/>
-      <c r="O118" s="123"/>
+      <c r="B118" s="118"/>
+      <c r="C118" s="119"/>
+      <c r="D118" s="119"/>
+      <c r="E118" s="119"/>
+      <c r="F118" s="119"/>
+      <c r="G118" s="119"/>
+      <c r="H118" s="119"/>
+      <c r="I118" s="119"/>
+      <c r="J118" s="119"/>
+      <c r="K118" s="119"/>
+      <c r="L118" s="119"/>
+      <c r="M118" s="119"/>
+      <c r="N118" s="119"/>
+      <c r="O118" s="119"/>
       <c r="P118"/>
       <c r="Q118"/>
     </row>
     <row r="119" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B119" s="122"/>
-      <c r="C119" s="123"/>
-      <c r="D119" s="123"/>
-      <c r="E119" s="123"/>
-      <c r="F119" s="123"/>
-      <c r="G119" s="123"/>
-      <c r="H119" s="123"/>
-      <c r="I119" s="123"/>
-      <c r="J119" s="123"/>
-      <c r="K119" s="123"/>
-      <c r="L119" s="123"/>
-      <c r="M119" s="123"/>
-      <c r="N119" s="123"/>
-      <c r="O119" s="123"/>
+      <c r="B119" s="118"/>
+      <c r="C119" s="119"/>
+      <c r="D119" s="119"/>
+      <c r="E119" s="119"/>
+      <c r="F119" s="119"/>
+      <c r="G119" s="119"/>
+      <c r="H119" s="119"/>
+      <c r="I119" s="119"/>
+      <c r="J119" s="119"/>
+      <c r="K119" s="119"/>
+      <c r="L119" s="119"/>
+      <c r="M119" s="119"/>
+      <c r="N119" s="119"/>
+      <c r="O119" s="119"/>
       <c r="P119"/>
       <c r="Q119"/>
     </row>
     <row r="120" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B120" s="122"/>
-      <c r="C120" s="123"/>
-      <c r="D120" s="123"/>
-      <c r="E120" s="123"/>
-      <c r="F120" s="123"/>
-      <c r="G120" s="123"/>
-      <c r="H120" s="123"/>
-      <c r="I120" s="123"/>
-      <c r="J120" s="123"/>
-      <c r="K120" s="123"/>
-      <c r="L120" s="123"/>
-      <c r="M120" s="123"/>
-      <c r="N120" s="123"/>
-      <c r="O120" s="123"/>
+      <c r="B120" s="118"/>
+      <c r="C120" s="119"/>
+      <c r="D120" s="119"/>
+      <c r="E120" s="119"/>
+      <c r="F120" s="119"/>
+      <c r="G120" s="119"/>
+      <c r="H120" s="119"/>
+      <c r="I120" s="119"/>
+      <c r="J120" s="119"/>
+      <c r="K120" s="119"/>
+      <c r="L120" s="119"/>
+      <c r="M120" s="119"/>
+      <c r="N120" s="119"/>
+      <c r="O120" s="119"/>
       <c r="P120"/>
       <c r="Q120"/>
     </row>
     <row r="121" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B121" s="122"/>
-      <c r="C121" s="123"/>
-      <c r="D121" s="123"/>
-      <c r="E121" s="123"/>
-      <c r="F121" s="123"/>
-      <c r="G121" s="123"/>
-      <c r="H121" s="123"/>
-      <c r="I121" s="123"/>
-      <c r="J121" s="123"/>
-      <c r="K121" s="123"/>
-      <c r="L121" s="123"/>
-      <c r="M121" s="123"/>
-      <c r="N121" s="123"/>
-      <c r="O121" s="123"/>
+      <c r="B121" s="118"/>
+      <c r="C121" s="119"/>
+      <c r="D121" s="119"/>
+      <c r="E121" s="119"/>
+      <c r="F121" s="119"/>
+      <c r="G121" s="119"/>
+      <c r="H121" s="119"/>
+      <c r="I121" s="119"/>
+      <c r="J121" s="119"/>
+      <c r="K121" s="119"/>
+      <c r="L121" s="119"/>
+      <c r="M121" s="119"/>
+      <c r="N121" s="119"/>
+      <c r="O121" s="119"/>
       <c r="P121"/>
       <c r="Q121"/>
     </row>
     <row r="122" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B122" s="122"/>
-      <c r="C122" s="123"/>
-      <c r="D122" s="123"/>
-      <c r="E122" s="123"/>
-      <c r="F122" s="123"/>
-      <c r="G122" s="123"/>
-      <c r="H122" s="123"/>
-      <c r="I122" s="123"/>
-      <c r="J122" s="123"/>
-      <c r="K122" s="123"/>
-      <c r="L122" s="123"/>
-      <c r="M122" s="123"/>
-      <c r="N122" s="123"/>
-      <c r="O122" s="123"/>
+      <c r="B122" s="118"/>
+      <c r="C122" s="119"/>
+      <c r="D122" s="119"/>
+      <c r="E122" s="119"/>
+      <c r="F122" s="119"/>
+      <c r="G122" s="119"/>
+      <c r="H122" s="119"/>
+      <c r="I122" s="119"/>
+      <c r="J122" s="119"/>
+      <c r="K122" s="119"/>
+      <c r="L122" s="119"/>
+      <c r="M122" s="119"/>
+      <c r="N122" s="119"/>
+      <c r="O122" s="119"/>
       <c r="P122"/>
       <c r="Q122"/>
     </row>
     <row r="123" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B123" s="122"/>
-      <c r="C123" s="123"/>
-      <c r="D123" s="123"/>
-      <c r="E123" s="123"/>
-      <c r="F123" s="123"/>
-      <c r="G123" s="123"/>
-      <c r="H123" s="123"/>
-      <c r="I123" s="123"/>
-      <c r="J123" s="123"/>
-      <c r="K123" s="123"/>
-      <c r="L123" s="123"/>
-      <c r="M123" s="123"/>
-      <c r="N123" s="123"/>
-      <c r="O123" s="123"/>
+      <c r="B123" s="118"/>
+      <c r="C123" s="119"/>
+      <c r="D123" s="119"/>
+      <c r="E123" s="119"/>
+      <c r="F123" s="119"/>
+      <c r="G123" s="119"/>
+      <c r="H123" s="119"/>
+      <c r="I123" s="119"/>
+      <c r="J123" s="119"/>
+      <c r="K123" s="119"/>
+      <c r="L123" s="119"/>
+      <c r="M123" s="119"/>
+      <c r="N123" s="119"/>
+      <c r="O123" s="119"/>
       <c r="P123"/>
       <c r="Q123"/>
     </row>
     <row r="124" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B124" s="122"/>
-      <c r="C124" s="123"/>
-      <c r="D124" s="123"/>
-      <c r="E124" s="123"/>
-      <c r="F124" s="123"/>
-      <c r="G124" s="123"/>
-      <c r="H124" s="123"/>
-      <c r="I124" s="123"/>
-      <c r="J124" s="123"/>
-      <c r="K124" s="123"/>
-      <c r="L124" s="123"/>
-      <c r="M124" s="123"/>
-      <c r="N124" s="123"/>
-      <c r="O124" s="123"/>
+      <c r="B124" s="118"/>
+      <c r="C124" s="119"/>
+      <c r="D124" s="119"/>
+      <c r="E124" s="119"/>
+      <c r="F124" s="119"/>
+      <c r="G124" s="119"/>
+      <c r="H124" s="119"/>
+      <c r="I124" s="119"/>
+      <c r="J124" s="119"/>
+      <c r="K124" s="119"/>
+      <c r="L124" s="119"/>
+      <c r="M124" s="119"/>
+      <c r="N124" s="119"/>
+      <c r="O124" s="119"/>
       <c r="P124"/>
       <c r="Q124"/>
     </row>
     <row r="125" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B125" s="122"/>
-      <c r="C125" s="123"/>
-      <c r="D125" s="123"/>
-      <c r="E125" s="123"/>
-      <c r="F125" s="123"/>
-      <c r="G125" s="123"/>
-      <c r="H125" s="123"/>
-      <c r="I125" s="123"/>
-      <c r="J125" s="123"/>
-      <c r="K125" s="123"/>
-      <c r="L125" s="123"/>
-      <c r="M125" s="123"/>
-      <c r="N125" s="123"/>
-      <c r="O125" s="123"/>
+      <c r="B125" s="118"/>
+      <c r="C125" s="119"/>
+      <c r="D125" s="119"/>
+      <c r="E125" s="119"/>
+      <c r="F125" s="119"/>
+      <c r="G125" s="119"/>
+      <c r="H125" s="119"/>
+      <c r="I125" s="119"/>
+      <c r="J125" s="119"/>
+      <c r="K125" s="119"/>
+      <c r="L125" s="119"/>
+      <c r="M125" s="119"/>
+      <c r="N125" s="119"/>
+      <c r="O125" s="119"/>
       <c r="P125"/>
       <c r="Q125"/>
     </row>
     <row r="126" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B126" s="122"/>
-      <c r="C126" s="123"/>
-      <c r="D126" s="123"/>
-      <c r="E126" s="123"/>
-      <c r="F126" s="123"/>
-      <c r="G126" s="123"/>
-      <c r="H126" s="123"/>
-      <c r="I126" s="123"/>
-      <c r="J126" s="123"/>
-      <c r="K126" s="123"/>
-      <c r="L126" s="123"/>
-      <c r="M126" s="123"/>
-      <c r="N126" s="123"/>
-      <c r="O126" s="123"/>
+      <c r="B126" s="118"/>
+      <c r="C126" s="119"/>
+      <c r="D126" s="119"/>
+      <c r="E126" s="119"/>
+      <c r="F126" s="119"/>
+      <c r="G126" s="119"/>
+      <c r="H126" s="119"/>
+      <c r="I126" s="119"/>
+      <c r="J126" s="119"/>
+      <c r="K126" s="119"/>
+      <c r="L126" s="119"/>
+      <c r="M126" s="119"/>
+      <c r="N126" s="119"/>
+      <c r="O126" s="119"/>
       <c r="P126"/>
       <c r="Q126"/>
     </row>
     <row r="127" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B127" s="122"/>
-      <c r="C127" s="123"/>
-      <c r="D127" s="123"/>
-      <c r="E127" s="123"/>
-      <c r="F127" s="123"/>
-      <c r="G127" s="123"/>
-      <c r="H127" s="123"/>
-      <c r="I127" s="123"/>
-      <c r="J127" s="123"/>
-      <c r="K127" s="123"/>
-      <c r="L127" s="123"/>
-      <c r="M127" s="123"/>
-      <c r="N127" s="123"/>
-      <c r="O127" s="123"/>
+      <c r="B127" s="118"/>
+      <c r="C127" s="119"/>
+      <c r="D127" s="119"/>
+      <c r="E127" s="119"/>
+      <c r="F127" s="119"/>
+      <c r="G127" s="119"/>
+      <c r="H127" s="119"/>
+      <c r="I127" s="119"/>
+      <c r="J127" s="119"/>
+      <c r="K127" s="119"/>
+      <c r="L127" s="119"/>
+      <c r="M127" s="119"/>
+      <c r="N127" s="119"/>
+      <c r="O127" s="119"/>
       <c r="P127"/>
       <c r="Q127"/>
     </row>
     <row r="128" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B128" s="122"/>
-      <c r="C128" s="123"/>
-      <c r="D128" s="123"/>
-      <c r="E128" s="123"/>
-      <c r="F128" s="123"/>
-      <c r="G128" s="123"/>
-      <c r="H128" s="123"/>
-      <c r="I128" s="123"/>
-      <c r="J128" s="123"/>
-      <c r="K128" s="123"/>
-      <c r="L128" s="123"/>
-      <c r="M128" s="123"/>
-      <c r="N128" s="123"/>
-      <c r="O128" s="123"/>
+      <c r="B128" s="118"/>
+      <c r="C128" s="119"/>
+      <c r="D128" s="119"/>
+      <c r="E128" s="119"/>
+      <c r="F128" s="119"/>
+      <c r="G128" s="119"/>
+      <c r="H128" s="119"/>
+      <c r="I128" s="119"/>
+      <c r="J128" s="119"/>
+      <c r="K128" s="119"/>
+      <c r="L128" s="119"/>
+      <c r="M128" s="119"/>
+      <c r="N128" s="119"/>
+      <c r="O128" s="119"/>
       <c r="P128"/>
       <c r="Q128"/>
     </row>
@@ -7941,17 +8143,17 @@
       <c r="Q129"/>
     </row>
     <row r="130" spans="2:17" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B130" s="124" t="s">
+      <c r="B130" s="120" t="s">
         <v>18</v>
       </c>
-      <c r="C130" s="124"/>
-      <c r="D130" s="124"/>
-      <c r="E130" s="124"/>
-      <c r="F130" s="124"/>
-      <c r="G130" s="124"/>
-      <c r="H130" s="124"/>
-      <c r="I130" s="124"/>
-      <c r="J130" s="124"/>
+      <c r="C130" s="120"/>
+      <c r="D130" s="120"/>
+      <c r="E130" s="120"/>
+      <c r="F130" s="120"/>
+      <c r="G130" s="120"/>
+      <c r="H130" s="120"/>
+      <c r="I130" s="120"/>
+      <c r="J130" s="120"/>
       <c r="K130"/>
       <c r="L130"/>
       <c r="M130"/>
@@ -7961,428 +8163,428 @@
       <c r="Q130"/>
     </row>
     <row r="131" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B131" s="122"/>
-      <c r="C131" s="123"/>
-      <c r="D131" s="123"/>
-      <c r="E131" s="123"/>
-      <c r="F131" s="123"/>
-      <c r="G131" s="123"/>
-      <c r="H131" s="123"/>
-      <c r="I131" s="123"/>
-      <c r="J131" s="123"/>
-      <c r="K131" s="123"/>
-      <c r="L131" s="123"/>
-      <c r="M131" s="123"/>
-      <c r="N131" s="123"/>
-      <c r="O131" s="123"/>
+      <c r="B131" s="118"/>
+      <c r="C131" s="119"/>
+      <c r="D131" s="119"/>
+      <c r="E131" s="119"/>
+      <c r="F131" s="119"/>
+      <c r="G131" s="119"/>
+      <c r="H131" s="119"/>
+      <c r="I131" s="119"/>
+      <c r="J131" s="119"/>
+      <c r="K131" s="119"/>
+      <c r="L131" s="119"/>
+      <c r="M131" s="119"/>
+      <c r="N131" s="119"/>
+      <c r="O131" s="119"/>
       <c r="P131"/>
       <c r="Q131"/>
     </row>
     <row r="132" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B132" s="122"/>
-      <c r="C132" s="123"/>
-      <c r="D132" s="123"/>
-      <c r="E132" s="123"/>
-      <c r="F132" s="123"/>
-      <c r="G132" s="123"/>
-      <c r="H132" s="123"/>
-      <c r="I132" s="123"/>
-      <c r="J132" s="123"/>
-      <c r="K132" s="123"/>
-      <c r="L132" s="123"/>
-      <c r="M132" s="123"/>
-      <c r="N132" s="123"/>
-      <c r="O132" s="123"/>
+      <c r="B132" s="118"/>
+      <c r="C132" s="119"/>
+      <c r="D132" s="119"/>
+      <c r="E132" s="119"/>
+      <c r="F132" s="119"/>
+      <c r="G132" s="119"/>
+      <c r="H132" s="119"/>
+      <c r="I132" s="119"/>
+      <c r="J132" s="119"/>
+      <c r="K132" s="119"/>
+      <c r="L132" s="119"/>
+      <c r="M132" s="119"/>
+      <c r="N132" s="119"/>
+      <c r="O132" s="119"/>
       <c r="P132"/>
       <c r="Q132"/>
     </row>
     <row r="133" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B133" s="122"/>
-      <c r="C133" s="123"/>
-      <c r="D133" s="123"/>
-      <c r="E133" s="123"/>
-      <c r="F133" s="123"/>
-      <c r="G133" s="123"/>
-      <c r="H133" s="123"/>
-      <c r="I133" s="123"/>
-      <c r="J133" s="123"/>
-      <c r="K133" s="123"/>
-      <c r="L133" s="123"/>
-      <c r="M133" s="123"/>
-      <c r="N133" s="123"/>
-      <c r="O133" s="123"/>
+      <c r="B133" s="118"/>
+      <c r="C133" s="119"/>
+      <c r="D133" s="119"/>
+      <c r="E133" s="119"/>
+      <c r="F133" s="119"/>
+      <c r="G133" s="119"/>
+      <c r="H133" s="119"/>
+      <c r="I133" s="119"/>
+      <c r="J133" s="119"/>
+      <c r="K133" s="119"/>
+      <c r="L133" s="119"/>
+      <c r="M133" s="119"/>
+      <c r="N133" s="119"/>
+      <c r="O133" s="119"/>
       <c r="P133"/>
       <c r="Q133"/>
     </row>
     <row r="134" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B134" s="122"/>
-      <c r="C134" s="123"/>
-      <c r="D134" s="123"/>
-      <c r="E134" s="123"/>
-      <c r="F134" s="123"/>
-      <c r="G134" s="123"/>
-      <c r="H134" s="123"/>
-      <c r="I134" s="123"/>
-      <c r="J134" s="123"/>
-      <c r="K134" s="123"/>
-      <c r="L134" s="123"/>
-      <c r="M134" s="123"/>
-      <c r="N134" s="123"/>
-      <c r="O134" s="123"/>
+      <c r="B134" s="118"/>
+      <c r="C134" s="119"/>
+      <c r="D134" s="119"/>
+      <c r="E134" s="119"/>
+      <c r="F134" s="119"/>
+      <c r="G134" s="119"/>
+      <c r="H134" s="119"/>
+      <c r="I134" s="119"/>
+      <c r="J134" s="119"/>
+      <c r="K134" s="119"/>
+      <c r="L134" s="119"/>
+      <c r="M134" s="119"/>
+      <c r="N134" s="119"/>
+      <c r="O134" s="119"/>
       <c r="P134"/>
       <c r="Q134"/>
     </row>
     <row r="135" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B135" s="122"/>
-      <c r="C135" s="123"/>
-      <c r="D135" s="123"/>
-      <c r="E135" s="123"/>
-      <c r="F135" s="123"/>
-      <c r="G135" s="123"/>
-      <c r="H135" s="123"/>
-      <c r="I135" s="123"/>
-      <c r="J135" s="123"/>
-      <c r="K135" s="123"/>
-      <c r="L135" s="123"/>
-      <c r="M135" s="123"/>
-      <c r="N135" s="123"/>
-      <c r="O135" s="123"/>
+      <c r="B135" s="118"/>
+      <c r="C135" s="119"/>
+      <c r="D135" s="119"/>
+      <c r="E135" s="119"/>
+      <c r="F135" s="119"/>
+      <c r="G135" s="119"/>
+      <c r="H135" s="119"/>
+      <c r="I135" s="119"/>
+      <c r="J135" s="119"/>
+      <c r="K135" s="119"/>
+      <c r="L135" s="119"/>
+      <c r="M135" s="119"/>
+      <c r="N135" s="119"/>
+      <c r="O135" s="119"/>
       <c r="P135"/>
       <c r="Q135"/>
     </row>
     <row r="136" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B136" s="122"/>
-      <c r="C136" s="123"/>
-      <c r="D136" s="123"/>
-      <c r="E136" s="123"/>
-      <c r="F136" s="123"/>
-      <c r="G136" s="123"/>
-      <c r="H136" s="123"/>
-      <c r="I136" s="123"/>
-      <c r="J136" s="123"/>
-      <c r="K136" s="123"/>
-      <c r="L136" s="123"/>
-      <c r="M136" s="123"/>
-      <c r="N136" s="123"/>
-      <c r="O136" s="123"/>
+      <c r="B136" s="118"/>
+      <c r="C136" s="119"/>
+      <c r="D136" s="119"/>
+      <c r="E136" s="119"/>
+      <c r="F136" s="119"/>
+      <c r="G136" s="119"/>
+      <c r="H136" s="119"/>
+      <c r="I136" s="119"/>
+      <c r="J136" s="119"/>
+      <c r="K136" s="119"/>
+      <c r="L136" s="119"/>
+      <c r="M136" s="119"/>
+      <c r="N136" s="119"/>
+      <c r="O136" s="119"/>
       <c r="P136"/>
       <c r="Q136"/>
     </row>
     <row r="137" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B137" s="122"/>
-      <c r="C137" s="123"/>
-      <c r="D137" s="123"/>
-      <c r="E137" s="123"/>
-      <c r="F137" s="123"/>
-      <c r="G137" s="123"/>
-      <c r="H137" s="123"/>
-      <c r="I137" s="123"/>
-      <c r="J137" s="123"/>
-      <c r="K137" s="123"/>
-      <c r="L137" s="123"/>
-      <c r="M137" s="123"/>
-      <c r="N137" s="123"/>
-      <c r="O137" s="123"/>
+      <c r="B137" s="118"/>
+      <c r="C137" s="119"/>
+      <c r="D137" s="119"/>
+      <c r="E137" s="119"/>
+      <c r="F137" s="119"/>
+      <c r="G137" s="119"/>
+      <c r="H137" s="119"/>
+      <c r="I137" s="119"/>
+      <c r="J137" s="119"/>
+      <c r="K137" s="119"/>
+      <c r="L137" s="119"/>
+      <c r="M137" s="119"/>
+      <c r="N137" s="119"/>
+      <c r="O137" s="119"/>
       <c r="P137"/>
       <c r="Q137"/>
     </row>
     <row r="138" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B138" s="122"/>
-      <c r="C138" s="123"/>
-      <c r="D138" s="123"/>
-      <c r="E138" s="123"/>
-      <c r="F138" s="123"/>
-      <c r="G138" s="123"/>
-      <c r="H138" s="123"/>
-      <c r="I138" s="123"/>
-      <c r="J138" s="123"/>
-      <c r="K138" s="123"/>
-      <c r="L138" s="123"/>
-      <c r="M138" s="123"/>
-      <c r="N138" s="123"/>
-      <c r="O138" s="123"/>
+      <c r="B138" s="118"/>
+      <c r="C138" s="119"/>
+      <c r="D138" s="119"/>
+      <c r="E138" s="119"/>
+      <c r="F138" s="119"/>
+      <c r="G138" s="119"/>
+      <c r="H138" s="119"/>
+      <c r="I138" s="119"/>
+      <c r="J138" s="119"/>
+      <c r="K138" s="119"/>
+      <c r="L138" s="119"/>
+      <c r="M138" s="119"/>
+      <c r="N138" s="119"/>
+      <c r="O138" s="119"/>
       <c r="P138"/>
       <c r="Q138"/>
     </row>
     <row r="139" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B139" s="122"/>
-      <c r="C139" s="123"/>
-      <c r="D139" s="123"/>
-      <c r="E139" s="123"/>
-      <c r="F139" s="123"/>
-      <c r="G139" s="123"/>
-      <c r="H139" s="123"/>
-      <c r="I139" s="123"/>
-      <c r="J139" s="123"/>
-      <c r="K139" s="123"/>
-      <c r="L139" s="123"/>
-      <c r="M139" s="123"/>
-      <c r="N139" s="123"/>
-      <c r="O139" s="123"/>
+      <c r="B139" s="118"/>
+      <c r="C139" s="119"/>
+      <c r="D139" s="119"/>
+      <c r="E139" s="119"/>
+      <c r="F139" s="119"/>
+      <c r="G139" s="119"/>
+      <c r="H139" s="119"/>
+      <c r="I139" s="119"/>
+      <c r="J139" s="119"/>
+      <c r="K139" s="119"/>
+      <c r="L139" s="119"/>
+      <c r="M139" s="119"/>
+      <c r="N139" s="119"/>
+      <c r="O139" s="119"/>
       <c r="P139"/>
       <c r="Q139"/>
     </row>
     <row r="140" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B140" s="122"/>
-      <c r="C140" s="123"/>
-      <c r="D140" s="123"/>
-      <c r="E140" s="123"/>
-      <c r="F140" s="123"/>
-      <c r="G140" s="123"/>
-      <c r="H140" s="123"/>
-      <c r="I140" s="123"/>
-      <c r="J140" s="123"/>
-      <c r="K140" s="123"/>
-      <c r="L140" s="123"/>
-      <c r="M140" s="123"/>
-      <c r="N140" s="123"/>
-      <c r="O140" s="123"/>
+      <c r="B140" s="118"/>
+      <c r="C140" s="119"/>
+      <c r="D140" s="119"/>
+      <c r="E140" s="119"/>
+      <c r="F140" s="119"/>
+      <c r="G140" s="119"/>
+      <c r="H140" s="119"/>
+      <c r="I140" s="119"/>
+      <c r="J140" s="119"/>
+      <c r="K140" s="119"/>
+      <c r="L140" s="119"/>
+      <c r="M140" s="119"/>
+      <c r="N140" s="119"/>
+      <c r="O140" s="119"/>
       <c r="P140"/>
       <c r="Q140"/>
     </row>
     <row r="141" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B141" s="122"/>
-      <c r="C141" s="123"/>
-      <c r="D141" s="123"/>
-      <c r="E141" s="123"/>
-      <c r="F141" s="123"/>
-      <c r="G141" s="123"/>
-      <c r="H141" s="123"/>
-      <c r="I141" s="123"/>
-      <c r="J141" s="123"/>
-      <c r="K141" s="123"/>
-      <c r="L141" s="123"/>
-      <c r="M141" s="123"/>
-      <c r="N141" s="123"/>
-      <c r="O141" s="123"/>
+      <c r="B141" s="118"/>
+      <c r="C141" s="119"/>
+      <c r="D141" s="119"/>
+      <c r="E141" s="119"/>
+      <c r="F141" s="119"/>
+      <c r="G141" s="119"/>
+      <c r="H141" s="119"/>
+      <c r="I141" s="119"/>
+      <c r="J141" s="119"/>
+      <c r="K141" s="119"/>
+      <c r="L141" s="119"/>
+      <c r="M141" s="119"/>
+      <c r="N141" s="119"/>
+      <c r="O141" s="119"/>
       <c r="P141"/>
       <c r="Q141"/>
     </row>
     <row r="142" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B142" s="122"/>
-      <c r="C142" s="123"/>
-      <c r="D142" s="123"/>
-      <c r="E142" s="123"/>
-      <c r="F142" s="123"/>
-      <c r="G142" s="123"/>
-      <c r="H142" s="123"/>
-      <c r="I142" s="123"/>
-      <c r="J142" s="123"/>
-      <c r="K142" s="123"/>
-      <c r="L142" s="123"/>
-      <c r="M142" s="123"/>
-      <c r="N142" s="123"/>
-      <c r="O142" s="123"/>
+      <c r="B142" s="118"/>
+      <c r="C142" s="119"/>
+      <c r="D142" s="119"/>
+      <c r="E142" s="119"/>
+      <c r="F142" s="119"/>
+      <c r="G142" s="119"/>
+      <c r="H142" s="119"/>
+      <c r="I142" s="119"/>
+      <c r="J142" s="119"/>
+      <c r="K142" s="119"/>
+      <c r="L142" s="119"/>
+      <c r="M142" s="119"/>
+      <c r="N142" s="119"/>
+      <c r="O142" s="119"/>
       <c r="P142"/>
       <c r="Q142"/>
     </row>
     <row r="143" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B143" s="122"/>
-      <c r="C143" s="123"/>
-      <c r="D143" s="123"/>
-      <c r="E143" s="123"/>
-      <c r="F143" s="123"/>
-      <c r="G143" s="123"/>
-      <c r="H143" s="123"/>
-      <c r="I143" s="123"/>
-      <c r="J143" s="123"/>
-      <c r="K143" s="123"/>
-      <c r="L143" s="123"/>
-      <c r="M143" s="123"/>
-      <c r="N143" s="123"/>
-      <c r="O143" s="123"/>
+      <c r="B143" s="118"/>
+      <c r="C143" s="119"/>
+      <c r="D143" s="119"/>
+      <c r="E143" s="119"/>
+      <c r="F143" s="119"/>
+      <c r="G143" s="119"/>
+      <c r="H143" s="119"/>
+      <c r="I143" s="119"/>
+      <c r="J143" s="119"/>
+      <c r="K143" s="119"/>
+      <c r="L143" s="119"/>
+      <c r="M143" s="119"/>
+      <c r="N143" s="119"/>
+      <c r="O143" s="119"/>
       <c r="P143"/>
       <c r="Q143"/>
     </row>
     <row r="144" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B144" s="122"/>
-      <c r="C144" s="123"/>
-      <c r="D144" s="123"/>
-      <c r="E144" s="123"/>
-      <c r="F144" s="123"/>
-      <c r="G144" s="123"/>
-      <c r="H144" s="123"/>
-      <c r="I144" s="123"/>
-      <c r="J144" s="123"/>
-      <c r="K144" s="123"/>
-      <c r="L144" s="123"/>
-      <c r="M144" s="123"/>
-      <c r="N144" s="123"/>
-      <c r="O144" s="123"/>
+      <c r="B144" s="118"/>
+      <c r="C144" s="119"/>
+      <c r="D144" s="119"/>
+      <c r="E144" s="119"/>
+      <c r="F144" s="119"/>
+      <c r="G144" s="119"/>
+      <c r="H144" s="119"/>
+      <c r="I144" s="119"/>
+      <c r="J144" s="119"/>
+      <c r="K144" s="119"/>
+      <c r="L144" s="119"/>
+      <c r="M144" s="119"/>
+      <c r="N144" s="119"/>
+      <c r="O144" s="119"/>
       <c r="P144"/>
       <c r="Q144"/>
     </row>
     <row r="145" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B145" s="122"/>
-      <c r="C145" s="123"/>
-      <c r="D145" s="123"/>
-      <c r="E145" s="123"/>
-      <c r="F145" s="123"/>
-      <c r="G145" s="123"/>
-      <c r="H145" s="123"/>
-      <c r="I145" s="123"/>
-      <c r="J145" s="123"/>
-      <c r="K145" s="123"/>
-      <c r="L145" s="123"/>
-      <c r="M145" s="123"/>
-      <c r="N145" s="123"/>
-      <c r="O145" s="123"/>
+      <c r="B145" s="118"/>
+      <c r="C145" s="119"/>
+      <c r="D145" s="119"/>
+      <c r="E145" s="119"/>
+      <c r="F145" s="119"/>
+      <c r="G145" s="119"/>
+      <c r="H145" s="119"/>
+      <c r="I145" s="119"/>
+      <c r="J145" s="119"/>
+      <c r="K145" s="119"/>
+      <c r="L145" s="119"/>
+      <c r="M145" s="119"/>
+      <c r="N145" s="119"/>
+      <c r="O145" s="119"/>
       <c r="P145"/>
       <c r="Q145"/>
     </row>
     <row r="146" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B146" s="122"/>
-      <c r="C146" s="123"/>
-      <c r="D146" s="123"/>
-      <c r="E146" s="123"/>
-      <c r="F146" s="123"/>
-      <c r="G146" s="123"/>
-      <c r="H146" s="123"/>
-      <c r="I146" s="123"/>
-      <c r="J146" s="123"/>
-      <c r="K146" s="123"/>
-      <c r="L146" s="123"/>
-      <c r="M146" s="123"/>
-      <c r="N146" s="123"/>
-      <c r="O146" s="123"/>
+      <c r="B146" s="118"/>
+      <c r="C146" s="119"/>
+      <c r="D146" s="119"/>
+      <c r="E146" s="119"/>
+      <c r="F146" s="119"/>
+      <c r="G146" s="119"/>
+      <c r="H146" s="119"/>
+      <c r="I146" s="119"/>
+      <c r="J146" s="119"/>
+      <c r="K146" s="119"/>
+      <c r="L146" s="119"/>
+      <c r="M146" s="119"/>
+      <c r="N146" s="119"/>
+      <c r="O146" s="119"/>
       <c r="P146"/>
       <c r="Q146"/>
     </row>
     <row r="147" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B147" s="122"/>
-      <c r="C147" s="123"/>
-      <c r="D147" s="123"/>
-      <c r="E147" s="123"/>
-      <c r="F147" s="123"/>
-      <c r="G147" s="123"/>
-      <c r="H147" s="123"/>
-      <c r="I147" s="123"/>
-      <c r="J147" s="123"/>
-      <c r="K147" s="123"/>
-      <c r="L147" s="123"/>
-      <c r="M147" s="123"/>
-      <c r="N147" s="123"/>
-      <c r="O147" s="123"/>
+      <c r="B147" s="118"/>
+      <c r="C147" s="119"/>
+      <c r="D147" s="119"/>
+      <c r="E147" s="119"/>
+      <c r="F147" s="119"/>
+      <c r="G147" s="119"/>
+      <c r="H147" s="119"/>
+      <c r="I147" s="119"/>
+      <c r="J147" s="119"/>
+      <c r="K147" s="119"/>
+      <c r="L147" s="119"/>
+      <c r="M147" s="119"/>
+      <c r="N147" s="119"/>
+      <c r="O147" s="119"/>
       <c r="P147"/>
       <c r="Q147"/>
     </row>
     <row r="148" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B148" s="122"/>
-      <c r="C148" s="123"/>
-      <c r="D148" s="123"/>
-      <c r="E148" s="123"/>
-      <c r="F148" s="123"/>
-      <c r="G148" s="123"/>
-      <c r="H148" s="123"/>
-      <c r="I148" s="123"/>
-      <c r="J148" s="123"/>
-      <c r="K148" s="123"/>
-      <c r="L148" s="123"/>
-      <c r="M148" s="123"/>
-      <c r="N148" s="123"/>
-      <c r="O148" s="123"/>
+      <c r="B148" s="118"/>
+      <c r="C148" s="119"/>
+      <c r="D148" s="119"/>
+      <c r="E148" s="119"/>
+      <c r="F148" s="119"/>
+      <c r="G148" s="119"/>
+      <c r="H148" s="119"/>
+      <c r="I148" s="119"/>
+      <c r="J148" s="119"/>
+      <c r="K148" s="119"/>
+      <c r="L148" s="119"/>
+      <c r="M148" s="119"/>
+      <c r="N148" s="119"/>
+      <c r="O148" s="119"/>
       <c r="P148"/>
       <c r="Q148"/>
     </row>
     <row r="149" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B149" s="122"/>
-      <c r="C149" s="123"/>
-      <c r="D149" s="123"/>
-      <c r="E149" s="123"/>
-      <c r="F149" s="123"/>
-      <c r="G149" s="123"/>
-      <c r="H149" s="123"/>
-      <c r="I149" s="123"/>
-      <c r="J149" s="123"/>
-      <c r="K149" s="123"/>
-      <c r="L149" s="123"/>
-      <c r="M149" s="123"/>
-      <c r="N149" s="123"/>
-      <c r="O149" s="123"/>
+      <c r="B149" s="118"/>
+      <c r="C149" s="119"/>
+      <c r="D149" s="119"/>
+      <c r="E149" s="119"/>
+      <c r="F149" s="119"/>
+      <c r="G149" s="119"/>
+      <c r="H149" s="119"/>
+      <c r="I149" s="119"/>
+      <c r="J149" s="119"/>
+      <c r="K149" s="119"/>
+      <c r="L149" s="119"/>
+      <c r="M149" s="119"/>
+      <c r="N149" s="119"/>
+      <c r="O149" s="119"/>
       <c r="P149"/>
       <c r="Q149"/>
     </row>
     <row r="150" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B150" s="122"/>
-      <c r="C150" s="123"/>
-      <c r="D150" s="123"/>
-      <c r="E150" s="123"/>
-      <c r="F150" s="123"/>
-      <c r="G150" s="123"/>
-      <c r="H150" s="123"/>
-      <c r="I150" s="123"/>
-      <c r="J150" s="123"/>
-      <c r="K150" s="123"/>
-      <c r="L150" s="123"/>
-      <c r="M150" s="123"/>
-      <c r="N150" s="123"/>
-      <c r="O150" s="123"/>
+      <c r="B150" s="118"/>
+      <c r="C150" s="119"/>
+      <c r="D150" s="119"/>
+      <c r="E150" s="119"/>
+      <c r="F150" s="119"/>
+      <c r="G150" s="119"/>
+      <c r="H150" s="119"/>
+      <c r="I150" s="119"/>
+      <c r="J150" s="119"/>
+      <c r="K150" s="119"/>
+      <c r="L150" s="119"/>
+      <c r="M150" s="119"/>
+      <c r="N150" s="119"/>
+      <c r="O150" s="119"/>
       <c r="P150"/>
       <c r="Q150"/>
     </row>
     <row r="151" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B151" s="122"/>
-      <c r="C151" s="123"/>
-      <c r="D151" s="123"/>
-      <c r="E151" s="123"/>
-      <c r="F151" s="123"/>
-      <c r="G151" s="123"/>
-      <c r="H151" s="123"/>
-      <c r="I151" s="123"/>
-      <c r="J151" s="123"/>
-      <c r="K151" s="123"/>
-      <c r="L151" s="123"/>
-      <c r="M151" s="123"/>
-      <c r="N151" s="123"/>
-      <c r="O151" s="123"/>
+      <c r="B151" s="118"/>
+      <c r="C151" s="119"/>
+      <c r="D151" s="119"/>
+      <c r="E151" s="119"/>
+      <c r="F151" s="119"/>
+      <c r="G151" s="119"/>
+      <c r="H151" s="119"/>
+      <c r="I151" s="119"/>
+      <c r="J151" s="119"/>
+      <c r="K151" s="119"/>
+      <c r="L151" s="119"/>
+      <c r="M151" s="119"/>
+      <c r="N151" s="119"/>
+      <c r="O151" s="119"/>
       <c r="P151"/>
       <c r="Q151"/>
     </row>
     <row r="152" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B152" s="122"/>
-      <c r="C152" s="123"/>
-      <c r="D152" s="123"/>
-      <c r="E152" s="123"/>
-      <c r="F152" s="123"/>
-      <c r="G152" s="123"/>
-      <c r="H152" s="123"/>
-      <c r="I152" s="123"/>
-      <c r="J152" s="123"/>
-      <c r="K152" s="123"/>
-      <c r="L152" s="123"/>
-      <c r="M152" s="123"/>
-      <c r="N152" s="123"/>
-      <c r="O152" s="123"/>
+      <c r="B152" s="118"/>
+      <c r="C152" s="119"/>
+      <c r="D152" s="119"/>
+      <c r="E152" s="119"/>
+      <c r="F152" s="119"/>
+      <c r="G152" s="119"/>
+      <c r="H152" s="119"/>
+      <c r="I152" s="119"/>
+      <c r="J152" s="119"/>
+      <c r="K152" s="119"/>
+      <c r="L152" s="119"/>
+      <c r="M152" s="119"/>
+      <c r="N152" s="119"/>
+      <c r="O152" s="119"/>
       <c r="P152"/>
       <c r="Q152"/>
     </row>
     <row r="153" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B153" s="122"/>
-      <c r="C153" s="123"/>
-      <c r="D153" s="123"/>
-      <c r="E153" s="123"/>
-      <c r="F153" s="123"/>
-      <c r="G153" s="123"/>
-      <c r="H153" s="123"/>
-      <c r="I153" s="123"/>
-      <c r="J153" s="123"/>
-      <c r="K153" s="123"/>
-      <c r="L153" s="123"/>
-      <c r="M153" s="123"/>
-      <c r="N153" s="123"/>
-      <c r="O153" s="123"/>
+      <c r="B153" s="118"/>
+      <c r="C153" s="119"/>
+      <c r="D153" s="119"/>
+      <c r="E153" s="119"/>
+      <c r="F153" s="119"/>
+      <c r="G153" s="119"/>
+      <c r="H153" s="119"/>
+      <c r="I153" s="119"/>
+      <c r="J153" s="119"/>
+      <c r="K153" s="119"/>
+      <c r="L153" s="119"/>
+      <c r="M153" s="119"/>
+      <c r="N153" s="119"/>
+      <c r="O153" s="119"/>
       <c r="P153"/>
       <c r="Q153"/>
     </row>
     <row r="154" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B154" s="125" t="s">
+      <c r="B154" s="121" t="s">
         <v>44</v>
       </c>
-      <c r="C154" s="125"/>
-      <c r="D154" s="125"/>
-      <c r="E154" s="125"/>
-      <c r="F154" s="125"/>
-      <c r="G154" s="125"/>
+      <c r="C154" s="121"/>
+      <c r="D154" s="121"/>
+      <c r="E154" s="121"/>
+      <c r="F154" s="121"/>
+      <c r="G154" s="121"/>
       <c r="H154"/>
       <c r="I154"/>
       <c r="J154"/>
@@ -8395,22 +8597,22 @@
       <c r="Q154"/>
     </row>
     <row r="155" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B155" s="125"/>
-      <c r="C155" s="125"/>
-      <c r="D155" s="125"/>
-      <c r="E155" s="125"/>
-      <c r="F155" s="125"/>
-      <c r="G155" s="125"/>
+      <c r="B155" s="121"/>
+      <c r="C155" s="121"/>
+      <c r="D155" s="121"/>
+      <c r="E155" s="121"/>
+      <c r="F155" s="121"/>
+      <c r="G155" s="121"/>
       <c r="H155"/>
       <c r="I155"/>
       <c r="J155"/>
       <c r="K155" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L155" s="126"/>
-      <c r="M155" s="126"/>
-      <c r="N155" s="126"/>
-      <c r="O155" s="126"/>
+      <c r="L155" s="122"/>
+      <c r="M155" s="122"/>
+      <c r="N155" s="122"/>
+      <c r="O155" s="122"/>
       <c r="P155"/>
       <c r="Q155"/>
     </row>
@@ -8911,11 +9113,11 @@
       <c r="A7" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="B7" s="123"/>
-      <c r="C7" s="238"/>
-      <c r="D7" s="238"/>
-      <c r="E7" s="238"/>
-      <c r="F7" s="238"/>
+      <c r="B7" s="119"/>
+      <c r="C7" s="234"/>
+      <c r="D7" s="234"/>
+      <c r="E7" s="234"/>
+      <c r="F7" s="234"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
